--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>基金产品</t>
   </si>
@@ -128,7 +128,10 @@
     <t>2023-01-05</t>
   </si>
   <si>
-    <t>排名</t>
+    <t>均成排名</t>
+  </si>
+  <si>
+    <t>总数</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +323,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -756,7 +753,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,16 +777,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -798,145 +795,133 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,678 +1270,769 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:R13"/>
+      <selection activeCell="A1" sqref="A1:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="18" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>2019</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>2020</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>2021</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>2022</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>2023</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>2024</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="13">
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>6.583</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>7.228</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>7.5705</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>6.5705</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.2942</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>-0.2247</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>0.1709</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>1.6</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>0.4802</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>0.9133</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>0.0812</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>0.2708</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>0.1464</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>0.0702</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="14">
         <v>-0.0117</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>3.8731</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>3.8731</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>3.8731</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>2.8731</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>0.274</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>-0.1817</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>0.1993</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <v>1.27</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>-0.0585</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="5">
         <v>0.8147</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="5">
         <v>0.2229</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="5">
         <v>-0.0758</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="5">
         <v>0.1779</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="5">
         <v>0.6381</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="14">
         <v>0.0395</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="4">
         <v>1.1102</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="4">
         <v>2.2124</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="4">
         <v>2.8492</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="5">
         <v>1.8492</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="5">
         <v>0.1421</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="5">
         <v>-0.1654</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="5">
         <v>0.1435</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>0.85</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="5">
         <v>0.1292</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="5">
         <v>0.326</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="5">
         <v>-0.0076</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="5">
         <v>0.1992</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="5">
         <v>0.0266</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="5">
         <v>0.1135</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="14">
         <v>0.0263</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.3664</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.2491</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.3664</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.3664</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.3676</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>-0.0338</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.1253</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>2.77</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>0.3067</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="14">
         <v>0.0457</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="4">
         <v>1.251</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>1.1965</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>1.251</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="5">
         <v>0.251</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="5">
         <v>0.1069</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="5">
         <v>-0.0926</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="5">
         <v>0.0989</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>0.88</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="5">
         <v>0.0102</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="5">
         <v>0.1241</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="5">
         <v>0.0971</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="14">
         <v>0.0041</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.669</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.669</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.669</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.669</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.126</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>-0.0773</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0.0782</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>1.35</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>0.108</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>0.0054</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>0.1284</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>0.1408</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>0.1513</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="14">
         <v>0.0109</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2.0073</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2.0073</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2.0073</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1.0073</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.1143</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>-0.1756</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.0855</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>1.1</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.138</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0.3016</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>0.0905</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.0616</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>-0.0183</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.1849</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="14">
         <v>0.0049</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.861</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.861</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2.861</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1.861</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.1214</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>-0.1459</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.1001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1.01</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.1249</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.3289</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>0.0533</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0.0238</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>0.0395</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>0.0135</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="14">
         <v>0.0021</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="4">
         <v>1.5964</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>1.5964</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="4">
         <v>1.5964</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="5">
         <v>0.5964</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="5">
         <v>0.2643</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="5">
         <v>-0.0139</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="5">
         <v>0.0693</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>3.53</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="5">
         <v>0.2181</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="5">
         <v>0.308</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="14">
         <v>0.0019</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>1.3403</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>1.4112</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>1.4178</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>0.4178</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <v>0.191</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <v>-0.0609</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <v>0.0715</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="12">
         <v>2.39</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="8">
         <v>0.1315</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="8">
         <v>0.2546</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="15">
         <v>-0.0013</v>
       </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="1">
-        <f>RANK(H11,H2:H11)</f>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f>RANK(H2,H2:H11)</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" ref="I13:R13" si="0">RANK(I2,I2:I11)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="9">
+        <f>COUNT(H2:H11)</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14:R14" si="1">COUNT(I2:I11)</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I13" s="1">
-        <f>RANK(I11,I2:I11)</f>
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
-        <f>RANK(J11,J2:J11)</f>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K13" s="1">
-        <f>RANK(K11,K2:K11)</f>
-        <v>3</v>
-      </c>
-      <c r="P13" s="1">
-        <f>RANK(P11,P2:P11)</f>
-        <v>5</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>RANK(Q11,Q2:Q11)</f>
-        <v>4</v>
-      </c>
-      <c r="R13" s="1">
-        <f>RANK(R11,R2:R11)</f>
-        <v>9</v>
+      <c r="Q14" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Q13:R13" formulaRange="1"/>
+    <ignoredError sqref="Q13:R14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>基金产品</t>
   </si>
@@ -128,10 +128,16 @@
     <t>2023-01-05</t>
   </si>
   <si>
-    <t>均成排名</t>
-  </si>
-  <si>
-    <t>总数</t>
+    <t>铭跃行远均衡一号</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>排名</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +329,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -753,7 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,16 +789,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -795,89 +807,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,43 +897,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,25 +1279,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:R14"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="18" width="6.75" customWidth="1"/>
+    <col min="12" max="17" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,14 +1347,11 @@
       <c r="P1" s="2">
         <v>2023</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="12">
         <v>2024</v>
       </c>
-      <c r="R1" s="13">
-        <v>2025</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1382,7 @@
       <c r="J2" s="5">
         <v>0.1709</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>1.6</v>
       </c>
       <c r="L2" s="5">
@@ -1393,14 +1400,11 @@
       <c r="P2" s="5">
         <v>0.1464</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="13">
         <v>0.0702</v>
       </c>
-      <c r="R2" s="14">
-        <v>-0.0117</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1431,7 +1435,7 @@
       <c r="J3" s="5">
         <v>0.1993</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>1.27</v>
       </c>
       <c r="L3" s="5">
@@ -1449,14 +1453,11 @@
       <c r="P3" s="5">
         <v>0.1779</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="13">
         <v>0.6381</v>
       </c>
-      <c r="R3" s="14">
-        <v>0.0395</v>
-      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1488,7 @@
       <c r="J4" s="5">
         <v>0.1435</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.85</v>
       </c>
       <c r="L4" s="5">
@@ -1505,14 +1506,11 @@
       <c r="P4" s="5">
         <v>0.0266</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="13">
         <v>0.1135</v>
       </c>
-      <c r="R4" s="14">
-        <v>0.0263</v>
-      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1543,7 +1541,7 @@
       <c r="J5" s="5">
         <v>0.1253</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>2.77</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1561,14 +1559,11 @@
       <c r="P5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="13">
         <v>0.3067</v>
       </c>
-      <c r="R5" s="14">
-        <v>0.0457</v>
-      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1594,7 @@
       <c r="J6" s="5">
         <v>0.0989</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.88</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1617,14 +1612,11 @@
       <c r="P6" s="5">
         <v>0.1241</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="13">
         <v>0.0971</v>
       </c>
-      <c r="R6" s="14">
-        <v>0.0041</v>
-      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1647,7 @@
       <c r="J7" s="5">
         <v>0.0782</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>1.35</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1673,14 +1665,11 @@
       <c r="P7" s="5">
         <v>0.1408</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="13">
         <v>0.1513</v>
       </c>
-      <c r="R7" s="14">
-        <v>0.0109</v>
-      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1711,7 +1700,7 @@
       <c r="J8" s="5">
         <v>0.0855</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>1.1</v>
       </c>
       <c r="L8" s="5">
@@ -1729,14 +1718,11 @@
       <c r="P8" s="5">
         <v>-0.0183</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="13">
         <v>0.1849</v>
       </c>
-      <c r="R8" s="14">
-        <v>0.0049</v>
-      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1753,7 @@
       <c r="J9" s="5">
         <v>0.1001</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>1.01</v>
       </c>
       <c r="L9" s="5">
@@ -1785,14 +1771,11 @@
       <c r="P9" s="5">
         <v>0.0395</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="13">
         <v>0.0135</v>
       </c>
-      <c r="R9" s="14">
-        <v>0.0021</v>
-      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1806,7 @@
       <c r="J10" s="5">
         <v>0.0693</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>3.53</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1841,14 +1824,11 @@
       <c r="P10" s="5">
         <v>0.2181</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="13">
         <v>0.308</v>
       </c>
-      <c r="R10" s="14">
-        <v>0.0019</v>
-      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1879,7 +1859,7 @@
       <c r="J11" s="8">
         <v>0.0715</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>2.39</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -1897,36 +1877,66 @@
       <c r="P11" s="8">
         <v>0.1315</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="14">
         <v>0.2546</v>
       </c>
-      <c r="R11" s="15">
-        <v>-0.0013</v>
-      </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.091</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.091</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.091</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.091</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.0366</v>
+      </c>
+      <c r="I12" s="5">
+        <v>-0.125</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.0829</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5">
+        <v>-0.035</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.0549</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.0717</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1935,104 +1945,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9">
-        <f>RANK(H2,H2:H11)</f>
-        <v>2</v>
+        <f>RANK(H12,H2:H12)</f>
+        <v>11</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:R13" si="0">RANK(I2,I2:I11)</f>
-        <v>10</v>
+        <f t="shared" ref="I13:Q13" si="0">RANK(I12,I2:I12)</f>
+        <v>6</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="9">
-        <f>COUNT(H2:H11)</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" ref="I14:R14" si="1">COUNT(I2:I11)</f>
-        <v>10</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N14" s="9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="Q13:R14" formulaRange="1"/>
+    <ignoredError sqref="Q13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>基金产品</t>
   </si>
@@ -62,13 +62,73 @@
     <t>夏普比率</t>
   </si>
   <si>
+    <t>2019收益</t>
+  </si>
+  <si>
+    <t>2019最大回撤</t>
+  </si>
+  <si>
+    <t>2020收益</t>
+  </si>
+  <si>
+    <t>2020最大回撤</t>
+  </si>
+  <si>
+    <t>2021收益</t>
+  </si>
+  <si>
+    <t>2021最大回撤</t>
+  </si>
+  <si>
+    <t>2022收益</t>
+  </si>
+  <si>
+    <t>2022最大回撤</t>
+  </si>
+  <si>
+    <t>2023收益</t>
+  </si>
+  <si>
+    <t>2023最大回撤</t>
+  </si>
+  <si>
+    <t>2024收益</t>
+  </si>
+  <si>
+    <t>2024最大回撤</t>
+  </si>
+  <si>
+    <t>2025收益</t>
+  </si>
+  <si>
+    <t>2025最大回撤</t>
+  </si>
+  <si>
     <t>均成CTA1号</t>
   </si>
   <si>
     <t>2017-03-01</t>
   </si>
   <si>
-    <t>2025-01-03</t>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>638.53%</t>
+  </si>
+  <si>
+    <t>均成均享1号1期</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2.01%</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>旭诺CTA三号</t>
@@ -77,19 +137,25 @@
     <t>2019-06-03</t>
   </si>
   <si>
+    <t>283.68%</t>
+  </si>
+  <si>
     <t>宏锡量化CTA7号</t>
   </si>
   <si>
     <t>2017-02-17</t>
   </si>
   <si>
+    <t>185.56%</t>
+  </si>
+  <si>
     <t>千衍九凌1号</t>
   </si>
   <si>
     <t>2024-01-05</t>
   </si>
   <si>
-    <t/>
+    <t>37.96%</t>
   </si>
   <si>
     <t>众壹资产量合兴成一号</t>
@@ -98,43 +164,52 @@
     <t>2022-10-21</t>
   </si>
   <si>
+    <t>24.89%</t>
+  </si>
+  <si>
     <t>弘源多元化CTA</t>
   </si>
   <si>
     <t>2020-09-10</t>
   </si>
   <si>
+    <t>67.50%</t>
+  </si>
+  <si>
     <t>会世元丰CTA1号</t>
   </si>
   <si>
     <t>2018-07-30</t>
   </si>
   <si>
+    <t>100.98%</t>
+  </si>
+  <si>
     <t>远澜云杉</t>
   </si>
   <si>
     <t>2015-11-04</t>
   </si>
   <si>
+    <t>185.30%</t>
+  </si>
+  <si>
     <t>量派CTA七号</t>
   </si>
   <si>
     <t>2023-01-06</t>
   </si>
   <si>
+    <t>59.49%</t>
+  </si>
+  <si>
     <t>安贤CTA量化一号</t>
   </si>
   <si>
     <t>2023-01-05</t>
   </si>
   <si>
-    <t>铭跃行远均衡一号</t>
-  </si>
-  <si>
-    <t>2022-07-29</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
+    <t>40.23%</t>
   </si>
   <si>
     <t>排名</t>
@@ -150,7 +225,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,15 +235,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -614,6 +702,21 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,70 +847,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,74 +922,77 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,40 +1000,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,27 +1397,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+      <selection activeCell="A1" sqref="A1:W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="9.375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="17" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="7" width="11.875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="12.375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="17.875" customWidth="1"/>
+    <col min="22" max="22" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="17.875" customWidth="1"/>
+    <col min="24" max="24" width="9.875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="27" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,646 +1463,992 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
-        <v>2019</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O1" s="2">
-        <v>2022</v>
-      </c>
-      <c r="P1" s="2">
-        <v>2023</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>2024</v>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" ht="27" customHeight="1" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4">
-        <v>6.583</v>
+        <v>6.422</v>
       </c>
       <c r="E2" s="4">
-        <v>7.228</v>
+        <v>7.067</v>
       </c>
       <c r="F2" s="4">
-        <v>7.5705</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6.5705</v>
+        <v>7.3853</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H2" s="5">
-        <v>0.2942</v>
+        <v>0.2893</v>
       </c>
       <c r="I2" s="5">
         <v>-0.2247</v>
       </c>
       <c r="J2" s="5">
-        <v>0.1709</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1.6</v>
+        <v>0.1711</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1.57</v>
       </c>
       <c r="L2" s="5">
         <v>0.4802</v>
       </c>
       <c r="M2" s="5">
+        <v>-0.1064</v>
+      </c>
+      <c r="N2" s="5">
         <v>0.9133</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
+        <v>-0.0563</v>
+      </c>
+      <c r="P2" s="5">
         <v>0.0812</v>
       </c>
-      <c r="O2" s="5">
+      <c r="Q2" s="5">
+        <v>-0.2247</v>
+      </c>
+      <c r="R2" s="5">
         <v>0.2708</v>
       </c>
-      <c r="P2" s="5">
+      <c r="S2" s="5">
+        <v>-0.1021</v>
+      </c>
+      <c r="T2" s="5">
         <v>0.1464</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="U2" s="5">
+        <v>-0.1118</v>
+      </c>
+      <c r="V2" s="5">
         <v>0.0702</v>
       </c>
+      <c r="W2" s="18">
+        <v>-0.0484</v>
+      </c>
+      <c r="X2" s="19">
+        <v>-0.0359</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>-0.0245</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3.8731</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.8731</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3.8731</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2.8731</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.274</v>
-      </c>
-      <c r="I3" s="5">
+    <row r="3" ht="27" customHeight="1" spans="1:25">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.0201</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.0201</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.0201</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.0364</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-0.0317</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.0686</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0.0273</v>
+      </c>
+      <c r="W3" s="20">
+        <v>-0.0222</v>
+      </c>
+      <c r="X3" s="19">
+        <v>-0.007</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>-0.0204</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.8368</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.8368</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.8368</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.2708</v>
+      </c>
+      <c r="I4" s="5">
         <v>-0.1817</v>
       </c>
-      <c r="J3" s="5">
-        <v>0.1993</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1.27</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="J4" s="5">
+        <v>0.199</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.26</v>
+      </c>
+      <c r="L4" s="5">
         <v>-0.0585</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M4" s="5">
+        <v>-0.0638</v>
+      </c>
+      <c r="N4" s="5">
         <v>0.8147</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O4" s="5">
+        <v>-0.157</v>
+      </c>
+      <c r="P4" s="5">
         <v>0.2229</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Q4" s="5">
+        <v>-0.1308</v>
+      </c>
+      <c r="R4" s="5">
         <v>-0.0758</v>
       </c>
-      <c r="P3" s="5">
+      <c r="S4" s="5">
+        <v>-0.1817</v>
+      </c>
+      <c r="T4" s="5">
         <v>0.1779</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="U4" s="5">
+        <v>-0.0393</v>
+      </c>
+      <c r="V4" s="5">
         <v>0.6381</v>
       </c>
+      <c r="W4" s="18">
+        <v>-0.0842</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0.0297</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>-0.0094</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.1102</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.2124</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.8492</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.8492</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.1421</v>
-      </c>
-      <c r="I4" s="5">
+    <row r="5" ht="27" customHeight="1" spans="1:25">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.1127</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.2149</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.8556</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.142</v>
+      </c>
+      <c r="I5" s="8">
         <v>-0.1654</v>
       </c>
-      <c r="J4" s="5">
-        <v>0.1435</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="J5" s="8">
+        <v>0.1433</v>
+      </c>
+      <c r="K5" s="15">
         <v>0.85</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L5" s="8">
         <v>0.1292</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M5" s="8">
+        <v>-0.0914</v>
+      </c>
+      <c r="N5" s="8">
         <v>0.326</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O5" s="8">
+        <v>-0.0728</v>
+      </c>
+      <c r="P5" s="8">
         <v>-0.0076</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q5" s="8">
+        <v>-0.1654</v>
+      </c>
+      <c r="R5" s="8">
         <v>0.1992</v>
       </c>
-      <c r="P4" s="5">
+      <c r="S5" s="8">
+        <v>-0.0994</v>
+      </c>
+      <c r="T5" s="8">
         <v>0.0266</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="U5" s="8">
+        <v>-0.0832</v>
+      </c>
+      <c r="V5" s="8">
         <v>0.1135</v>
       </c>
+      <c r="W5" s="20">
+        <v>-0.0605</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0.0286</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.3664</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.2491</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.3664</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.3664</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.3676</v>
-      </c>
-      <c r="I5" s="5">
+    <row r="6" ht="27" customHeight="1" spans="1:25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.3796</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.2581</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.3796</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.3724</v>
+      </c>
+      <c r="I6" s="5">
         <v>-0.0338</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.1253</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2.77</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="J6" s="5">
+        <v>0.1241</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2.84</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="5">
         <v>0.3067</v>
       </c>
+      <c r="W6" s="18">
+        <v>-0.0338</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0.0558</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.251</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.1965</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.251</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.251</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.1069</v>
-      </c>
-      <c r="I6" s="5">
+    <row r="7" ht="27" customHeight="1" spans="1:25">
+      <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.249</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.1949</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.2489</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.1051</v>
+      </c>
+      <c r="I7" s="8">
         <v>-0.0926</v>
       </c>
-      <c r="J6" s="5">
-        <v>0.0989</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="J7" s="8">
+        <v>0.0985</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="8">
         <v>0.0102</v>
       </c>
-      <c r="P6" s="5">
+      <c r="S7" s="8">
+        <v>-0.0341</v>
+      </c>
+      <c r="T7" s="8">
         <v>0.1241</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="U7" s="8">
+        <v>-0.0764</v>
+      </c>
+      <c r="V7" s="8">
         <v>0.0971</v>
       </c>
+      <c r="W7" s="20">
+        <v>-0.0326</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.0024</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>-0.0017</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.669</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.669</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.669</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.669</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.126</v>
-      </c>
-      <c r="I7" s="5">
+    <row r="8" ht="27" customHeight="1" spans="1:25">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.1263</v>
+      </c>
+      <c r="I8" s="5">
         <v>-0.0773</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.0782</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1.35</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="J8" s="5">
+        <v>0.0781</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1.36</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="5">
         <v>0.108</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O8" s="5">
+        <v>-0.009</v>
+      </c>
+      <c r="P8" s="5">
         <v>0.0054</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q8" s="5">
+        <v>-0.0773</v>
+      </c>
+      <c r="R8" s="5">
         <v>0.1284</v>
       </c>
-      <c r="P7" s="5">
+      <c r="S8" s="5">
+        <v>-0.0352</v>
+      </c>
+      <c r="T8" s="5">
         <v>0.1408</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="U8" s="5">
+        <v>-0.0506</v>
+      </c>
+      <c r="V8" s="5">
         <v>0.1513</v>
       </c>
+      <c r="W8" s="18">
+        <v>-0.0343</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0.0145</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.0073</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.0073</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.0073</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.0073</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.1143</v>
-      </c>
-      <c r="I8" s="5">
+    <row r="9" ht="27" customHeight="1" spans="1:25">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.0098</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.0098</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.0098</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.1142</v>
+      </c>
+      <c r="I9" s="8">
         <v>-0.1756</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.0855</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="J9" s="8">
+        <v>0.0854</v>
+      </c>
+      <c r="K9" s="15">
         <v>1.1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="8">
         <v>0.138</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M9" s="8">
+        <v>-0.0529</v>
+      </c>
+      <c r="N9" s="8">
         <v>0.3016</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O9" s="8">
+        <v>-0.0422</v>
+      </c>
+      <c r="P9" s="8">
         <v>0.0905</v>
       </c>
-      <c r="O8" s="5">
+      <c r="Q9" s="8">
+        <v>-0.0713</v>
+      </c>
+      <c r="R9" s="8">
         <v>0.0616</v>
       </c>
-      <c r="P8" s="5">
+      <c r="S9" s="8">
+        <v>-0.115</v>
+      </c>
+      <c r="T9" s="8">
         <v>-0.0183</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="U9" s="8">
+        <v>-0.0994</v>
+      </c>
+      <c r="V9" s="8">
         <v>0.1849</v>
       </c>
+      <c r="W9" s="20">
+        <v>-0.0352</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0.0061</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+    <row r="10" ht="27" customHeight="1" spans="1:25">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2.861</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.861</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2.861</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1.861</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.1214</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="D10" s="4">
+        <v>2.853</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.853</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.853</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1208</v>
+      </c>
+      <c r="I10" s="5">
         <v>-0.1459</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.1001</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="14">
         <v>1.01</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <v>0.1249</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="5">
+        <v>-0.0395</v>
+      </c>
+      <c r="N10" s="5">
         <v>0.3289</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O10" s="5">
+        <v>-0.0292</v>
+      </c>
+      <c r="P10" s="5">
         <v>0.0533</v>
       </c>
-      <c r="O9" s="5">
+      <c r="Q10" s="5">
+        <v>-0.0414</v>
+      </c>
+      <c r="R10" s="5">
         <v>0.0238</v>
       </c>
-      <c r="P9" s="5">
+      <c r="S10" s="5">
+        <v>-0.0298</v>
+      </c>
+      <c r="T10" s="5">
         <v>0.0395</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="U10" s="5">
+        <v>-0.0164</v>
+      </c>
+      <c r="V10" s="5">
         <v>0.0135</v>
       </c>
+      <c r="W10" s="18">
+        <v>-0.029</v>
+      </c>
+      <c r="X10" s="19">
+        <v>-0.0007</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>-0.0028</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.5964</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.5964</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.5964</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.5964</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.2643</v>
-      </c>
-      <c r="I10" s="5">
+    <row r="11" ht="27" customHeight="1" spans="1:25">
+      <c r="A11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.5949</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.5949</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.5949</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.2609</v>
+      </c>
+      <c r="I11" s="8">
         <v>-0.0139</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.0693</v>
-      </c>
-      <c r="K10" s="10">
-        <v>3.53</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="J11" s="8">
+        <v>0.0691</v>
+      </c>
+      <c r="K11" s="15">
+        <v>3.49</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="8">
         <v>0.2181</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="U11" s="8">
+        <v>-0.0119</v>
+      </c>
+      <c r="V11" s="8">
         <v>0.308</v>
       </c>
+      <c r="W11" s="20">
+        <v>-0.0139</v>
+      </c>
+      <c r="X11" s="19">
+        <v>0.001</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>-0.0009</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1.3403</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1.4112</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.4178</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.4178</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.191</v>
-      </c>
-      <c r="I11" s="8">
+    <row r="12" ht="27" customHeight="1" spans="1:25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.3256</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.3965</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.4023</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.1826</v>
+      </c>
+      <c r="I12" s="5">
         <v>-0.0609</v>
       </c>
-      <c r="J11" s="8">
-        <v>0.0715</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="J12" s="5">
+        <v>0.0718</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2.26</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="5">
         <v>0.1315</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="U12" s="5">
+        <v>-0.0609</v>
+      </c>
+      <c r="V12" s="5">
         <v>0.2546</v>
       </c>
+      <c r="W12" s="18">
+        <v>-0.0213</v>
+      </c>
+      <c r="X12" s="19">
+        <v>-0.0122</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>-0.0109</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.091</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.0366</v>
-      </c>
-      <c r="I12" s="5">
-        <v>-0.125</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.0829</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="5">
-        <v>-0.035</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0.0549</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0.0717</v>
-      </c>
+    <row r="13" ht="27" customHeight="1" spans="1:23">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="21"/>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9">
-        <f>RANK(H12,H2:H12)</f>
+    <row r="14" ht="27" customHeight="1" spans="1:23">
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
+        <f>RANK(H2,H2:H12)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:W14" si="0">RANK(I2,I2:I12)</f>
         <v>11</v>
       </c>
-      <c r="I13" s="9">
-        <f t="shared" ref="I13:Q13" si="0">RANK(I12,I2:I12)</f>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J13" s="9">
+      <c r="R14" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9">
+        <v>5</v>
+      </c>
+      <c r="T14" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P13" s="9">
+        <v>3</v>
+      </c>
+      <c r="U14" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q13" s="9">
+        <v>9</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W14" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1979,8 +2456,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="Q13" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2420,12 +2420,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>国元期货安睿二号</t>
+          <t>辰元优选稳健</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2434,103 +2434,87 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9948</v>
+        <v>1.1918</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3635</v>
+        <v>1.1918</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4143</v>
+        <v>1.1918</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>41.43%</t>
+          <t>19.18%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-5.28%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.78%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-0.47%</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>7.73%</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-5.28%</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-2.06%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-0.51%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>绰瑞汇海9号</t>
+          <t>国元期货安睿二号</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2539,37 +2523,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.292</v>
+        <v>0.9948</v>
       </c>
       <c r="E20" t="n">
-        <v>1.292</v>
+        <v>1.3635</v>
       </c>
       <c r="F20" t="n">
-        <v>1.292</v>
+        <v>1.4143</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29.20%</t>
+          <t>41.43%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-4.40%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>4.78%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -2578,64 +2562,64 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-2.37%</t>
+          <t>6.40%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>7.73%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>11.28%</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-4.40%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>16.76%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-1.61%</t>
+          <t>-2.06%</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>跃威稳进一号</t>
+          <t>绰瑞汇海9号</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2018-09-07</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2644,218 +2628,323 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.472</v>
+        <v>1.292</v>
       </c>
       <c r="E21" t="n">
-        <v>2.639</v>
+        <v>1.292</v>
       </c>
       <c r="F21" t="n">
-        <v>2.9061</v>
+        <v>1.292</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>190.61%</t>
+          <t>29.20%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>18.24%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-4.12%</t>
+          <t>-4.40%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>18.26%</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>-0.59%</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>46.08%</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-0.79%</t>
-        </is>
-      </c>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>-2.37%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>-2.88%</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>22.55%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-2.79%</t>
+          <t>-1.07%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>13.40%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-0.71%</t>
+          <t>-4.40%</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>16.76%</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-4.12%</t>
+          <t>-1.61%</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.39%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>跃威稳进一号</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2018-09-07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.9061</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>190.61%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>18.24%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-4.12%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4.88%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>46.08%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>12.17%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-2.53%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>22.55%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-2.79%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>13.40%</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>7.06%</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>-4.12%</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>跃威佳成一号</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>2020-07-09</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>1.0318</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>1.4147</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>1.486</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>48.60%</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>9.14%</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>-6.79%</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>3.58%</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>13.00%</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>-0.53%</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>11.37%</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>-1.93%</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>8.20%</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>-1.07%</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>7.00%</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>-0.44%</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>1.83%</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>-6.79%</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>0.16%</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>-0.08%</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,16 +549,6 @@
           <t>2024最大回撤</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2025收益</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2025最大回撤</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -670,16 +660,6 @@
           <t>-4.51%</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-0.57%</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-0.29%</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -791,16 +771,6 @@
           <t>-5.22%</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1.29%</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -902,16 +872,6 @@
       <c r="W4" t="inlineStr">
         <is>
           <t>-20.67%</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-5.80%</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-6.45%</t>
         </is>
       </c>
     </row>
@@ -1009,16 +969,6 @@
           <t>-1.62%</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-0.14%</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1033,26 +983,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.542</v>
+        <v>6.477</v>
       </c>
       <c r="E6" t="n">
-        <v>7.187</v>
+        <v>7.122</v>
       </c>
       <c r="F6" t="n">
-        <v>7.5233</v>
+        <v>7.4486</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>652.33%</t>
+          <t>644.86%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>29.15%</t>
+          <t>28.91%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1062,12 +1012,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17.09%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1128,28 +1078,18 @@
       <c r="W6" t="inlineStr">
         <is>
           <t>-4.84%</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-1.79%</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-2.45%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>均成均享1号1期</t>
+          <t>旭诺CTA三号</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1158,79 +1098,109 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.0201</v>
+        <v>3.9118</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0201</v>
+        <v>3.9118</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0201</v>
+        <v>3.9118</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>291.18%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>27.41%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-3.17%</t>
+          <t>-18.17%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>19.88%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-5.85%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-6.38%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>81.47%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-15.70%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>22.29%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-13.08%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-7.58%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-18.17%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>17.79%</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-3.93%</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.73%</t>
+          <t>63.81%</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-2.22%</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-0.70%</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-2.04%</t>
+          <t>-8.42%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>旭诺CTA三号</t>
+          <t>宏锡量化CTA7号</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2017-02-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1239,119 +1209,109 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.9118</v>
+        <v>1.0989</v>
       </c>
       <c r="E8" t="n">
-        <v>3.9118</v>
+        <v>2.2011</v>
       </c>
       <c r="F8" t="n">
-        <v>3.9118</v>
+        <v>2.8202</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>291.18%</t>
+          <t>182.02%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27.41%</t>
+          <t>13.99%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-18.17%</t>
+          <t>-16.54%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.88%</t>
+          <t>14.32%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-5.85%</t>
+          <t>12.92%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-6.38%</t>
+          <t>-9.14%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>81.47%</t>
+          <t>32.60%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-15.70%</t>
+          <t>-7.28%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>22.29%</t>
+          <t>-0.76%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-13.08%</t>
+          <t>-16.54%</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-7.58%</t>
+          <t>19.92%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-18.17%</t>
+          <t>-9.94%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>17.79%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>-8.32%</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>63.81%</t>
+          <t>11.35%</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-8.42%</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>4.99%</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-0.94%</t>
+          <t>-6.05%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>宏锡量化CTA7号</t>
+          <t>千衍九凌1号</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-02-17</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1360,119 +1320,69 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.0989</v>
+        <v>1.3832</v>
       </c>
       <c r="E9" t="n">
-        <v>2.2011</v>
+        <v>1.2605</v>
       </c>
       <c r="F9" t="n">
-        <v>2.8202</v>
+        <v>1.3832</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>182.02%</t>
+          <t>38.32%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13.99%</t>
+          <t>36.79%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-16.54%</t>
+          <t>-3.38%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.32%</t>
+          <t>12.30%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>12.92%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-9.14%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>32.60%</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-7.28%</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-16.54%</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>19.92%</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-9.94%</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-8.32%</t>
-        </is>
-      </c>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>30.67%</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-6.05%</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1.58%</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-1.24%</t>
+          <t>-3.38%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>千衍九凌1号</t>
+          <t>众壹资产量合兴成一号</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1481,176 +1391,212 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.3832</v>
+        <v>1.249</v>
       </c>
       <c r="E10" t="n">
-        <v>1.2605</v>
+        <v>1.521</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3832</v>
+        <v>1.5887</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>38.32%</t>
+          <t>58.87%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>36.79%</t>
+          <t>7.17%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-3.38%</t>
+          <t>-15.88%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12.30%</t>
+          <t>10.58%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-7.47%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-4.15%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-5.98%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-11.55%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-7.64%</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>30.67%</t>
+          <t>9.71%</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-3.38%</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>5.85%</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+          <t>-3.26%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>众壹资产量合兴成一号</t>
+          <t>弘源多元化CTA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.2745</v>
+        <v>1.661</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2149</v>
+        <v>1.661</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2744</v>
+        <v>1.661</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27.44%</t>
+          <t>66.10%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11.41%</t>
+          <t>12.30%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-9.26%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9.88%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-7.73%</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>12.84%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-3.41%</t>
+          <t>-3.52%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>12.41%</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-7.64%</t>
+          <t>-5.06%</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>15.13%</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-3.26%</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>2.29%</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-0.17%</t>
+          <t>-3.43%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>弘源多元化CTA</t>
+          <t>会世元丰CTA1号</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1659,232 +1605,220 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.678</v>
+        <v>1.9811</v>
       </c>
       <c r="E12" t="n">
-        <v>1.678</v>
+        <v>1.9811</v>
       </c>
       <c r="F12" t="n">
-        <v>1.678</v>
+        <v>1.9811</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>67.80%</t>
+          <t>98.11%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>11.14%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>-17.56%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13.80%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-5.29%</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>30.16%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-0.90%</t>
+          <t>-4.22%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>-7.13%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>12.84%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>-11.50%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-9.94%</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>-3.52%</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>14.08%</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-5.06%</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>15.13%</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-3.43%</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>1.64%</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>会世元丰CTA1号</t>
+          <t>远澜云杉</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2015-11-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.9811</v>
+        <v>2.849</v>
       </c>
       <c r="E13" t="n">
-        <v>1.9811</v>
+        <v>2.849</v>
       </c>
       <c r="F13" t="n">
-        <v>1.9811</v>
+        <v>2.849</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>98.11%</t>
+          <t>184.90%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11.14%</t>
+          <t>12.01%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-17.56%</t>
+          <t>-14.59%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13.80%</t>
+          <t>12.49%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-5.29%</t>
+          <t>-3.95%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>30.16%</t>
+          <t>32.89%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-4.22%</t>
+          <t>-2.92%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-7.13%</t>
+          <t>-4.14%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-11.50%</t>
+          <t>-2.98%</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.83%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-9.94%</t>
+          <t>-1.64%</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>18.49%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>-3.52%</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-0.83%</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-1.43%</t>
+          <t>-2.90%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>远澜云杉</t>
+          <t>量派CTA七号</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2015-11-04</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1893,119 +1827,77 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.867</v>
+        <v>1.5898</v>
       </c>
       <c r="E14" t="n">
-        <v>2.867</v>
+        <v>1.5898</v>
       </c>
       <c r="F14" t="n">
-        <v>2.867</v>
+        <v>1.5898</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>186.70%</t>
+          <t>58.98%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.11%</t>
+          <t>25.62%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-14.59%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>12.49%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-3.95%</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>32.89%</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-2.92%</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>5.33%</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-4.14%</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2.38%</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-2.98%</t>
-        </is>
-      </c>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>21.81%</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-1.64%</t>
+          <t>-1.19%</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>30.80%</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-2.90%</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-0.28%</t>
+          <t>-1.39%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>量派CTA七号</t>
+          <t>安贤CTA量化一号</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2014,37 +1906,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5898</v>
+        <v>1.328</v>
       </c>
       <c r="E15" t="n">
-        <v>1.5898</v>
+        <v>1.3989</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5898</v>
+        <v>1.4048</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>58.98%</t>
+          <t>40.48%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25.62%</t>
+          <t>18.17%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>-6.09%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>7.15%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -2057,254 +1949,256 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>21.81%</t>
+          <t>13.15%</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-6.09%</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>30.80%</t>
+          <t>25.46%</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-1.39%</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-0.22%</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-0.41%</t>
+          <t>-2.13%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>安贤CTA量化一号</t>
+          <t>远澜翠柏1号</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2017-05-12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.328</v>
+        <v>1.175</v>
       </c>
       <c r="E16" t="n">
-        <v>1.3989</v>
+        <v>2.175</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4048</v>
+        <v>2.2909</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40.48%</t>
+          <t>129.09%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18.17%</t>
+          <t>11.50%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-6.09%</t>
+          <t>-11.56%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>11.26%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>10.93%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-4.38%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>43.99%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-6.35%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-11.40%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>-6.60%</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>13.15%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-6.09%</t>
+          <t>-4.49%</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>25.46%</t>
+          <t>15.65%</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-2.13%</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-1.04%</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-1.09%</t>
+          <t>-2.17%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>远澜翠柏1号</t>
+          <t>旌安1号</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2017-05-12</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.178</v>
+        <v>0.9957</v>
       </c>
       <c r="E17" t="n">
-        <v>2.178</v>
+        <v>2.3707</v>
       </c>
       <c r="F17" t="n">
-        <v>2.2967</v>
+        <v>3.3032</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>129.67%</t>
+          <t>230.32%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11.42%</t>
+          <t>21.18%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-11.56%</t>
+          <t>-5.95%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>23.21%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-4.38%</t>
+          <t>-1.72%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>43.99%</t>
+          <t>52.68%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-6.35%</t>
+          <t>-3.58%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>4.69%</t>
+          <t>22.38%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-11.40%</t>
+          <t>-4.05%</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>4.29%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>-6.60%</t>
+          <t>-3.52%</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>2.79%</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-4.49%</t>
+          <t>-3.58%</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>16.53%</t>
+          <t>4.41%</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-2.17%</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-0.51%</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-1.17%</t>
+          <t>-3.75%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>旌安1号</t>
+          <t>辰元优选稳健</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2018-06-29</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2313,119 +2207,77 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.0554</v>
+        <v>1.1918</v>
       </c>
       <c r="E18" t="n">
-        <v>2.4317</v>
+        <v>1.1918</v>
       </c>
       <c r="F18" t="n">
-        <v>3.5004</v>
+        <v>1.1918</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>250.04%</t>
+          <t>19.18%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>9.47%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-6.05%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.73%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>22.96%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>-1.72%</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>52.52%</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-3.49%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>21.95%</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-4.06%</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>4.14%</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-3.61%</t>
-        </is>
-      </c>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-3.52%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-3.75%</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>-0.36%</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-0.57%</t>
+          <t>-0.29%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>辰元优选稳健</t>
+          <t>殊馥馥源套利1号</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2434,75 +2286,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.1918</v>
+        <v>1.0584</v>
       </c>
       <c r="E19" t="n">
-        <v>1.1918</v>
+        <v>1.4062</v>
       </c>
       <c r="F19" t="n">
-        <v>1.1918</v>
+        <v>1.4839</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>48.39%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-5.02%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>12.78%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>10.71%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>3.96%</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>-1.26%</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-0.29%</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.23%</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+          <t>-5.02%</t>
         </is>
       </c>
     </row>
@@ -2600,16 +2474,6 @@
           <t>-2.06%</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-0.51%</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-0.44%</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2624,26 +2488,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.292</v>
+        <v>1.2915</v>
       </c>
       <c r="E21" t="n">
-        <v>1.292</v>
+        <v>1.2915</v>
       </c>
       <c r="F21" t="n">
-        <v>1.292</v>
+        <v>1.2915</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29.20%</t>
+          <t>29.15%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2653,12 +2517,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>4.92%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -2705,16 +2569,6 @@
           <t>-1.61%</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-0.27%</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-0.39%</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2729,26 +2583,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.472</v>
+        <v>2.496</v>
       </c>
       <c r="E22" t="n">
-        <v>2.639</v>
+        <v>2.663</v>
       </c>
       <c r="F22" t="n">
-        <v>2.9061</v>
+        <v>2.9343</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>190.61%</t>
+          <t>193.43%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18.24%</t>
+          <t>18.36%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2763,7 +2617,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2824,16 +2678,6 @@
       <c r="W22" t="inlineStr">
         <is>
           <t>-4.12%</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0.69%</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2850,26 +2694,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.0318</v>
+        <v>1.0341</v>
       </c>
       <c r="E23" t="n">
-        <v>1.4147</v>
+        <v>1.417</v>
       </c>
       <c r="F23" t="n">
-        <v>1.486</v>
+        <v>1.4893</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>48.60%</t>
+          <t>48.93%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2879,7 +2723,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.58%</t>
+          <t>3.57%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2937,16 +2781,6 @@
       <c r="W23" t="inlineStr">
         <is>
           <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.16%</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-0.08%</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,16 @@
           <t>2024最大回撤</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2025收益</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2025最大回撤</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +670,16 @@
           <t>-4.51%</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-0.57%</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-0.29%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -674,26 +694,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.017</v>
+        <v>1.009</v>
       </c>
       <c r="E3" t="n">
-        <v>3.579</v>
+        <v>3.571</v>
       </c>
       <c r="F3" t="n">
-        <v>5.6022</v>
+        <v>5.5582</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>460.22%</t>
+          <t>455.82%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31.08%</t>
+          <t>30.81%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -703,12 +723,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19.55%</t>
+          <t>19.53%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -769,6 +789,16 @@
       <c r="W3" t="inlineStr">
         <is>
           <t>-5.22%</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
         </is>
       </c>
     </row>
@@ -785,26 +815,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.055</v>
+        <v>1.003</v>
       </c>
       <c r="E4" t="n">
-        <v>3.028</v>
+        <v>2.976</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4004</v>
+        <v>4.1835</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>340.04%</t>
+          <t>318.35%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>42.24%</t>
+          <t>40.32%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -814,12 +844,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30.23%</t>
+          <t>30.29%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -874,6 +904,16 @@
           <t>-20.67%</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-10.45%</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-7.64%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -888,21 +928,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.115</v>
+        <v>1.118</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5783</v>
+        <v>1.5813</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6914</v>
+        <v>1.6959</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>69.14%</t>
+          <t>69.59%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -917,7 +957,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.22%</t>
+          <t>10.20%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -969,6 +1009,16 @@
           <t>-1.62%</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.28%</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-0.14%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1080,6 +1130,16 @@
           <t>-4.84%</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-2.76%</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1094,26 +1154,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.9118</v>
+        <v>3.8582</v>
       </c>
       <c r="E7" t="n">
-        <v>3.9118</v>
+        <v>3.8582</v>
       </c>
       <c r="F7" t="n">
-        <v>3.9118</v>
+        <v>3.8582</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>291.18%</t>
+          <t>285.82%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.41%</t>
+          <t>27.00%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1123,12 +1183,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.88%</t>
+          <t>19.86%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1189,6 +1249,16 @@
       <c r="W7" t="inlineStr">
         <is>
           <t>-8.42%</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>-1.37%</t>
         </is>
       </c>
     </row>
@@ -1205,26 +1275,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.0989</v>
+        <v>1.0714</v>
       </c>
       <c r="E8" t="n">
-        <v>2.2011</v>
+        <v>2.1736</v>
       </c>
       <c r="F8" t="n">
-        <v>2.8202</v>
+        <v>2.7496</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>182.02%</t>
+          <t>174.96%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.99%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1234,12 +1304,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.32%</t>
+          <t>14.34%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1300,6 +1370,16 @@
       <c r="W8" t="inlineStr">
         <is>
           <t>-6.05%</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-3.71%</t>
         </is>
       </c>
     </row>
@@ -1316,26 +1396,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.3832</v>
+        <v>1.3622</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2605</v>
+        <v>1.2462</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3832</v>
+        <v>1.3622</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>38.32%</t>
+          <t>36.22%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36.79%</t>
+          <t>34.05%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1345,12 +1425,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12.30%</t>
+          <t>12.36%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1373,6 +1453,16 @@
           <t>-3.38%</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-1.52%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1387,26 +1477,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.249</v>
+        <v>1.215</v>
       </c>
       <c r="E10" t="n">
-        <v>1.521</v>
+        <v>1.487</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5887</v>
+        <v>1.5455</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>58.87%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.17%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1416,12 +1506,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.58%</t>
+          <t>10.62%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1482,6 +1572,16 @@
       <c r="W10" t="inlineStr">
         <is>
           <t>-3.26%</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-0.49%</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-2.72%</t>
         </is>
       </c>
     </row>
@@ -1587,6 +1687,16 @@
           <t>-3.43%</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1601,26 +1711,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.9811</v>
+        <v>1.9618</v>
       </c>
       <c r="E12" t="n">
-        <v>1.9811</v>
+        <v>1.9618</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9811</v>
+        <v>1.9618</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>98.11%</t>
+          <t>96.18%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11.14%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1635,7 +1745,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1696,6 +1806,16 @@
       <c r="W12" t="inlineStr">
         <is>
           <t>-3.52%</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-1.79%</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-2.39%</t>
         </is>
       </c>
     </row>
@@ -1809,6 +1929,16 @@
           <t>-2.90%</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-0.63%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1823,41 +1953,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5898</v>
+        <v>1.5783</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5898</v>
+        <v>1.5783</v>
       </c>
       <c r="F14" t="n">
-        <v>1.5898</v>
+        <v>1.5783</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>58.98%</t>
+          <t>57.83%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25.62%</t>
+          <t>24.91%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>-1.92%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1888,6 +2018,16 @@
           <t>-1.39%</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>-1.13%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1902,26 +2042,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.328</v>
+        <v>1.3258</v>
       </c>
       <c r="E15" t="n">
-        <v>1.3989</v>
+        <v>1.3967</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4048</v>
+        <v>1.4025</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40.48%</t>
+          <t>40.25%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18.17%</t>
+          <t>17.89%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1931,12 +2071,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1967,6 +2107,16 @@
           <t>-2.13%</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-1.20%</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-1.09%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1981,26 +2131,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.175</v>
+        <v>1.171</v>
       </c>
       <c r="E16" t="n">
-        <v>2.175</v>
+        <v>2.171</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2909</v>
+        <v>2.2831</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>129.09%</t>
+          <t>128.31%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.50%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2010,12 +2160,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.26%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2070,12 +2220,22 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>15.65%</t>
+          <t>16.53%</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>-2.17%</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-1.10%</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
         </is>
       </c>
     </row>
@@ -2087,51 +2247,51 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2018-06-29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9957</v>
+        <v>1.0632</v>
       </c>
       <c r="E17" t="n">
-        <v>2.3707</v>
+        <v>2.4395</v>
       </c>
       <c r="F17" t="n">
-        <v>3.3032</v>
+        <v>-2.4056</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>230.32%</t>
+          <t>-340.56%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-5.95%</t>
+          <t>-168.48%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.89%</t>
+          <t>72.65%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>23.21%</t>
+          <t>22.96%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2141,52 +2301,62 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>52.68%</t>
+          <t>52.52%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-3.58%</t>
+          <t>-3.49%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>22.38%</t>
+          <t>21.95%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-4.05%</t>
+          <t>-4.06%</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>-3.61%</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>-3.52%</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>2.79%</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-3.58%</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>4.41%</t>
+          <t>10.95%</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>-3.75%</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-168.48%</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>-0.00%</t>
         </is>
       </c>
     </row>
@@ -2203,26 +2373,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.1918</v>
+        <v>1.1922</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1918</v>
+        <v>1.1922</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1918</v>
+        <v>1.1922</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>19.22%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>9.39%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2237,7 +2407,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -2268,6 +2438,16 @@
           <t>-0.29%</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0.26%</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2282,26 +2462,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.0584</v>
+        <v>1.0627</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4062</v>
+        <v>1.4105</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4839</v>
+        <v>1.4899</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>48.39%</t>
+          <t>48.99%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>7.19%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2316,7 +2496,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2377,6 +2557,16 @@
       <c r="W19" t="inlineStr">
         <is>
           <t>-5.02%</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2474,6 +2664,16 @@
           <t>-2.06%</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-0.51%</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2569,6 +2769,16 @@
           <t>-1.61%</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-0.39%</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2680,6 +2890,16 @@
           <t>-4.12%</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2781,6 +3001,16 @@
       <c r="W23" t="inlineStr">
         <is>
           <t>-6.79%</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1275,26 +1275,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.0714</v>
+        <v>1.0699</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1736</v>
+        <v>2.1721</v>
       </c>
       <c r="F8" t="n">
-        <v>2.7496</v>
+        <v>2.7458</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>174.96%</t>
+          <t>174.58%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>13.50%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.34%</t>
+          <t>14.31%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-0.96%</t>
+          <t>-1.10%</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-3.71%</t>
+          <t>-4.05%</t>
         </is>
       </c>
     </row>
@@ -1396,26 +1396,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.3622</v>
+        <v>1.3721</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2462</v>
+        <v>1.253</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3622</v>
+        <v>1.3721</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>36.22%</t>
+          <t>37.21%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>34.05%</t>
+          <t>33.56%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12.36%</t>
+          <t>12.20%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4.25%</t>
+          <t>5.00%</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-1.52%</t>
+          <t>-2.03%</t>
         </is>
       </c>
     </row>
@@ -1598,26 +1598,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.661</v>
+        <v>1.659</v>
       </c>
       <c r="E11" t="n">
-        <v>1.661</v>
+        <v>1.659</v>
       </c>
       <c r="F11" t="n">
-        <v>1.661</v>
+        <v>1.659</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>66.10%</t>
+          <t>65.90%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.30%</t>
+          <t>12.15%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.76%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-1.01%</t>
+          <t>-1.13%</t>
         </is>
       </c>
     </row>
@@ -2042,26 +2042,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.3258</v>
+        <v>1.3284</v>
       </c>
       <c r="E15" t="n">
-        <v>1.3967</v>
+        <v>1.3993</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4025</v>
+        <v>1.4053</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40.25%</t>
+          <t>40.53%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17.89%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-1.20%</t>
+          <t>-1.01%</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2793,26 +2793,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.496</v>
+        <v>2.498</v>
       </c>
       <c r="E22" t="n">
-        <v>2.663</v>
+        <v>2.665</v>
       </c>
       <c r="F22" t="n">
-        <v>2.9343</v>
+        <v>2.9367</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>193.43%</t>
+          <t>193.67%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18.36%</t>
+          <t>18.26%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -573,26 +573,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.044</v>
+        <v>1.061</v>
       </c>
       <c r="E2" t="n">
-        <v>1.94</v>
+        <v>1.957</v>
       </c>
       <c r="F2" t="n">
-        <v>2.224</v>
+        <v>2.2603</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>122.40%</t>
+          <t>126.03%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.58%</t>
+          <t>14.75%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19.06%</t>
+          <t>18.97%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -694,26 +694,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.009</v>
+        <v>1.033</v>
       </c>
       <c r="E3" t="n">
-        <v>3.571</v>
+        <v>3.595</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5582</v>
+        <v>5.6904</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>455.82%</t>
+          <t>469.04%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30.81%</t>
+          <t>31.08%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19.53%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>2.89%</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-0.79%</t>
+          <t>-1.28%</t>
         </is>
       </c>
     </row>
@@ -815,26 +815,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.003</v>
+        <v>1.009</v>
       </c>
       <c r="E4" t="n">
-        <v>2.976</v>
+        <v>2.982</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1835</v>
+        <v>4.2085</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>318.35%</t>
+          <t>320.85%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>40.32%</t>
+          <t>40.09%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30.29%</t>
+          <t>30.16%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-10.45%</t>
+          <t>-9.91%</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -928,26 +928,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.118</v>
+        <v>1.1188</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5813</v>
+        <v>1.5821</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6959</v>
+        <v>1.6971</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>69.59%</t>
+          <t>69.71%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.98%</t>
+          <t>14.84%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>10.15%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1033,26 +1033,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.477</v>
+        <v>6.627</v>
       </c>
       <c r="E6" t="n">
-        <v>7.122</v>
+        <v>7.272</v>
       </c>
       <c r="F6" t="n">
-        <v>7.4486</v>
+        <v>7.621</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>644.86%</t>
+          <t>662.10%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28.91%</t>
+          <t>29.13%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17.08%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-2.76%</t>
+          <t>-0.51%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1154,26 +1154,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.8582</v>
+        <v>3.8734</v>
       </c>
       <c r="E7" t="n">
-        <v>3.8582</v>
+        <v>3.8734</v>
       </c>
       <c r="F7" t="n">
-        <v>3.8582</v>
+        <v>3.8734</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>285.82%</t>
+          <t>287.34%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27.00%</t>
+          <t>26.88%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.86%</t>
+          <t>19.79%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>3.96%</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>-1.94%</t>
         </is>
       </c>
     </row>
@@ -1477,26 +1477,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.215</v>
+        <v>1.199</v>
       </c>
       <c r="E10" t="n">
-        <v>1.487</v>
+        <v>1.471</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5455</v>
+        <v>1.5251</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>52.51%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.62%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>-1.80%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>-4.00%</t>
         </is>
       </c>
     </row>
@@ -1711,26 +1711,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.9618</v>
+        <v>1.9958</v>
       </c>
       <c r="E12" t="n">
-        <v>1.9618</v>
+        <v>1.9958</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9618</v>
+        <v>1.9958</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96.18%</t>
+          <t>99.58%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>11.16%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1740,12 +1740,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>-0.09%</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-2.39%</t>
+          <t>-2.66%</t>
         </is>
       </c>
     </row>
@@ -1953,41 +1953,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5783</v>
+        <v>1.5837</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5783</v>
+        <v>1.5837</v>
       </c>
       <c r="F14" t="n">
-        <v>1.5783</v>
+        <v>1.5837</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>57.83%</t>
+          <t>58.37%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24.91%</t>
+          <t>24.60%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>-1.99%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -2020,12 +2020,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-0.94%</t>
+          <t>-0.60%</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-1.13%</t>
+          <t>-1.21%</t>
         </is>
       </c>
     </row>
@@ -2131,26 +2131,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.171</v>
+        <v>1.179</v>
       </c>
       <c r="E16" t="n">
-        <v>2.171</v>
+        <v>2.179</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2831</v>
+        <v>2.2987</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>128.31%</t>
+          <t>129.87%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>11.34%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>11.17%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-1.10%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2252,26 +2252,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.0632</v>
+        <v>1.0656</v>
       </c>
       <c r="E17" t="n">
-        <v>2.4395</v>
+        <v>2.4419</v>
       </c>
       <c r="F17" t="n">
-        <v>3.5263</v>
+        <v>3.5342</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>252.63%</t>
+          <t>253.42%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21.12%</t>
+          <t>21.02%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.72%</t>
+          <t>7.70%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2462,26 +2462,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.0627</v>
+        <v>1.062</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4105</v>
+        <v>1.4098</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4899</v>
+        <v>1.489</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>48.99%</t>
+          <t>48.90%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.19%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
@@ -2583,26 +2583,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9948</v>
+        <v>1.0019</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3635</v>
+        <v>1.3706</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4143</v>
+        <v>1.4244</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>41.43%</t>
+          <t>42.44%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.78%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-0.51%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2688,41 +2688,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.2929</v>
+        <v>1.2951</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2929</v>
+        <v>1.2951</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2929</v>
+        <v>1.2951</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29.29%</t>
+          <t>29.51%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.23%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-4.40%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.92%</t>
+          <t>4.43%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.88%</t>
+          <t>-2.48%</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2756,27 +2756,27 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-4.40%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>16.76%</t>
+          <t>16.87%</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-1.61%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>-0.05%</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2363,101 +2363,133 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>辰元优选稳健</t>
+          <t>殊馥馥源套利1号</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2019-04-30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.1918</v>
+        <v>1.062</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1918</v>
+        <v>1.4098</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1918</v>
+        <v>1.489</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>48.90%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-5.02%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.43%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>12.78%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>10.71%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-0.43%</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>3.96%</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>-1.26%</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-5.02%</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>殊馥馥源套利1号</t>
+          <t>国元期货安睿二号</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2019-04-30</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2466,119 +2498,103 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.062</v>
+        <v>1.0019</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4098</v>
+        <v>1.3706</v>
       </c>
       <c r="F19" t="n">
-        <v>1.489</v>
+        <v>1.4244</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>48.90%</t>
+          <t>42.44%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-5.02%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>4.35%</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-0.43%</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>12.78%</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-1.66%</t>
-        </is>
-      </c>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>10.71%</t>
+          <t>6.40%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-1.08%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>7.73%</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>3.96%</t>
+          <t>11.28%</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-1.26%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-5.02%</t>
+          <t>-2.06%</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>国元期货安睿二号</t>
+          <t>绰瑞汇海9号</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-10-29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2587,37 +2603,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.0019</v>
+        <v>1.2951</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3706</v>
+        <v>1.2951</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4244</v>
+        <v>1.2951</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42.44%</t>
+          <t>29.51%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10.64%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-5.28%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>4.43%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -2626,64 +2642,64 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>6.40%</t>
+          <t>-2.37%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-2.48%</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>7.73%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-5.28%</t>
+          <t>-1.07%</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>16.87%</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-2.06%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>-0.12%</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>-0.05%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>绰瑞汇海9号</t>
+          <t>跃威稳进一号</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-10-29</t>
+          <t>2018-09-07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2692,103 +2708,119 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.2951</v>
+        <v>2.498</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2951</v>
+        <v>2.665</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2951</v>
+        <v>2.9367</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29.51%</t>
+          <t>193.67%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>18.26%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-4.07%</t>
+          <t>-4.12%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>46.08%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-0.79%</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-2.37%</t>
+          <t>12.17%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2.48%</t>
+          <t>-2.53%</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>22.55%</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>-2.79%</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>13.40%</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-4.07%</t>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>16.87%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>-4.12%</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-0.08%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>跃威稳进一号</t>
+          <t>跃威佳成一号</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2018-09-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2797,218 +2829,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.498</v>
+        <v>1.0347</v>
       </c>
       <c r="E22" t="n">
-        <v>2.665</v>
+        <v>1.4176</v>
       </c>
       <c r="F22" t="n">
-        <v>2.9367</v>
+        <v>1.4902</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>193.67%</t>
+          <t>49.02%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>18.26%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-4.12%</t>
+          <t>-6.79%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>3.56%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>18.26%</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-0.59%</t>
-        </is>
-      </c>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>46.08%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.79%</t>
+          <t>-0.53%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>11.37%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>-1.93%</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>22.55%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-2.79%</t>
+          <t>-1.07%</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>13.40%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.71%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-4.12%</t>
+          <t>-6.79%</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
-        <is>
-          <t>-0.08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>跃威佳成一号</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2020-07-09</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1.0347</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.4176</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.4902</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>49.02%</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>3.56%</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>13.00%</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-0.53%</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>11.37%</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-1.93%</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>8.20%</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>-1.07%</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>7.00%</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>-0.44%</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>1.83%</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
         <is>
           <t>-0.08%</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,10 @@
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="simupaipai" sheetId="1" r:id="rId1"/>
+    <sheet name="私募业绩表" sheetId="1" r:id="rId1"/>
+    <sheet name="simupaipai" sheetId="2" r:id="rId2"/>
+    <sheet name="huofuniu" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="106">
+  <si>
+    <t>策略类型</t>
+  </si>
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>最新净值日期</t>
+  </si>
+  <si>
+    <t>累计收益</t>
+  </si>
+  <si>
+    <t>年化收益</t>
+  </si>
+  <si>
+    <t>最大回撤</t>
+  </si>
+  <si>
+    <t>夏普比</t>
+  </si>
+  <si>
+    <t>2019收益</t>
+  </si>
+  <si>
+    <t>2020收益</t>
+  </si>
+  <si>
+    <t>2021收益</t>
+  </si>
+  <si>
+    <t>2022收益</t>
+  </si>
+  <si>
+    <t>2023收益</t>
+  </si>
+  <si>
+    <t>2024收益</t>
+  </si>
+  <si>
+    <t>2025收益</t>
+  </si>
+  <si>
+    <t>主观CTA</t>
+  </si>
+  <si>
+    <t>草本优益1号</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>草本致远1号</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>量化CTA</t>
+  </si>
+  <si>
+    <t>均成CTA1号</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>黑翼CTA8号</t>
+  </si>
+  <si>
+    <t>2018-10-17</t>
+  </si>
+  <si>
+    <t>宏锡量化CTA7号</t>
+  </si>
+  <si>
+    <t>2017-02-17</t>
+  </si>
+  <si>
+    <t>千象15期</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>弘源多元化CTA</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>众壹资产量合兴成一号</t>
+  </si>
+  <si>
+    <t>2018-05-18</t>
+  </si>
+  <si>
+    <t>旭诺CTA三号</t>
+  </si>
+  <si>
+    <t>2019-06-06</t>
+  </si>
+  <si>
+    <t>千衍六贞1号B类</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>会世元丰CTA1号</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>简雍斯量先锋</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>远澜云杉</t>
+  </si>
+  <si>
+    <t>2015-11-06</t>
+  </si>
+  <si>
+    <t>文谛量化优选三号</t>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+  </si>
+  <si>
+    <t>量派CTA七号</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>股指CTA</t>
+  </si>
+  <si>
+    <t>闻道稳健一号</t>
+  </si>
+  <si>
+    <t>2019-07-05</t>
+  </si>
+  <si>
+    <t>细水居20号</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>主观套利</t>
+  </si>
+  <si>
+    <t>旌安1号</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>哲萌1号</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>金和和善对冲1号</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>瑞达期货-瑞智无忧共赢7号</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>量化套利</t>
+  </si>
+  <si>
+    <t>远澜翠柏1号</t>
+  </si>
+  <si>
+    <t>博普安兴私享一号B类份额</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
   <si>
     <t>管理人</t>
   </si>
@@ -38,30 +248,9 @@
     <t>基金经理</t>
   </si>
   <si>
-    <t>基金名称</t>
-  </si>
-  <si>
     <t>基金代码</t>
   </si>
   <si>
-    <t>成立日期</t>
-  </si>
-  <si>
-    <t>最新净值日期</t>
-  </si>
-  <si>
-    <t>累计收益</t>
-  </si>
-  <si>
-    <t>最大回撤</t>
-  </si>
-  <si>
-    <t>夏普比</t>
-  </si>
-  <si>
-    <t>2025收益</t>
-  </si>
-  <si>
     <t>2025最大回撤</t>
   </si>
   <si>
@@ -74,33 +263,9 @@
     <t>陈泽浩</t>
   </si>
   <si>
-    <t>黑翼CTA8号</t>
-  </si>
-  <si>
     <t>SEM387</t>
   </si>
   <si>
-    <t>2018-10-17</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>102.80</t>
-  </si>
-  <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
     <t>宏锡基金</t>
   </si>
   <si>
@@ -110,60 +275,18 @@
     <t>刘锡斌</t>
   </si>
   <si>
-    <t>宏锡量化CTA7号</t>
-  </si>
-  <si>
     <t>SN3221</t>
   </si>
   <si>
-    <t>2017-02-17</t>
-  </si>
-  <si>
-    <t>174.11</t>
-  </si>
-  <si>
-    <t>16.54</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>-1.54</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
     <t>千象资产</t>
   </si>
   <si>
     <t>陈斌</t>
   </si>
   <si>
-    <t>千象15期</t>
-  </si>
-  <si>
     <t>ST4277</t>
   </si>
   <si>
-    <t>2017-05-15</t>
-  </si>
-  <si>
-    <t>108.20</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
     <t>细水资产</t>
   </si>
   <si>
@@ -173,24 +296,9 @@
     <t>王宏渊</t>
   </si>
   <si>
-    <t>细水居20号</t>
-  </si>
-  <si>
     <t>STW548</t>
   </si>
   <si>
-    <t>2022-08-25</t>
-  </si>
-  <si>
-    <t>97.73</t>
-  </si>
-  <si>
-    <t>15.65</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
     <t>闻道资产</t>
   </si>
   <si>
@@ -200,60 +308,18 @@
     <t>王海波</t>
   </si>
   <si>
-    <t>闻道稳健一号</t>
-  </si>
-  <si>
     <t>SGT646</t>
   </si>
   <si>
-    <t>2019-07-05</t>
-  </si>
-  <si>
-    <t>56.21</t>
-  </si>
-  <si>
-    <t>15.88</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>5.62</t>
-  </si>
-  <si>
     <t>金和基金</t>
   </si>
   <si>
     <t>朱朋飞</t>
   </si>
   <si>
-    <t>金和和善对冲1号</t>
-  </si>
-  <si>
     <t>STA933</t>
   </si>
   <si>
-    <t>2021-10-28</t>
-  </si>
-  <si>
-    <t>23.06</t>
-  </si>
-  <si>
-    <t>10.64</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
     <t>前海博普资产</t>
   </si>
   <si>
@@ -263,28 +329,25 @@
     <t>袁豪</t>
   </si>
   <si>
-    <t>博普安兴私享一号B类份额</t>
-  </si>
-  <si>
     <t>SAHS76</t>
   </si>
   <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>0.19</t>
+    <t>基金产品</t>
+  </si>
+  <si>
+    <t>净值起始日期</t>
+  </si>
+  <si>
+    <t>净值结束日期</t>
+  </si>
+  <si>
+    <t>总收益率</t>
+  </si>
+  <si>
+    <t>年化收益率</t>
+  </si>
+  <si>
+    <t>夏普比率</t>
   </si>
 </sst>
 </file>
@@ -297,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +376,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -782,155 +888,216 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1277,334 +1444,2358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="1" spans="1:15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5.2396</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.3211</v>
+      </c>
+      <c r="G2" s="12">
+        <v>-0.1233</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1.55</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1.3203</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.1665</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.1065</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.235</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.1246</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.179</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3.5308</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.4088</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-0.2667</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12">
+        <v>-0.002</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.1403</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.9404</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.2934</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.6094</v>
+      </c>
+      <c r="O3" s="12">
+        <v>-0.0143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7.0903</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.2949</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-0.2247</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1.62</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.4798</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.9133</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.0812</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0.2708</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.1464</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.0702</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.028</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.1156</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.0837</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.17</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.1618</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.2727</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.0819</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.0552</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.0663</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.1329</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.7411</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.1322</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.1654</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.1354</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.3188</v>
+      </c>
+      <c r="K6" s="20">
+        <v>-0.0076</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.1991</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.0266</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.1166</v>
+      </c>
+      <c r="O6" s="20">
+        <v>-0.0154</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:15">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.082</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.0975</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.129</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.0322</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.2934</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.0991</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.0386</v>
+      </c>
+      <c r="M7" s="20">
+        <v>-0.0074</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0.1824</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.628</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.1128</v>
+      </c>
+      <c r="G8" s="12">
+        <v>-0.0773</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.108</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.0054</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.1284</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.1408</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.1513</v>
+      </c>
+      <c r="O8" s="12">
+        <v>-0.0139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.473</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.0579</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-0.1588</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.0389</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.2183</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.1249</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.0131</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.1242</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.0971</v>
+      </c>
+      <c r="O9" s="12">
+        <v>-0.0516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2.676</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.2502</v>
+      </c>
+      <c r="G10" s="22">
+        <v>-0.1817</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1.17</v>
+      </c>
+      <c r="I10" s="22">
+        <v>-0.0585</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.8146</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.2229</v>
+      </c>
+      <c r="L10" s="22">
+        <v>-0.0758</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0.178</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0.6381</v>
+      </c>
+      <c r="O10" s="12">
+        <v>-0.0134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.3698</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.2451</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-0.046</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2.48</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.0202</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.2279</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.0935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.9773</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.1076</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-0.1756</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.138</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.3016</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.0905</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.0616</v>
+      </c>
+      <c r="M12" s="12">
+        <v>-0.0183</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.1849</v>
+      </c>
+      <c r="O12" s="12">
+        <v>-0.0102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.0268</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.0527</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-0.0194</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.57</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.0221</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.831</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.1169</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-0.1459</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.1249</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.3289</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.0533</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.0238</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.0395</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.0135</v>
+      </c>
+      <c r="O14" s="12">
+        <v>-0.0084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.2539</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.1417</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-0.1405</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1.1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.146</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.3866</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.0541</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.1826</v>
+      </c>
+      <c r="M15" s="12">
+        <v>-0.0886</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.218</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.5781</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.2258</v>
+      </c>
+      <c r="G16" s="22">
+        <v>-0.0317</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3.03</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0.2181</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0.308</v>
+      </c>
+      <c r="O16" s="12">
+        <v>-0.0095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.4017</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.1626</v>
+      </c>
+      <c r="G17" s="22">
+        <v>-0.0609</v>
+      </c>
+      <c r="H17" s="23">
+        <v>2.07</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0.1314</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0.2546</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-0.0125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.5621</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.0807</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.1588</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20">
+        <v>0.2672</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.0514</v>
+      </c>
+      <c r="L18" s="20">
+        <v>-0.1182</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0.0284</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0.2329</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0.0039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.9773</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.299</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.1565</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20">
+        <v>0.2696</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0.4984</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.5673</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.2073</v>
+      </c>
+      <c r="G20" s="12">
+        <v>-0.0605</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2.45</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0.2295</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.5252</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0.2196</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.0413</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.0393</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.1095</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.0155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.0381</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.096</v>
+      </c>
+      <c r="G21" s="12">
+        <v>-0.1527</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="I21" s="12">
+        <v>-0.0577</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.4113</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.0223</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.0377</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.1571</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.0881</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.2306</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.0624</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.1064</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20">
+        <v>-0.026</v>
+      </c>
+      <c r="M22" s="20">
+        <v>-0.0094</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0.2597</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0.0115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.7875</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.1806</v>
+      </c>
+      <c r="G23" s="12">
+        <v>-0.1687</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.1395</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.9089</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.0543</v>
+      </c>
+      <c r="L23" s="12">
+        <v>-0.0401</v>
+      </c>
+      <c r="M23" s="12">
+        <v>-0.0431</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.2798</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.0858</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.059</v>
+      </c>
+      <c r="G24" s="22">
+        <v>-0.0224</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1.08</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0.0129</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0.0796</v>
+      </c>
+      <c r="O24" s="12">
+        <v>-0.007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.0377</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.0365</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.0289</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20">
+        <v>0.0106</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O2:O25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="9.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4">
+        <v>102.8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.37</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.73</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>174.11</v>
+      </c>
+      <c r="I3" s="4">
+        <v>16.54</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-1.54</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>108.2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>97.73</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15.65</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>56.21</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15.88</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>23.06</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10.64</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.77</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="14" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.2396</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.3211</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.1233</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.3203</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.1665</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.235</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1246</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.179</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.5308</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4088</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-0.2667</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-0.002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.1403</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.9404</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.2934</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.6094</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-0.0143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.7875</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1806</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.1687</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.1395</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.9089</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.0543</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-0.0401</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-0.0431</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.2798</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.0903</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2949</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.2247</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.4798</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.9133</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.0812</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.2708</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.1464</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0702</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1128</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-0.0773</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0054</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.1284</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.1408</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.1513</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-0.0139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.473</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0579</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.1588</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.0389</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2183</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1249</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0131</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.1242</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.0971</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-0.0516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.676</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2502</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-0.1817</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-0.0585</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.8146</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.2229</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-0.0758</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.178</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.6381</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-0.0134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.3698</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2451</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.046</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.0202</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.2279</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.0935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9773</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1076</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.1756</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.138</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.3016</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.0905</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.0616</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-0.0183</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.1849</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-0.0102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0268</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0527</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.0194</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.0221</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.0046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.831</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1169</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.1459</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.1249</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.3289</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.0533</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.0238</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.0395</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.0135</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-0.0084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.2539</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.1417</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.1405</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.146</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.3866</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.0541</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.1826</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-0.0886</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.218</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5781</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-0.0317</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.2181</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-0.0095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.4017</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.1626</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-0.0609</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.07</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.1314</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.2546</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-0.0125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.5673</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.2073</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-0.0605</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.45</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.2295</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.5252</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.2196</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.0413</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.0393</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.0155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.0381</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.096</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-0.1527</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-0.0577</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.4113</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.0223</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.0377</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.1571</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.0881</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0858</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.059</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.0224</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.0129</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.0796</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-0.007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="私募业绩表" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,18 +12,25 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="29">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,35 +86,347 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -132,16 +451,99 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -152,37 +554,190 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,23 +747,69 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -561,7 +1162,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -573,1347 +1173,1347 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="24.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11.44140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.33203125" customWidth="1" style="1" min="5" max="7"/>
-    <col width="7.33203125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="9.88671875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="14.33203125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9.88671875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="14.33203125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.88671875" customWidth="1" style="1" min="13" max="13"/>
-    <col width="14.33203125" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9.88671875" customWidth="1" style="1" min="15" max="15"/>
+    <col width="9" customWidth="1" style="6" min="1" max="1"/>
+    <col width="24.4416666666667" customWidth="1" style="6" min="2" max="2"/>
+    <col width="11.4416666666667" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.775" customWidth="1" style="6" min="4" max="4"/>
+    <col width="9.33333333333333" customWidth="1" style="6" min="5" max="7"/>
+    <col width="7.33333333333333" customWidth="1" style="6" min="8" max="8"/>
+    <col width="9.883333333333329" customWidth="1" style="6" min="9" max="9"/>
+    <col width="14.3333333333333" customWidth="1" style="6" min="10" max="10"/>
+    <col width="9.883333333333329" customWidth="1" style="6" min="11" max="11"/>
+    <col width="14.3333333333333" customWidth="1" style="6" min="12" max="12"/>
+    <col width="9.883333333333329" customWidth="1" style="6" min="13" max="13"/>
+    <col width="14.3333333333333" customWidth="1" style="6" min="14" max="14"/>
+    <col width="9.883333333333329" customWidth="1" style="6" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>策略类型</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>成立日期</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>最新净值日期</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>累计收益</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>年化收益</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>夏普比</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>2019收益</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>2020收益</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>2021收益</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>2022收益</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>2023收益</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>2024收益</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="11" t="inlineStr">
         <is>
           <t>2025收益</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>主观CTA</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>草本优益1号</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>2018-09-07</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="13" t="n">
         <v>5.2396</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="13" t="n">
         <v>0.3211</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="13" t="n">
         <v>-0.1233</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="12" t="n">
         <v>1.55</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="13" t="n">
         <v>1.3203</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="13" t="n">
         <v>0.1665</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="13" t="n">
         <v>0.1065</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="13" t="n">
         <v>0.235</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="13" t="n">
         <v>0.1246</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="13" t="n">
         <v>0.179</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="13" t="n">
         <v>0.1026</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>主观CTA</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>草本致远1号</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>2020-11-06</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="13" t="n">
         <v>3.5308</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="13" t="n">
         <v>0.4088</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="13" t="n">
         <v>-0.2667</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="12" t="n">
         <v>1.28</v>
       </c>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="7" t="n">
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="13" t="n">
         <v>-0.002</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="13" t="n">
         <v>0.1403</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="13" t="n">
         <v>0.9404</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="M3" s="13" t="n">
         <v>0.2934</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="13" t="n">
         <v>0.6094000000000001</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="13" t="n">
         <v>-0.0143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>均成CTA1号</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="13" t="n">
         <v>7.0903</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="13" t="n">
         <v>0.2949</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="13" t="n">
         <v>-0.2247</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="12" t="n">
         <v>1.62</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="13" t="n">
         <v>0.4798</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="13" t="n">
         <v>0.9133</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="13" t="n">
         <v>0.08119999999999999</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="13" t="n">
         <v>0.2708</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="13" t="n">
         <v>0.1464</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="13" t="n">
         <v>0.0702</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="13" t="n">
         <v>0.0561</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>黑翼CTA8号</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>2018-10-17</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="15" t="n">
         <v>1.028</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="16" t="n">
         <v>0.1156</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="15" t="n">
         <v>0.0837</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="14" t="n">
         <v>1.17</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.1618</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="15" t="n">
         <v>0.2727</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="15" t="n">
         <v>0.0819</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="15" t="n">
         <v>0.0552</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="15" t="n">
         <v>0.0663</v>
       </c>
-      <c r="N5" s="10" t="n">
+      <c r="N5" s="16" t="n">
         <v>0.1329</v>
       </c>
-      <c r="O5" s="13" t="n">
+      <c r="O5" s="19" t="n">
         <v>0.004</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>宏锡量化CTA7号</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>2017-02-17</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="18" t="n">
         <v>1.7411</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="18" t="n">
         <v>0.1322</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="18" t="n">
         <v>0.1654</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="17" t="n">
         <v>0.8</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="18" t="n">
         <v>0.1354</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="18" t="n">
         <v>0.3188</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="18" t="n">
         <v>-0.0076</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="18" t="n">
         <v>0.1991</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="18" t="n">
         <v>0.0266</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="18" t="n">
         <v>0.1166</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="18" t="n">
         <v>-0.0154</v>
       </c>
     </row>
-    <row r="7" customFormat="1" s="3">
-      <c r="A7" s="6" t="inlineStr">
+    <row r="7" customFormat="1" s="9">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>千象15期</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="18" t="n">
         <v>1.082</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="18" t="n">
         <v>0.0975</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="18" t="n">
         <v>0.129</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="17" t="n">
         <v>0.85</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="18" t="n">
         <v>0.0322</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="18" t="n">
         <v>0.2934</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="18" t="n">
         <v>0.09909999999999999</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="18" t="n">
         <v>0.0386</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="18" t="n">
         <v>-0.0074</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="18" t="n">
         <v>0.1824</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="18" t="n">
         <v>0.013</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>弘源多元化CTA</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="13" t="n">
         <v>0.628</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="13" t="n">
         <v>0.1128</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="13" t="n">
         <v>-0.07729999999999999</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="12" t="n">
         <v>1.21</v>
       </c>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="7" t="n">
+      <c r="I8" s="12" t="n"/>
+      <c r="J8" s="13" t="n">
         <v>0.108</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="13" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="13" t="n">
         <v>0.1284</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="13" t="n">
         <v>0.1408</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="13" t="n">
         <v>0.1513</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="13" t="n">
         <v>-0.0139</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>众壹资产量合兴成一号</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="13" t="n">
         <v>0.473</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="13" t="n">
         <v>0.0579</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="13" t="n">
         <v>-0.1588</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="12" t="n">
         <v>0.36</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="13" t="n">
         <v>0.0389</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="13" t="n">
         <v>0.2183</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="13" t="n">
         <v>0.1249</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="13" t="n">
         <v>0.0131</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="M9" s="13" t="n">
         <v>0.1242</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="N9" s="13" t="n">
         <v>0.09710000000000001</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="13" t="n">
         <v>-0.0516</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>旭诺CTA三号</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="15" t="n">
         <v>2.676</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="15" t="n">
         <v>0.2502</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="15" t="n">
         <v>-0.1817</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="14" t="n">
         <v>1.17</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="15" t="n">
         <v>-0.0585</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="15" t="n">
         <v>0.8146</v>
       </c>
-      <c r="K10" s="9" t="n">
+      <c r="K10" s="15" t="n">
         <v>0.2229</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="15" t="n">
         <v>-0.07580000000000001</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="15" t="n">
         <v>0.178</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="15" t="n">
         <v>0.6381</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="13" t="n">
         <v>-0.0134</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>千衍六贞1号B类</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="13" t="n">
         <v>0.3698</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="13" t="n">
         <v>0.2451</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="13" t="n">
         <v>-0.046</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="12" t="n">
         <v>2.48</v>
       </c>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="6" t="n"/>
-      <c r="L11" s="6" t="n"/>
-      <c r="M11" s="7" t="n">
+      <c r="I11" s="12" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
+      <c r="L11" s="12" t="n"/>
+      <c r="M11" s="13" t="n">
         <v>0.0202</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="13" t="n">
         <v>0.2279</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="13" t="n">
         <v>0.0935</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>会世元丰CTA1号</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="13" t="n">
         <v>0.9772999999999999</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="13" t="n">
         <v>0.1076</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="13" t="n">
         <v>-0.1756</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="12" t="n">
         <v>1.03</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="13" t="n">
         <v>0.138</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="13" t="n">
         <v>0.3016</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="13" t="n">
         <v>0.0905</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="13" t="n">
         <v>0.0616</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="13" t="n">
         <v>-0.0183</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="13" t="n">
         <v>0.1849</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="13" t="n">
         <v>-0.0102</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>简雍斯量先锋</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="13" t="n">
         <v>0.0268</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="13" t="n">
         <v>0.0527</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="13" t="n">
         <v>-0.0194</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="12" t="n">
         <v>0.57</v>
       </c>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="n"/>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-      <c r="N13" s="7" t="n">
+      <c r="I13" s="12" t="n"/>
+      <c r="J13" s="12" t="n"/>
+      <c r="K13" s="12" t="n"/>
+      <c r="L13" s="12" t="n"/>
+      <c r="M13" s="12" t="n"/>
+      <c r="N13" s="13" t="n">
         <v>0.0221</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="13" t="n">
         <v>0.0046</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>远澜云杉</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>2015-11-06</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="13" t="n">
         <v>1.831</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="13" t="n">
         <v>0.1169</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="13" t="n">
         <v>-0.1459</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="12" t="n">
         <v>0.98</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="13" t="n">
         <v>0.1249</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="13" t="n">
         <v>0.3289</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="13" t="n">
         <v>0.0533</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="13" t="n">
         <v>0.0238</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="13" t="n">
         <v>0.0395</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="13" t="n">
         <v>0.0135</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="13" t="n">
         <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>文谛量化优选三号</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="13" t="n">
         <v>1.2539</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="13" t="n">
         <v>0.1417</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="13" t="n">
         <v>-0.1405</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="12" t="n">
         <v>1.1</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="13" t="n">
         <v>0.146</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="13" t="n">
         <v>0.3866</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="13" t="n">
         <v>0.0541</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="13" t="n">
         <v>0.1826</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="13" t="n">
         <v>-0.0886</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="13" t="n">
         <v>0.218</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="13" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>量派CTA七号</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="15" t="n">
         <v>0.5780999999999999</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="15" t="n">
         <v>0.2258</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="15" t="n">
         <v>-0.0317</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="14" t="n">
         <v>3.03</v>
       </c>
-      <c r="I16" s="8" t="n"/>
-      <c r="J16" s="8" t="n"/>
-      <c r="K16" s="8" t="n"/>
-      <c r="L16" s="8" t="n"/>
-      <c r="M16" s="9" t="n">
+      <c r="I16" s="14" t="n"/>
+      <c r="J16" s="14" t="n"/>
+      <c r="K16" s="14" t="n"/>
+      <c r="L16" s="14" t="n"/>
+      <c r="M16" s="15" t="n">
         <v>0.2181</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="N16" s="15" t="n">
         <v>0.308</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="13" t="n">
         <v>-0.0095</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>量化CTA</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>安贤CTA量化一号</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="14" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="14" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="15" t="n">
         <v>0.4017</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="15" t="n">
         <v>0.1626</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="15" t="n">
         <v>-0.0609</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="14" t="n">
         <v>2.07</v>
       </c>
-      <c r="I17" s="8" t="n"/>
-      <c r="J17" s="8" t="n"/>
-      <c r="K17" s="8" t="n"/>
-      <c r="L17" s="8" t="n"/>
-      <c r="M17" s="9" t="n">
+      <c r="I17" s="14" t="n"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="14" t="n"/>
+      <c r="M17" s="15" t="n">
         <v>0.1314</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="15" t="n">
         <v>0.2546</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="13" t="n">
         <v>-0.0125</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="12" t="inlineStr">
         <is>
           <t>股指CTA</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="17" t="inlineStr">
         <is>
           <t>闻道稳健一号</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="17" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="18" t="n">
         <v>0.5621</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="18" t="n">
         <v>0.08069999999999999</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="18" t="n">
         <v>0.1588</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="17" t="n">
         <v>0.63</v>
       </c>
-      <c r="I18" s="11" t="n"/>
-      <c r="J18" s="12" t="n">
+      <c r="I18" s="17" t="n"/>
+      <c r="J18" s="18" t="n">
         <v>0.2672</v>
       </c>
-      <c r="K18" s="12" t="n">
+      <c r="K18" s="18" t="n">
         <v>0.0514</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="L18" s="18" t="n">
         <v>-0.1182</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="18" t="n">
         <v>0.0284</v>
       </c>
-      <c r="N18" s="12" t="n">
+      <c r="N18" s="18" t="n">
         <v>0.2329</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="18" t="n">
         <v>0.0039</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>股指CTA</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" s="17" t="inlineStr">
         <is>
           <t>细水居20号</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="17" t="inlineStr">
         <is>
           <t>2022-08-25</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="18" t="n">
         <v>0.9772999999999999</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="18" t="n">
         <v>0.299</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="18" t="n">
         <v>0.1565</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="17" t="n">
         <v>1.3</v>
       </c>
-      <c r="I19" s="11" t="n"/>
-      <c r="J19" s="11" t="n"/>
-      <c r="K19" s="11" t="n"/>
-      <c r="L19" s="11" t="n"/>
-      <c r="M19" s="12" t="n">
+      <c r="I19" s="17" t="n"/>
+      <c r="J19" s="17" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="17" t="n"/>
+      <c r="M19" s="18" t="n">
         <v>0.2696</v>
       </c>
-      <c r="N19" s="12" t="n">
+      <c r="N19" s="18" t="n">
         <v>0.4984</v>
       </c>
-      <c r="O19" s="12" t="n">
+      <c r="O19" s="18" t="n">
         <v>0.008</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>主观套利</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>旌安1号</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="12" t="inlineStr">
         <is>
           <t>2018-06-29</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="13" t="n">
         <v>2.5673</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="13" t="n">
         <v>0.2073</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="13" t="n">
         <v>-0.0605</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="12" t="n">
         <v>2.45</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="13" t="n">
         <v>0.2295</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="13" t="n">
         <v>0.5252</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="13" t="n">
         <v>0.2196</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="13" t="n">
         <v>0.0413</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="13" t="n">
         <v>0.0393</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="13" t="n">
         <v>0.1095</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="13" t="n">
         <v>0.0155</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="12" t="inlineStr">
         <is>
           <t>主观套利</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>哲萌1号</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr">
         <is>
           <t>2017-06-30</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="13" t="n">
         <v>1.0381</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="13" t="n">
         <v>0.096</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="13" t="n">
         <v>-0.1527</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="H21" s="12" t="n">
         <v>0.76</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="13" t="n">
         <v>-0.0577</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="13" t="n">
         <v>0.4113</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="13" t="n">
         <v>0.0223</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="13" t="n">
         <v>0.0377</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="M21" s="13" t="n">
         <v>0.1571</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="13" t="n">
         <v>0.0881</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="13" t="n">
         <v>0.0132</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>主观套利</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="B22" s="17" t="inlineStr">
         <is>
           <t>金和和善对冲1号</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="17" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="18" t="n">
         <v>0.2306</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="19" t="n">
         <v>0.0624</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="18" t="n">
         <v>0.1064</v>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H22" s="17" t="n">
         <v>0.67</v>
       </c>
-      <c r="I22" s="11" t="n"/>
-      <c r="J22" s="11" t="n"/>
-      <c r="K22" s="11" t="n"/>
-      <c r="L22" s="12" t="n">
+      <c r="I22" s="17" t="n"/>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="18" t="n">
         <v>-0.026</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="18" t="n">
         <v>-0.0094</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="18" t="n">
         <v>0.2597</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="18" t="n">
         <v>0.0115</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" s="12" t="inlineStr">
         <is>
           <t>主观套利</t>
         </is>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>瑞达期货-瑞智无忧共赢7号</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" s="12" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="13" t="n">
         <v>1.7875</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="13" t="n">
         <v>0.1806</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="13" t="n">
         <v>-0.1687</v>
       </c>
-      <c r="H23" s="6" t="n">
+      <c r="H23" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="13" t="n">
         <v>0.1395</v>
       </c>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="13" t="n">
         <v>0.9089</v>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="13" t="n">
         <v>0.0543</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="L23" s="13" t="n">
         <v>-0.0401</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="13" t="n">
         <v>-0.0431</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="13" t="n">
         <v>0.2798</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="13" t="n">
         <v>0.034</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" s="14" t="inlineStr">
         <is>
           <t>量化套利</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="14" t="inlineStr">
         <is>
           <t>远澜翠柏1号</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="C24" s="14" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="D24" s="14" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="15" t="n">
         <v>0.0858</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="15" t="n">
         <v>0.059</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="15" t="n">
         <v>-0.0224</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="14" t="n">
         <v>1.08</v>
       </c>
-      <c r="I24" s="8" t="n"/>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="9" t="n">
+      <c r="I24" s="14" t="n"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="15" t="n">
         <v>0.0129</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="N24" s="15" t="n">
         <v>0.0796</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="13" t="n">
         <v>-0.007</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>量化套利</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
+      <c r="B25" s="17" t="inlineStr">
         <is>
           <t>博普安兴私享一号B类份额</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
+      <c r="D25" s="17" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="18" t="n">
         <v>0.0377</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="19" t="n">
         <v>0.0365</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="18" t="n">
         <v>0.0289</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="17" t="n">
         <v>0.88</v>
       </c>
-      <c r="I25" s="11" t="n"/>
-      <c r="J25" s="11" t="n"/>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="11" t="n"/>
-      <c r="M25" s="11" t="n"/>
-      <c r="N25" s="11" t="n"/>
-      <c r="O25" s="12" t="n">
+      <c r="I25" s="17" t="n"/>
+      <c r="J25" s="17" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="17" t="n"/>
+      <c r="M25" s="17" t="n"/>
+      <c r="N25" s="17" t="n"/>
+      <c r="O25" s="18" t="n">
         <v>0.0106</v>
       </c>
     </row>
@@ -1936,7 +2536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1946,95 +2546,95 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>管理人</t>
         </is>
       </c>
-      <c r="B1" s="19" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>管理规模</t>
         </is>
       </c>
-      <c r="C1" s="19" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>基金经理</t>
         </is>
       </c>
-      <c r="D1" s="19" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="E1" s="19" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="F1" s="19" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>成立日期</t>
         </is>
       </c>
-      <c r="G1" s="19" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>最新净值日期</t>
         </is>
       </c>
-      <c r="H1" s="19" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>年化收益</t>
         </is>
       </c>
-      <c r="I1" s="19" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="J1" s="19" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>夏普比</t>
         </is>
       </c>
-      <c r="K1" s="19" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>2025收益</t>
         </is>
       </c>
-      <c r="L1" s="19" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>2024收益</t>
         </is>
       </c>
-      <c r="M1" s="19" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>2023收益</t>
         </is>
       </c>
-      <c r="N1" s="19" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>2022收益</t>
         </is>
       </c>
-      <c r="O1" s="19" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>2021收益</t>
         </is>
       </c>
-      <c r="P1" s="19" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>2020收益</t>
         </is>
       </c>
-      <c r="Q1" s="19" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>2019收益</t>
         </is>
       </c>
-      <c r="R1" s="19" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>2018收益</t>
         </is>
@@ -2619,78 +3219,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>基金产品</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>净值起始日期</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>净值结束日期</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
+        <is>
+          <t>单位净值</t>
+        </is>
+      </c>
+      <c r="E1" s="20" t="inlineStr">
+        <is>
+          <t>累计净值</t>
+        </is>
+      </c>
+      <c r="F1" s="20" t="inlineStr">
+        <is>
+          <t>复权净值</t>
+        </is>
+      </c>
+      <c r="G1" s="20" t="inlineStr">
+        <is>
+          <t>总收益率</t>
+        </is>
+      </c>
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>年化收益率</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
+        <is>
+          <t>年化波动率</t>
+        </is>
+      </c>
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>夏普比率</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
+        <is>
+          <t>2019收益</t>
+        </is>
+      </c>
+      <c r="M1" s="20" t="inlineStr">
+        <is>
+          <t>2020收益</t>
+        </is>
+      </c>
+      <c r="N1" s="20" t="inlineStr">
+        <is>
+          <t>2021收益</t>
+        </is>
+      </c>
+      <c r="O1" s="20" t="inlineStr">
+        <is>
+          <t>2022收益</t>
+        </is>
+      </c>
+      <c r="P1" s="20" t="inlineStr">
+        <is>
+          <t>2023收益</t>
+        </is>
+      </c>
+      <c r="Q1" s="20" t="inlineStr">
+        <is>
+          <t>2024收益</t>
+        </is>
+      </c>
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>2025收益</t>
-        </is>
-      </c>
-      <c r="H1" s="14" t="inlineStr">
-        <is>
-          <t>2024收益</t>
-        </is>
-      </c>
-      <c r="I1" s="14" t="inlineStr">
-        <is>
-          <t>2023收益</t>
-        </is>
-      </c>
-      <c r="J1" s="14" t="inlineStr">
-        <is>
-          <t>2022收益</t>
-        </is>
-      </c>
-      <c r="K1" s="14" t="inlineStr">
-        <is>
-          <t>2021收益</t>
-        </is>
-      </c>
-      <c r="L1" s="14" t="inlineStr">
-        <is>
-          <t>2020收益</t>
-        </is>
-      </c>
-      <c r="M1" s="14" t="inlineStr">
-        <is>
-          <t>2019收益</t>
         </is>
       </c>
     </row>
@@ -2707,38 +3332,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D2" s="15" t="n">
-        <v>0.3211</v>
-      </c>
-      <c r="E2" s="15" t="n">
-        <v>-0.1233</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.825</v>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G2" s="15" t="n">
-        <v>0.1026</v>
-      </c>
-      <c r="H2" s="15" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="I2" s="15" t="n">
-        <v>0.1246</v>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="K2" s="15" t="n">
-        <v>0.1065</v>
-      </c>
-      <c r="L2" s="15" t="n">
-        <v>0.1665</v>
-      </c>
-      <c r="M2" s="15" t="n">
-        <v>1.3203</v>
+        <v>7.1189</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>611.89%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34.65%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-12.33%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20.11%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>132.03%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>16.65%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10.65%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>23.50%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12.46%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>17.90%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>25.80%</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2754,35 +3418,73 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="n">
-        <v>0.4088</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>-0.2667</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.057</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>-0.0143</v>
-      </c>
-      <c r="H3" s="15" t="n">
-        <v>0.6094000000000001</v>
-      </c>
-      <c r="I3" s="15" t="n">
-        <v>0.2934</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0.9404</v>
-      </c>
-      <c r="K3" s="15" t="n">
-        <v>0.1403</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <v>-0.002</v>
+        <v>4.4487</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>344.87%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40.06%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-26.67%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30.30%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-0.20%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>14.03%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>94.04%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>29.34%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>60.94%</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-3.22%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2798,38 +3500,77 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>0.1806</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>-0.1687</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1858</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.3187</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>0.2798</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>-0.0431</v>
-      </c>
-      <c r="J4" s="15" t="n">
-        <v>-0.0401</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0.0543</v>
-      </c>
-      <c r="L4" s="15" t="n">
-        <v>0.9089</v>
-      </c>
-      <c r="M4" s="15" t="n">
-        <v>0.1395</v>
+        <v>2.83</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>183.00%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18.28%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-16.87%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10.68%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13.95%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>90.89%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-4.01%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-4.31%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>27.98%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2845,38 +3586,77 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>0.2949</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>-0.2247</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6.657</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.302</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>0.0561</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>0.1464</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <v>0.2708</v>
-      </c>
-      <c r="K5" s="15" t="n">
-        <v>0.08119999999999999</v>
-      </c>
-      <c r="L5" s="15" t="n">
-        <v>0.9133</v>
-      </c>
-      <c r="M5" s="15" t="n">
-        <v>0.4798</v>
+        <v>7.6556</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>665.56%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-22.47%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>17.07%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>47.98%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>91.33%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>8.12%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>27.08%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>14.64%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>7.02%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.06%</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2892,35 +3672,73 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>0.1128</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>-0.07729999999999999</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.625</v>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <v>-0.0139</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <v>0.1513</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <v>0.1408</v>
-      </c>
-      <c r="J6" s="15" t="n">
-        <v>0.1284</v>
-      </c>
-      <c r="K6" s="15" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="L6" s="15" t="n">
-        <v>0.108</v>
+        <v>1.625</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11.17%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-7.73%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>7.67%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12.84%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>14.08%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>15.13%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-1.57%</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2936,38 +3754,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>0.0579</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>-0.1588</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>-0.0516</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>0.1242</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K7" s="15" t="n">
-        <v>0.1249</v>
-      </c>
-      <c r="L7" s="15" t="n">
-        <v>0.2183</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>0.0389</v>
+        <v>1.5251</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>52.51%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6.30%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-15.88%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10.63%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.89%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>9.71%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-1.80%</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2983,38 +3840,77 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>-0.1817</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.4955</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.4955</v>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>-0.0134</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>0.6381</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>-0.07580000000000001</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>0.2229</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>0.8146</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>-0.0585</v>
+        <v>3.4955</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>249.58%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23.85%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-18.17%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>19.78%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-5.85%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>81.46%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>22.29%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-7.58%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>17.80%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>63.81%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-6.18%</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -3033,23 +3929,58 @@
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D9" s="15" t="n">
-        <v>0.2451</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>-0.046</v>
+      <c r="D9" t="n">
+        <v>1.3701</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.3701</v>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0.0935</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.2279</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>0.0202</v>
+        <v>1.3701</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>36.98%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>24.51%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-4.60%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9.08%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>22.79%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3065,38 +3996,77 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.1076</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.1756</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9872</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.9872</v>
       </c>
       <c r="F10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.0102</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.1849</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>-0.0183</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>0.0616</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>0.0905</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>0.3016</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>0.138</v>
+        <v>1.9872</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>98.72%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-17.56%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>13.80%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>30.16%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-1.83%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.52%</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -3115,20 +4085,54 @@
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D11" s="15" t="n">
-        <v>0.0527</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>-0.0194</v>
+      <c r="D11" t="n">
+        <v>1.0268</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>0.0221</v>
+        <v>1.0268</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5.27%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-1.94%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5.74%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -3144,38 +4148,77 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>-0.1459</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.818</v>
       </c>
       <c r="F12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>0.0395</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>0.0533</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>0.3289</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>0.1249</v>
+        <v>2.818</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>181.80%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11.61%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-14.59%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>9.90%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>32.89%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5.33%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-1.30%</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -3191,38 +4234,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>0.1417</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>-0.1405</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.201</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G13" s="15" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H13" s="15" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="I13" s="15" t="n">
-        <v>-0.0886</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>0.1826</v>
-      </c>
-      <c r="K13" s="15" t="n">
-        <v>0.0541</v>
-      </c>
-      <c r="L13" s="15" t="n">
-        <v>0.3866</v>
-      </c>
-      <c r="M13" s="15" t="n">
-        <v>0.146</v>
+        <v>2.2625</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>126.25%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14.18%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-14.05%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11.02%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14.60%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>38.66%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-8.86%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>21.80%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.89%</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3238,26 +4320,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>0.2258</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>-0.0317</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.583</v>
       </c>
       <c r="F14" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="G14" s="15" t="n">
-        <v>-0.0095</v>
-      </c>
-      <c r="H14" s="15" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="I14" s="15" t="n">
-        <v>0.2181</v>
+        <v>1.583</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>58.30%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.50%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-3.17%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>21.81%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>30.80%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-0.65%</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3273,26 +4390,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>0.1626</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>-0.0609</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.3348</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.4057</v>
       </c>
       <c r="F15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="G15" s="15" t="n">
-        <v>-0.0125</v>
-      </c>
-      <c r="H15" s="15" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="I15" s="15" t="n">
-        <v>0.1314</v>
+        <v>1.412</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>41.19%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16.46%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-6.09%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>13.14%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>25.46%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3308,132 +4460,311 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>0.2073</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>-0.0605</v>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.0044</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.4579</v>
       </c>
       <c r="F16" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="H16" s="15" t="n">
-        <v>0.1095</v>
-      </c>
-      <c r="I16" s="15" t="n">
-        <v>0.0393</v>
-      </c>
-      <c r="J16" s="15" t="n">
-        <v>0.0413</v>
-      </c>
-      <c r="K16" s="15" t="n">
-        <v>0.2196</v>
-      </c>
-      <c r="L16" s="15" t="n">
-        <v>0.5252</v>
-      </c>
-      <c r="M16" s="15" t="n">
-        <v>0.2295</v>
+        <v>3.5872</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>258.72%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>20.78%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-6.05%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>22.95%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>52.52%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>21.96%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>哲萌1号</t>
+          <t>星恒哲萌1号</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2021-04-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="E17" s="15" t="n">
-        <v>-0.1527</v>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.1291</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.5924</v>
       </c>
       <c r="F17" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <v>0.0132</v>
-      </c>
-      <c r="H17" s="15" t="n">
-        <v>0.0881</v>
-      </c>
-      <c r="I17" s="15" t="n">
-        <v>0.1571</v>
-      </c>
-      <c r="J17" s="15" t="n">
-        <v>0.0377</v>
-      </c>
-      <c r="K17" s="15" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="L17" s="15" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="M17" s="15" t="n">
-        <v>-0.0577</v>
+        <v>1.7138</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>71.38%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>14.46%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-13.34%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>12.94%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10.97%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>20.35%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>12.20%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>唯瞻五号</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.1922</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.1899</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18.99%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>11.87%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-3.11%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>7.78%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>17.69%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>远澜翠柏1号</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2017-05-12</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D18" s="15" t="n">
-        <v>0.1097</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>-0.1156</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>-0.0143</v>
-      </c>
-      <c r="H18" s="15" t="n">
-        <v>0.1653</v>
-      </c>
-      <c r="I18" s="15" t="n">
-        <v>-0.008800000000000001</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <v>0.0285</v>
-      </c>
-      <c r="K18" s="15" t="n">
-        <v>0.0469</v>
-      </c>
-      <c r="L18" s="15" t="n">
-        <v>0.4399</v>
-      </c>
-      <c r="M18" s="15" t="n">
-        <v>0.1093</v>
+      <c r="D19" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.2753</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>127.53%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10.97%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-11.56%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11.08%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10.93%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>43.99%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>16.53%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-1.43%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3453,1123 +4784,1123 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="26" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13.88671875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="1" min="4" max="5"/>
-    <col width="7.5546875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="1" min="7" max="13"/>
+    <col width="26" customWidth="1" style="6" min="1" max="1"/>
+    <col width="11.6666666666667" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.8833333333333" customWidth="1" style="6" min="3" max="3"/>
+    <col width="9.55833333333333" customWidth="1" style="6" min="4" max="5"/>
+    <col width="7.55833333333333" customWidth="1" style="6" min="6" max="6"/>
+    <col width="9.55833333333333" customWidth="1" style="6" min="7" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>成立日期</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>最新净值日期</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>年化收益</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>最大回撤</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>夏普比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>2025收益</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>2024收益</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>2023收益</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>2022收益</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>2021收益</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>2020收益</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>2019收益</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>黑翼CTA8号</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>2018-10-17</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="6" t="n">
         <v>0.1156</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>0.0837</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="6" t="n">
         <v>1.17</v>
       </c>
-      <c r="G2" s="16" t="n">
+      <c r="G2" s="5" t="n">
         <v>0.004</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="5" t="n">
         <v>0.1329</v>
       </c>
-      <c r="I2" s="16" t="n">
+      <c r="I2" s="5" t="n">
         <v>0.0663</v>
       </c>
-      <c r="J2" s="16" t="n">
+      <c r="J2" s="5" t="n">
         <v>0.0552</v>
       </c>
-      <c r="K2" s="16" t="n">
+      <c r="K2" s="5" t="n">
         <v>0.0819</v>
       </c>
-      <c r="L2" s="16" t="n">
+      <c r="L2" s="5" t="n">
         <v>0.2727</v>
       </c>
-      <c r="M2" s="16" t="n">
+      <c r="M2" s="5" t="n">
         <v>0.1618</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>宏锡量化CTA7号</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>2017-02-17</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="6" t="n">
         <v>0.1322</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>0.1654</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="5" t="n">
         <v>-0.0154</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="5" t="n">
         <v>0.1166</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="5" t="n">
         <v>0.0266</v>
       </c>
-      <c r="J3" s="16" t="n">
+      <c r="J3" s="5" t="n">
         <v>0.1991</v>
       </c>
-      <c r="K3" s="16" t="n">
+      <c r="K3" s="5" t="n">
         <v>-0.0076</v>
       </c>
-      <c r="L3" s="16" t="n">
+      <c r="L3" s="5" t="n">
         <v>0.3188</v>
       </c>
-      <c r="M3" s="16" t="n">
+      <c r="M3" s="5" t="n">
         <v>0.1354</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>千象15期</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="6" t="n">
         <v>0.0975</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>0.129</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="6" t="n">
         <v>0.85</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="5" t="n">
         <v>0.013</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="5" t="n">
         <v>0.1824</v>
       </c>
-      <c r="I4" s="16" t="n">
+      <c r="I4" s="5" t="n">
         <v>-0.0074</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="5" t="n">
         <v>0.0386</v>
       </c>
-      <c r="K4" s="16" t="n">
+      <c r="K4" s="5" t="n">
         <v>0.09909999999999999</v>
       </c>
-      <c r="L4" s="16" t="n">
+      <c r="L4" s="5" t="n">
         <v>0.2934</v>
       </c>
-      <c r="M4" s="16" t="n">
+      <c r="M4" s="5" t="n">
         <v>0.0322</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>细水居20号</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>2022-08-25</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="6" t="n">
         <v>0.299</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>0.1565</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>1.3</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="5" t="n">
         <v>0.008</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="5" t="n">
         <v>0.4984</v>
       </c>
-      <c r="I5" s="16" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.2696</v>
       </c>
-      <c r="J5" s="16" t="n"/>
-      <c r="K5" s="16" t="n"/>
-      <c r="L5" s="16" t="n"/>
-      <c r="M5" s="16" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>闻道稳健一号</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>2019-07-05</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="6" t="n">
         <v>0.08069999999999999</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.1588</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="6" t="n">
         <v>0.63</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="5" t="n">
         <v>0.0039</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="5" t="n">
         <v>0.2329</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="5" t="n">
         <v>0.0284</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="5" t="n">
         <v>-0.1182</v>
       </c>
-      <c r="K6" s="16" t="n">
+      <c r="K6" s="5" t="n">
         <v>0.0514</v>
       </c>
-      <c r="L6" s="16" t="n">
+      <c r="L6" s="5" t="n">
         <v>0.2672</v>
       </c>
-      <c r="M6" s="16" t="n"/>
+      <c r="M6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>金和和善对冲1号</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="6" t="n">
         <v>0.0624</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>0.1064</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="6" t="n">
         <v>0.67</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="5" t="n">
         <v>0.0115</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="5" t="n">
         <v>0.2597</v>
       </c>
-      <c r="I7" s="16" t="n">
+      <c r="I7" s="5" t="n">
         <v>-0.0094</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="5" t="n">
         <v>-0.026</v>
       </c>
-      <c r="K7" s="16" t="n"/>
-      <c r="L7" s="16" t="n"/>
-      <c r="M7" s="16" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>博普安兴私享一号B类份额</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="6" t="n">
         <v>0.0365</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>0.0289</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="6" t="n">
         <v>0.88</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="5" t="n">
         <v>0.0106</v>
       </c>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="n"/>
-      <c r="J8" s="16" t="n"/>
-      <c r="K8" s="16" t="n"/>
-      <c r="L8" s="16" t="n"/>
-      <c r="M8" s="16" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>草本优益1号</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>2018-09-07</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.3211</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="5" t="n">
         <v>-0.1233</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="6" t="n">
         <v>1.55</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="5" t="n">
         <v>0.1026</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="5" t="n">
         <v>0.179</v>
       </c>
-      <c r="I9" s="16" t="n">
+      <c r="I9" s="5" t="n">
         <v>0.1246</v>
       </c>
-      <c r="J9" s="16" t="n">
+      <c r="J9" s="5" t="n">
         <v>0.235</v>
       </c>
-      <c r="K9" s="16" t="n">
+      <c r="K9" s="5" t="n">
         <v>0.1065</v>
       </c>
-      <c r="L9" s="16" t="n">
+      <c r="L9" s="5" t="n">
         <v>0.1665</v>
       </c>
-      <c r="M9" s="16" t="n">
+      <c r="M9" s="5" t="n">
         <v>1.3203</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>草本致远1号</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>2020-11-06</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.4088</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="5" t="n">
         <v>-0.2667</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="6" t="n">
         <v>1.28</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="5" t="n">
         <v>-0.0143</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="5" t="n">
         <v>0.6094000000000001</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="5" t="n">
         <v>0.2934</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="5" t="n">
         <v>0.9404</v>
       </c>
-      <c r="K10" s="16" t="n">
+      <c r="K10" s="5" t="n">
         <v>0.1403</v>
       </c>
-      <c r="L10" s="16" t="n">
+      <c r="L10" s="5" t="n">
         <v>-0.002</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>瑞达期货-瑞智无忧共赢7号</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.1806</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="5" t="n">
         <v>-0.1687</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="5" t="n">
         <v>0.034</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="5" t="n">
         <v>0.2798</v>
       </c>
-      <c r="I11" s="16" t="n">
+      <c r="I11" s="5" t="n">
         <v>-0.0431</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="5" t="n">
         <v>-0.0401</v>
       </c>
-      <c r="K11" s="16" t="n">
+      <c r="K11" s="5" t="n">
         <v>0.0543</v>
       </c>
-      <c r="L11" s="16" t="n">
+      <c r="L11" s="5" t="n">
         <v>0.9089</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" s="5" t="n">
         <v>0.1395</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>均成CTA1号</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>2017-03-03</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.2949</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="5" t="n">
         <v>-0.2247</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="6" t="n">
         <v>1.62</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.0561</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="5" t="n">
         <v>0.0702</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="5" t="n">
         <v>0.1464</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="5" t="n">
         <v>0.2708</v>
       </c>
-      <c r="K12" s="16" t="n">
+      <c r="K12" s="5" t="n">
         <v>0.08119999999999999</v>
       </c>
-      <c r="L12" s="16" t="n">
+      <c r="L12" s="5" t="n">
         <v>0.9133</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" s="5" t="n">
         <v>0.4798</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>弘源多元化CTA</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="5" t="n">
         <v>0.1128</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="5" t="n">
         <v>-0.07729999999999999</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="6" t="n">
         <v>1.21</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="5" t="n">
         <v>-0.0139</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="5" t="n">
         <v>0.1513</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="5" t="n">
         <v>0.1408</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="5" t="n">
         <v>0.1284</v>
       </c>
-      <c r="K13" s="16" t="n">
+      <c r="K13" s="5" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L13" s="16" t="n">
+      <c r="L13" s="5" t="n">
         <v>0.108</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>众壹资产量合兴成一号</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.0579</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="5" t="n">
         <v>-0.1588</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="6" t="n">
         <v>0.36</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="5" t="n">
         <v>-0.0516</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="5" t="n">
         <v>0.09710000000000001</v>
       </c>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="5" t="n">
         <v>0.1242</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="5" t="n">
         <v>0.0131</v>
       </c>
-      <c r="K14" s="16" t="n">
+      <c r="K14" s="5" t="n">
         <v>0.1249</v>
       </c>
-      <c r="L14" s="16" t="n">
+      <c r="L14" s="5" t="n">
         <v>0.2183</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" s="5" t="n">
         <v>0.0389</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>旭诺CTA三号</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.2502</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="5" t="n">
         <v>-0.1817</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="6" t="n">
         <v>1.17</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="5" t="n">
         <v>-0.0134</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="5" t="n">
         <v>0.6381</v>
       </c>
-      <c r="I15" s="16" t="n">
+      <c r="I15" s="5" t="n">
         <v>0.178</v>
       </c>
-      <c r="J15" s="16" t="n">
+      <c r="J15" s="5" t="n">
         <v>-0.07580000000000001</v>
       </c>
-      <c r="K15" s="16" t="n">
+      <c r="K15" s="5" t="n">
         <v>0.2229</v>
       </c>
-      <c r="L15" s="16" t="n">
+      <c r="L15" s="5" t="n">
         <v>0.8146</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" s="5" t="n">
         <v>-0.0585</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>千衍六贞1号B类</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.2451</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="5" t="n">
         <v>-0.046</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="6" t="n">
         <v>2.48</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="5" t="n">
         <v>0.0935</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="5" t="n">
         <v>0.2279</v>
       </c>
-      <c r="I16" s="16" t="n">
+      <c r="I16" s="5" t="n">
         <v>0.0202</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>会世元丰CTA1号</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>2018-08-03</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.1076</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="5" t="n">
         <v>-0.1756</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="6" t="n">
         <v>1.03</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="5" t="n">
         <v>-0.0102</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="5" t="n">
         <v>0.1849</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="5" t="n">
         <v>-0.0183</v>
       </c>
-      <c r="J17" s="16" t="n">
+      <c r="J17" s="5" t="n">
         <v>0.0616</v>
       </c>
-      <c r="K17" s="16" t="n">
+      <c r="K17" s="5" t="n">
         <v>0.0905</v>
       </c>
-      <c r="L17" s="16" t="n">
+      <c r="L17" s="5" t="n">
         <v>0.3016</v>
       </c>
-      <c r="M17" s="16" t="n">
+      <c r="M17" s="5" t="n">
         <v>0.138</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>简雍斯量先锋</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.0527</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="5" t="n">
         <v>-0.0194</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="6" t="n">
         <v>0.57</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="5" t="n">
         <v>0.0046</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="5" t="n">
         <v>0.0221</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>远澜云杉</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>2015-11-06</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="5" t="n">
         <v>0.1169</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="5" t="n">
         <v>-0.1459</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="6" t="n">
         <v>0.98</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="5" t="n">
         <v>-0.008399999999999999</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="5" t="n">
         <v>0.0135</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="5" t="n">
         <v>0.0395</v>
       </c>
-      <c r="J19" s="16" t="n">
+      <c r="J19" s="5" t="n">
         <v>0.0238</v>
       </c>
-      <c r="K19" s="16" t="n">
+      <c r="K19" s="5" t="n">
         <v>0.0533</v>
       </c>
-      <c r="L19" s="16" t="n">
+      <c r="L19" s="5" t="n">
         <v>0.3289</v>
       </c>
-      <c r="M19" s="16" t="n">
+      <c r="M19" s="5" t="n">
         <v>0.1249</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>文谛量化优选三号</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>2019-02-15</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="5" t="n">
         <v>0.1417</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="5" t="n">
         <v>-0.1405</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="6" t="n">
         <v>1.1</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="5" t="n">
         <v>0.025</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="5" t="n">
         <v>0.218</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="5" t="n">
         <v>-0.0886</v>
       </c>
-      <c r="J20" s="16" t="n">
+      <c r="J20" s="5" t="n">
         <v>0.1826</v>
       </c>
-      <c r="K20" s="16" t="n">
+      <c r="K20" s="5" t="n">
         <v>0.0541</v>
       </c>
-      <c r="L20" s="16" t="n">
+      <c r="L20" s="5" t="n">
         <v>0.3866</v>
       </c>
-      <c r="M20" s="16" t="n">
+      <c r="M20" s="5" t="n">
         <v>0.146</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>量派CTA七号</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="5" t="n">
         <v>0.2258</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="5" t="n">
         <v>-0.0317</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="6" t="n">
         <v>3.03</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="5" t="n">
         <v>-0.0095</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="5" t="n">
         <v>0.308</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I21" s="5" t="n">
         <v>0.2181</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>安贤CTA量化一号</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>2023-01-06</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="5" t="n">
         <v>0.1626</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="5" t="n">
         <v>-0.0609</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="6" t="n">
         <v>2.07</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="5" t="n">
         <v>-0.0125</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="5" t="n">
         <v>0.2546</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="5" t="n">
         <v>0.1314</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>旌安1号</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>2018-06-29</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="5" t="n">
         <v>0.2073</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="5" t="n">
         <v>-0.0605</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="6" t="n">
         <v>2.45</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="5" t="n">
         <v>0.0155</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="5" t="n">
         <v>0.1095</v>
       </c>
-      <c r="I23" s="16" t="n">
+      <c r="I23" s="5" t="n">
         <v>0.0393</v>
       </c>
-      <c r="J23" s="16" t="n">
+      <c r="J23" s="5" t="n">
         <v>0.0413</v>
       </c>
-      <c r="K23" s="16" t="n">
+      <c r="K23" s="5" t="n">
         <v>0.2196</v>
       </c>
-      <c r="L23" s="16" t="n">
+      <c r="L23" s="5" t="n">
         <v>0.5252</v>
       </c>
-      <c r="M23" s="16" t="n">
+      <c r="M23" s="5" t="n">
         <v>0.2295</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>哲萌1号</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>2017-06-30</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="5" t="n">
         <v>0.096</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="5" t="n">
         <v>-0.1527</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="6" t="n">
         <v>0.76</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="5" t="n">
         <v>0.0132</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="5" t="n">
         <v>0.0881</v>
       </c>
-      <c r="I24" s="16" t="n">
+      <c r="I24" s="5" t="n">
         <v>0.1571</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="5" t="n">
         <v>0.0377</v>
       </c>
-      <c r="K24" s="16" t="n">
+      <c r="K24" s="5" t="n">
         <v>0.0223</v>
       </c>
-      <c r="L24" s="16" t="n">
+      <c r="L24" s="5" t="n">
         <v>0.4113</v>
       </c>
-      <c r="M24" s="16" t="n">
+      <c r="M24" s="5" t="n">
         <v>-0.0577</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>远澜翠柏1号</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>2017-05-12</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>2025-04-03</t>
         </is>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="5" t="n">
         <v>0.1097</v>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="5" t="n">
         <v>-0.1156</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="5" t="n">
         <v>-0.0143</v>
       </c>
-      <c r="H25" s="16" t="n">
+      <c r="H25" s="5" t="n">
         <v>0.1653</v>
       </c>
-      <c r="I25" s="16" t="n">
+      <c r="I25" s="5" t="n">
         <v>-0.008800000000000001</v>
       </c>
-      <c r="J25" s="16" t="n">
+      <c r="J25" s="5" t="n">
         <v>0.0285</v>
       </c>
-      <c r="K25" s="16" t="n">
+      <c r="K25" s="5" t="n">
         <v>0.0469</v>
       </c>
-      <c r="L25" s="16" t="n">
+      <c r="L25" s="5" t="n">
         <v>0.4399</v>
       </c>
-      <c r="M25" s="16" t="n">
+      <c r="M25" s="5" t="n">
         <v>0.1093</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2726,7 +2726,6 @@
           <t>16.18%</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2978,11 +2977,6 @@
           <t>26.96%</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3065,8 +3059,6 @@
           <t>26.72%</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3139,10 +3131,6 @@
           <t>-2.60%</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3200,13 +3188,6 @@
           <t>1.08%</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3926,26 +3907,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.3701</v>
+        <v>1.3836</v>
       </c>
       <c r="E9" t="n">
-        <v>1.3701</v>
+        <v>1.3836</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3701</v>
+        <v>1.3836</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>36.98%</t>
+          <t>38.33%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.51%</t>
+          <t>24.94%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3955,12 +3936,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9.08%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -3979,7 +3960,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>10.43%</t>
         </is>
       </c>
     </row>
@@ -4082,26 +4063,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.0268</v>
+        <v>10007.0007</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0268</v>
+        <v>10007.0007</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0268</v>
+        <v>10007.0007</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>1000600.07%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.27%</t>
+          <t>2815435412.18%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4111,12 +4092,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>1304896.71%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2157.59</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -4131,7 +4112,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>978962.78%</t>
         </is>
       </c>
     </row>
@@ -4460,26 +4441,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.0044</v>
+        <v>1.0116</v>
       </c>
       <c r="E16" t="n">
-        <v>2.4579</v>
+        <v>2.4651</v>
       </c>
       <c r="F16" t="n">
-        <v>3.5872</v>
+        <v>3.6129</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>258.72%</t>
+          <t>261.29%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20.78%</t>
+          <t>20.83%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4489,12 +4470,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -4529,7 +4510,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>2.85%</t>
         </is>
       </c>
     </row>
@@ -4624,26 +4605,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9851</v>
+        <v>0.9808</v>
       </c>
       <c r="E18" t="n">
-        <v>1.1922</v>
+        <v>1.1879</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1899</v>
+        <v>1.1847</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18.99%</t>
+          <t>18.47%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11.87%</t>
+          <t>11.38%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4653,12 +4634,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -4677,7 +4658,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>-0.37%</t>
         </is>
       </c>
     </row>
@@ -4694,26 +4675,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.167</v>
+        <v>1.173</v>
       </c>
       <c r="E19" t="n">
-        <v>2.167</v>
+        <v>2.173</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2753</v>
+        <v>2.287</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>127.53%</t>
+          <t>128.70%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>11.01%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4723,7 +4704,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4763,7 +4744,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-1.43%</t>
+          <t>-0.93%</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="simupaipai" sheetId="2" r:id="rId1"/>
-    <sheet name="huofuniu" sheetId="3" r:id="rId2"/>
+    <sheet name="simupaipai" sheetId="1" r:id="rId1"/>
+    <sheet name="huofuniu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,19 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
-  <si>
-    <t>管理人</t>
-  </si>
-  <si>
-    <t>管理规模</t>
-  </si>
-  <si>
-    <t>基金经理</t>
-  </si>
-  <si>
-    <t>基金代码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>基金名称</t>
   </si>
@@ -60,42 +48,27 @@
     <t>夏普比</t>
   </si>
   <si>
+    <t>2019收益</t>
+  </si>
+  <si>
+    <t>2020收益</t>
+  </si>
+  <si>
+    <t>2021收益</t>
+  </si>
+  <si>
+    <t>2022收益</t>
+  </si>
+  <si>
+    <t>2023收益</t>
+  </si>
+  <si>
+    <t>2024收益</t>
+  </si>
+  <si>
     <t>2025收益</t>
   </si>
   <si>
-    <t>2024收益</t>
-  </si>
-  <si>
-    <t>2023收益</t>
-  </si>
-  <si>
-    <t>2022收益</t>
-  </si>
-  <si>
-    <t>2021收益</t>
-  </si>
-  <si>
-    <t>2020收益</t>
-  </si>
-  <si>
-    <t>2019收益</t>
-  </si>
-  <si>
-    <t>2018收益</t>
-  </si>
-  <si>
-    <t>黑翼资产</t>
-  </si>
-  <si>
-    <t>100亿以上</t>
-  </si>
-  <si>
-    <t>陈泽浩</t>
-  </si>
-  <si>
-    <t>SEM387</t>
-  </si>
-  <si>
     <t>黑翼CTA8号</t>
   </si>
   <si>
@@ -105,102 +78,39 @@
     <t>2025-04-18</t>
   </si>
   <si>
+    <t>宏锡量化CTA7号</t>
+  </si>
+  <si>
+    <t>2017-02-17</t>
+  </si>
+  <si>
+    <t>千象15期</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>细水居20号</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>宏锡基金</t>
-  </si>
-  <si>
-    <t>20~50亿</t>
-  </si>
-  <si>
-    <t>刘锡斌</t>
-  </si>
-  <si>
-    <t>SN3221</t>
-  </si>
-  <si>
-    <t>宏锡量化CTA7号</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
-  </si>
-  <si>
-    <t>千象资产</t>
-  </si>
-  <si>
-    <t>陈斌</t>
-  </si>
-  <si>
-    <t>ST4277</t>
-  </si>
-  <si>
-    <t>千象15期</t>
-  </si>
-  <si>
-    <t>2017-05-15</t>
-  </si>
-  <si>
-    <t>细水资产</t>
-  </si>
-  <si>
-    <t>王宏渊</t>
-  </si>
-  <si>
-    <t>STW548</t>
-  </si>
-  <si>
-    <t>细水居20号</t>
-  </si>
-  <si>
-    <t>2022-08-25</t>
-  </si>
-  <si>
-    <t>闻道资产</t>
-  </si>
-  <si>
-    <t>5~10亿</t>
-  </si>
-  <si>
-    <t>王海波</t>
-  </si>
-  <si>
-    <t>SGT646</t>
-  </si>
-  <si>
     <t>闻道稳健一号</t>
   </si>
   <si>
     <t>2019-07-05</t>
   </si>
   <si>
-    <t>金和基金</t>
-  </si>
-  <si>
-    <t>朱朋飞</t>
-  </si>
-  <si>
-    <t>STA933</t>
-  </si>
-  <si>
     <t>金和和善对冲1号</t>
   </si>
   <si>
     <t>2021-10-28</t>
   </si>
   <si>
-    <t>前海博普资产</t>
-  </si>
-  <si>
-    <t>50~100亿</t>
-  </si>
-  <si>
-    <t>袁豪</t>
-  </si>
-  <si>
-    <t>SAHS76</t>
-  </si>
-  <si>
     <t>博普安兴私享一号B类份额</t>
   </si>
   <si>
@@ -316,6 +226,12 @@
   </si>
   <si>
     <t>安贤CTA量化一号</t>
+  </si>
+  <si>
+    <t>东海龙王一号</t>
+  </si>
+  <si>
+    <t>2018-06-08</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -975,13 +891,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1328,471 +1253,348 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="18" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="4" customWidth="1"/>
+    <col min="7" max="13" width="9.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D2" s="6">
+        <v>0.1165</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.0837</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.1618</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.2727</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.0819</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.0552</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.0663</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.1329</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.1411</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.1654</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.1354</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.3188</v>
+      </c>
+      <c r="I3" s="6">
+        <v>-0.0076</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.1991</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.0266</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.1166</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.0554</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.1004</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.0322</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.2934</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.0991</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0386</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-0.0074</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.1824</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.3289</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.1565</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.2696</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.4984</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.0822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.1165</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.0837</v>
-      </c>
-      <c r="J2">
-        <v>1.18</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.0136</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.1329</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.0663</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.0552</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.0819</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.2727</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.1618</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.0797</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.1588</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.2672</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.0514</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-0.1182</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.0284</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.2329</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.0657</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.1064</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-0.026</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-0.0094</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.2597</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.0251</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.1411</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1654</v>
-      </c>
-      <c r="J3">
-        <v>0.85</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.0554</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.1166</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.0266</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.1991</v>
-      </c>
-      <c r="O3" s="2">
-        <v>-0.0076</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.3188</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.1354</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.1818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.1004</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="J4">
-        <v>0.88</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.0385</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.1824</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-0.0074</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.0386</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.0991</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.2934</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.0322</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.1134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.3289</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.1565</v>
-      </c>
-      <c r="J5">
-        <v>1.37</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.0822</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.4984</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.2696</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.0797</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.1588</v>
-      </c>
-      <c r="J6">
-        <v>0.59</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.0017</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.2329</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.0284</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-0.1182</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.0514</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.2672</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.0657</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.1064</v>
-      </c>
-      <c r="J7">
-        <v>0.76</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.0251</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.2597</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-0.0094</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-0.026</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.0355</v>
       </c>
-      <c r="I8" s="2">
+      <c r="E8" s="6">
         <v>0.0289</v>
       </c>
-      <c r="J8">
+      <c r="F8" s="4">
         <v>0.79</v>
       </c>
-      <c r="K8" s="2">
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6">
         <v>0.011</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +1606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1824,69 +1626,69 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1.297</v>
@@ -1936,13 +1738,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1.164</v>
@@ -1969,7 +1771,7 @@
         <v>1.32</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>-0.002</v>
@@ -1992,13 +1794,13 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1.2038</v>
@@ -2048,13 +1850,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>6.678</v>
@@ -2104,13 +1906,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1.624</v>
@@ -2137,7 +1939,7 @@
         <v>1.19</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6" s="2">
         <v>0.108</v>
@@ -2160,13 +1962,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1.202</v>
@@ -2216,13 +2018,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>3.5096</v>
@@ -2272,13 +2074,13 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>1.3928</v>
@@ -2305,16 +2107,16 @@
         <v>2.58</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2">
         <v>0.0202</v>
@@ -2328,13 +2130,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>2.0149</v>
@@ -2384,13 +2186,13 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>0.9982</v>
@@ -2417,19 +2219,19 @@
         <v>-0.36</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="2">
         <v>0.0221</v>
@@ -2440,13 +2242,13 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>2.835</v>
@@ -2496,13 +2298,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1.854</v>
@@ -2552,13 +2354,13 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1.5951</v>
@@ -2585,16 +2387,16 @@
         <v>3.07</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2">
         <v>0.2181</v>
@@ -2608,13 +2410,13 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1.3359</v>
@@ -2641,16 +2443,16 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P15" s="2">
         <v>0.1314</v>
@@ -2664,225 +2466,281 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>1.0189</v>
+        <v>1.925</v>
       </c>
       <c r="E16">
-        <v>2.4724</v>
+        <v>3.198</v>
       </c>
       <c r="F16">
-        <v>3.639</v>
+        <v>4.2889</v>
       </c>
       <c r="G16" s="2">
-        <v>2.639</v>
+        <v>3.2889</v>
       </c>
       <c r="H16" s="2">
-        <v>0.2089</v>
+        <v>0.2362</v>
       </c>
       <c r="I16" s="2">
-        <v>-0.0605</v>
+        <v>-0.1779</v>
       </c>
       <c r="J16" s="2">
-        <v>0.076</v>
+        <v>0.1582</v>
       </c>
       <c r="K16" s="3">
-        <v>2.49</v>
+        <v>1.37</v>
       </c>
       <c r="L16" s="2">
-        <v>0.2295</v>
+        <v>0.0916</v>
       </c>
       <c r="M16" s="2">
-        <v>0.5252</v>
+        <v>1.1104</v>
       </c>
       <c r="N16" s="2">
-        <v>0.2196</v>
+        <v>-0.0497</v>
       </c>
       <c r="O16" s="2">
-        <v>0.0413</v>
+        <v>0.1249</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0393</v>
+        <v>0.1591</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.1095</v>
+        <v>0.3767</v>
       </c>
       <c r="R16" s="2">
-        <v>0.0359</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>1.1322</v>
+        <v>1.0189</v>
       </c>
       <c r="E17">
-        <v>1.5955</v>
+        <v>2.4724</v>
       </c>
       <c r="F17">
-        <v>1.7186</v>
+        <v>3.639</v>
       </c>
       <c r="G17" s="2">
-        <v>0.7186</v>
+        <v>2.639</v>
       </c>
       <c r="H17" s="2">
-        <v>0.1447</v>
+        <v>0.2089</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.1334</v>
+        <v>-0.0605</v>
       </c>
       <c r="J17" s="2">
-        <v>0.0993</v>
+        <v>0.076</v>
       </c>
       <c r="K17" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
+        <v>2.49</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.2295</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.5252</v>
       </c>
       <c r="N17" s="2">
-        <v>0.1294</v>
+        <v>0.2196</v>
       </c>
       <c r="O17" s="2">
-        <v>0.1097</v>
+        <v>0.0413</v>
       </c>
       <c r="P17" s="2">
-        <v>0.2035</v>
+        <v>0.0393</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.122</v>
+        <v>0.1095</v>
       </c>
       <c r="R17" s="2">
-        <v>0.0155</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>0.97</v>
+        <v>1.1322</v>
       </c>
       <c r="E18">
-        <v>1.18</v>
+        <v>1.5955</v>
       </c>
       <c r="F18">
-        <v>1.1759</v>
+        <v>1.7186</v>
       </c>
       <c r="G18" s="2">
-        <v>0.1759</v>
+        <v>0.7186</v>
       </c>
       <c r="H18" s="2">
-        <v>0.1072</v>
+        <v>0.1447</v>
       </c>
       <c r="I18" s="2">
-        <v>-0.0361</v>
+        <v>-0.1334</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0794</v>
+        <v>0.0993</v>
       </c>
       <c r="K18" s="3">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.1294</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.1097</v>
       </c>
       <c r="P18" s="2">
-        <v>0.01</v>
+        <v>0.2035</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.1782</v>
+        <v>0.122</v>
       </c>
       <c r="R18" s="2">
-        <v>-0.0118</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D19">
+        <v>0.97</v>
+      </c>
+      <c r="E19">
+        <v>1.18</v>
+      </c>
+      <c r="F19">
+        <v>1.1759</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.1759</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.1072</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.0361</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.0794</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.1782</v>
+      </c>
+      <c r="R19" s="2">
+        <v>-0.0118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
         <v>1.163</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>2.163</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>2.2675</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>1.2675</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="2">
         <v>0.1086</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I20" s="2">
         <v>-0.1156</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J20" s="2">
         <v>0.1106</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>0.8</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L20" s="2">
         <v>0.1093</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M20" s="2">
         <v>0.4399</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N20" s="2">
         <v>0.0469</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O20" s="2">
         <v>0.0285</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P20" s="2">
         <v>-0.0088</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q20" s="2">
         <v>0.1653</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R20" s="2">
         <v>-0.0177</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -99,7 +99,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-04-30</t>
+    <t>2025-05-09</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -1323,9 +1323,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -1403,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="2">
-        <v>0.1159</v>
+        <v>0.1166</v>
       </c>
       <c r="I2" s="2">
         <v>0.0837</v>
       </c>
       <c r="J2" s="3">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="2">
         <v>0.1618</v>
@@ -1430,7 +1427,7 @@
         <v>0.1329</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.0136</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1456,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="2">
-        <v>0.1405</v>
+        <v>0.1407</v>
       </c>
       <c r="I3" s="2">
         <v>0.1654</v>
@@ -1483,7 +1480,7 @@
         <v>0.1166</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1509,13 +1506,13 @@
         <v>23</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0994</v>
+        <v>0.1006</v>
       </c>
       <c r="I4" s="2">
         <v>0.129</v>
       </c>
       <c r="J4" s="3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K4" s="2">
         <v>0.0322</v>
@@ -1536,7 +1533,7 @@
         <v>0.1824</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.0348</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1562,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="2">
-        <v>0.3224</v>
+        <v>0.3247</v>
       </c>
       <c r="I5" s="2">
         <v>0.1565</v>
@@ -1577,7 +1574,7 @@
         <v>0.4984</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.0782</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1603,13 +1600,13 @@
         <v>23</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0785</v>
+        <v>0.0784</v>
       </c>
       <c r="I6" s="2">
         <v>0.1588</v>
       </c>
       <c r="J6" s="3">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="L6" s="2">
         <v>0.2672</v>
@@ -1627,7 +1624,7 @@
         <v>0.2329</v>
       </c>
       <c r="Q6" s="2">
-        <v>-0.0022</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1653,13 +1650,13 @@
         <v>23</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0669</v>
+        <v>0.0667</v>
       </c>
       <c r="I7" s="2">
         <v>0.1064</v>
       </c>
       <c r="J7" s="3">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="N7" s="2">
         <v>-0.026</v>
@@ -1671,7 +1668,7 @@
         <v>0.2597</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.0312</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1697,16 +1694,16 @@
         <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0363</v>
+        <v>0.0361</v>
       </c>
       <c r="I8" s="2">
         <v>0.0289</v>
       </c>
       <c r="J8" s="3">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.0131</v>
+        <v>0.0137</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1724,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1785,13 +1778,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3445</v>
+        <v>0.3411</v>
       </c>
       <c r="E2" s="2">
         <v>-0.1233</v>
       </c>
       <c r="F2" s="3">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G2" s="2">
         <v>1.3203</v>
@@ -1812,7 +1805,7 @@
         <v>0.179</v>
       </c>
       <c r="M2" s="2">
-        <v>0.2649</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1826,13 +1819,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>0.4392</v>
+        <v>0.4294</v>
       </c>
       <c r="E3" s="2">
         <v>-0.2667</v>
       </c>
       <c r="F3" s="3">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="G3" t="s">
         <v>66</v>
@@ -1853,7 +1846,7 @@
         <v>0.6094</v>
       </c>
       <c r="M3" s="2">
-        <v>0.1125</v>
+        <v>0.0884</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1867,13 +1860,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>0.187</v>
+        <v>0.1889</v>
       </c>
       <c r="E4" s="2">
         <v>-0.1687</v>
       </c>
       <c r="F4" s="3">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G4" s="2">
         <v>0.1395</v>
@@ -1894,7 +1887,7 @@
         <v>0.2798</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0826</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1908,7 +1901,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2832</v>
+        <v>0.2842</v>
       </c>
       <c r="E5" s="2">
         <v>-0.2247</v>
@@ -1935,7 +1928,7 @@
         <v>0.0702</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.0005</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1949,13 +1942,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1095</v>
+        <v>0.1085</v>
       </c>
       <c r="E6" s="2">
         <v>-0.0773</v>
       </c>
       <c r="F6" s="3">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
@@ -1976,7 +1969,7 @@
         <v>0.1513</v>
       </c>
       <c r="M6" s="2">
-        <v>-0.0194</v>
+        <v>-0.0212</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1990,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0632</v>
+        <v>0.0638</v>
       </c>
       <c r="E7" s="2">
         <v>-0.1588</v>
@@ -2017,7 +2010,7 @@
         <v>0.0971</v>
       </c>
       <c r="M7" s="2">
-        <v>-0.0139</v>
+        <v>-0.0082</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2031,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2347</v>
+        <v>0.2343</v>
       </c>
       <c r="E8" s="2">
         <v>-0.1817</v>
@@ -2058,7 +2051,7 @@
         <v>0.6381</v>
       </c>
       <c r="M8" s="2">
-        <v>-0.0683</v>
+        <v>-0.0651</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2072,13 +2065,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2512</v>
+        <v>0.2588</v>
       </c>
       <c r="E9" s="2">
         <v>-0.046</v>
       </c>
       <c r="F9" s="3">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -2099,7 +2092,7 @@
         <v>0.2279</v>
       </c>
       <c r="M9" s="2">
-        <v>0.1196</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2113,13 +2106,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1098</v>
+        <v>0.1112</v>
       </c>
       <c r="E10" s="2">
         <v>-0.1756</v>
       </c>
       <c r="F10" s="3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="G10" s="2">
         <v>0.138</v>
@@ -2140,7 +2133,7 @@
         <v>0.1849</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0109</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2154,13 +2147,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.0149</v>
+        <v>-0.012</v>
       </c>
       <c r="E11" s="2">
         <v>-0.0529</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.55</v>
+        <v>-0.51</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
@@ -2181,7 +2174,7 @@
         <v>0.0221</v>
       </c>
       <c r="M11" s="2">
-        <v>-0.0302</v>
+        <v>-0.0289</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2222,7 +2215,7 @@
         <v>0.0135</v>
       </c>
       <c r="M12" s="2">
-        <v>-0.0025</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2236,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>0.1407</v>
+        <v>0.1402</v>
       </c>
       <c r="E13" s="2">
         <v>-0.1405</v>
@@ -2277,13 +2270,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2258</v>
+        <v>0.2263</v>
       </c>
       <c r="E14" s="2">
         <v>-0.0317</v>
       </c>
       <c r="F14" s="3">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>
@@ -2304,7 +2297,7 @@
         <v>0.308</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0055</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2318,13 +2311,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>0.1655</v>
+        <v>0.1623</v>
       </c>
       <c r="E15" s="2">
         <v>-0.0609</v>
       </c>
       <c r="F15" s="3">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
@@ -2345,7 +2338,7 @@
         <v>0.2546</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0043</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2359,13 +2352,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2376</v>
+        <v>0.2404</v>
       </c>
       <c r="E16" s="2">
         <v>-0.1779</v>
       </c>
       <c r="F16" s="3">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G16" s="2">
         <v>0.0916</v>
@@ -2386,7 +2379,7 @@
         <v>0.3767</v>
       </c>
       <c r="M16" s="2">
-        <v>0.014</v>
+        <v>0.0353</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2406,7 +2399,7 @@
         <v>-0.0605</v>
       </c>
       <c r="F17" s="3">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="G17" s="2">
         <v>0.2295</v>
@@ -2427,7 +2420,7 @@
         <v>0.1095</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0434</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2441,7 +2434,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2">
-        <v>0.1445</v>
+        <v>0.1443</v>
       </c>
       <c r="E18" s="2">
         <v>-0.1334</v>
@@ -2468,7 +2461,7 @@
         <v>0.122</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0196</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2482,13 +2475,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1027</v>
+        <v>0.1013</v>
       </c>
       <c r="E19" s="2">
         <v>-0.0392</v>
       </c>
       <c r="F19" s="3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -2509,7 +2502,7 @@
         <v>0.1782</v>
       </c>
       <c r="M19" s="2">
-        <v>-0.015</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2523,13 +2516,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1079</v>
+        <v>0.1066</v>
       </c>
       <c r="E20" s="2">
         <v>-0.1156</v>
       </c>
       <c r="F20" s="3">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="G20" s="2">
         <v>0.1093</v>
@@ -2550,7 +2543,7 @@
         <v>0.1653</v>
       </c>
       <c r="M20" s="2">
-        <v>-0.0194</v>
+        <v>-0.0262</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>管理人</t>
   </si>
@@ -81,6 +81,9 @@
     <t>2025收益</t>
   </si>
   <si>
+    <t>2018收益</t>
+  </si>
+  <si>
     <t>黑翼资产</t>
   </si>
   <si>
@@ -99,7 +102,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-05-09</t>
+    <t>2025-05-16</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -963,13 +966,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1316,394 +1331,429 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="17" width="9.875" customWidth="1"/>
+    <col min="24" max="24" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.1157</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.0837</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.1618</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.2727</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.0819</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.0552</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.0663</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.1329</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.0176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.1376</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.1654</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.1354</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.3188</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-0.0076</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.1991</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.0266</v>
+      </c>
+      <c r="P3" s="6">
         <v>0.1166</v>
       </c>
-      <c r="I2" s="2">
-        <v>0.0837</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.1618</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.2727</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.0819</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.0552</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.0663</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.1329</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.0208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="Q3" s="6">
+        <v>0.0391</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H4" s="6">
+        <v>0.0994</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.0322</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.2934</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0991</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0386</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-0.0074</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.1824</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.0385</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.1407</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1654</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.1354</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.3188</v>
-      </c>
-      <c r="M3" s="2">
-        <v>-0.0076</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.1991</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.0266</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.1166</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.1006</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.129</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.0322</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.2934</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.0991</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.0386</v>
-      </c>
-      <c r="O4" s="2">
-        <v>-0.0074</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.1824</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.3247</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="F5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.2945</v>
+      </c>
+      <c r="I5" s="6">
         <v>0.1565</v>
       </c>
-      <c r="J5" s="3">
-        <v>1.36</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="J5" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6">
         <v>0.2696</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="6">
         <v>0.4984</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0.0907</v>
+      <c r="Q5" s="6">
+        <v>0.0299</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.0784</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.0783</v>
+      </c>
+      <c r="I6" s="6">
         <v>0.1588</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>0.58</v>
       </c>
-      <c r="L6" s="2">
+      <c r="K6" s="5"/>
+      <c r="L6" s="6">
         <v>0.2672</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="6">
         <v>0.0514</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="6">
         <v>-0.1182</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="6">
         <v>0.0284</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="6">
         <v>0.2329</v>
       </c>
-      <c r="Q6" s="2">
-        <v>-0.001</v>
+      <c r="Q6" s="6">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.0667</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.0678</v>
+      </c>
+      <c r="I7" s="6">
         <v>0.1064</v>
       </c>
-      <c r="J7" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="J7" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6">
         <v>-0.026</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="6">
         <v>-0.0094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="6">
         <v>0.2597</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0.0323</v>
+      <c r="Q7" s="6">
+        <v>0.0373</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.0361</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.0362</v>
+      </c>
+      <c r="I8" s="6">
         <v>0.0289</v>
       </c>
-      <c r="J8" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.0137</v>
+      <c r="J8" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6">
+        <v>0.0145</v>
       </c>
     </row>
   </sheetData>
@@ -1722,28 +1772,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1769,22 +1816,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>0.3411</v>
+        <v>0.339</v>
       </c>
       <c r="E2" s="2">
         <v>-0.1233</v>
       </c>
       <c r="F2" s="3">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G2" s="2">
         <v>1.3203</v>
@@ -1805,30 +1852,30 @@
         <v>0.179</v>
       </c>
       <c r="M2" s="2">
-        <v>0.253</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>0.4294</v>
+        <v>0.4336</v>
       </c>
       <c r="E3" s="2">
         <v>-0.2667</v>
       </c>
       <c r="F3" s="3">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>-0.002</v>
@@ -1846,27 +1893,27 @@
         <v>0.6094</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0884</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1889</v>
+        <v>0.1864</v>
       </c>
       <c r="E4" s="2">
         <v>-0.1687</v>
       </c>
       <c r="F4" s="3">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G4" s="2">
         <v>0.1395</v>
@@ -1887,27 +1934,27 @@
         <v>0.2798</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0983</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2842</v>
+        <v>0.2852</v>
       </c>
       <c r="E5" s="2">
         <v>-0.2247</v>
       </c>
       <c r="F5" s="3">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G5" s="2">
         <v>0.4798</v>
@@ -1928,30 +1975,30 @@
         <v>0.0702</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0123</v>
+        <v>0.0239</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1085</v>
+        <v>0.1089</v>
       </c>
       <c r="E6" s="2">
         <v>-0.0773</v>
       </c>
       <c r="F6" s="3">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2">
         <v>0.108</v>
@@ -1969,27 +2016,27 @@
         <v>0.1513</v>
       </c>
       <c r="M6" s="2">
-        <v>-0.0212</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0638</v>
+        <v>0.0595</v>
       </c>
       <c r="E7" s="2">
         <v>-0.1588</v>
       </c>
       <c r="F7" s="3">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="G7" s="2">
         <v>0.0389</v>
@@ -2010,27 +2057,27 @@
         <v>0.0971</v>
       </c>
       <c r="M7" s="2">
-        <v>-0.0082</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2343</v>
+        <v>0.2285</v>
       </c>
       <c r="E8" s="2">
         <v>-0.1817</v>
       </c>
       <c r="F8" s="3">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="G8" s="2">
         <v>-0.0585</v>
@@ -2051,39 +2098,39 @@
         <v>0.6381</v>
       </c>
       <c r="M8" s="2">
-        <v>-0.0651</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2588</v>
+        <v>0.2556</v>
       </c>
       <c r="E9" s="2">
         <v>-0.046</v>
       </c>
       <c r="F9" s="3">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2">
         <v>0.0202</v>
@@ -2092,21 +2139,21 @@
         <v>0.2279</v>
       </c>
       <c r="M9" s="2">
-        <v>0.1364</v>
+        <v>0.1369</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>0.1112</v>
+        <v>0.1107</v>
       </c>
       <c r="E10" s="2">
         <v>-0.1756</v>
@@ -2133,68 +2180,68 @@
         <v>0.1849</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0221</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.012</v>
+        <v>-0.0079</v>
       </c>
       <c r="E11" s="2">
         <v>-0.0529</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.51</v>
+        <v>-0.45</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="2">
         <v>0.0221</v>
       </c>
       <c r="M11" s="2">
-        <v>-0.0289</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>0.1166</v>
+        <v>0.1172</v>
       </c>
       <c r="E12" s="2">
         <v>-0.1459</v>
       </c>
       <c r="F12" s="3">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G12" s="2">
         <v>0.1249</v>
@@ -2215,27 +2262,27 @@
         <v>0.0135</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>0.1402</v>
+        <v>0.1396</v>
       </c>
       <c r="E13" s="2">
         <v>-0.1405</v>
       </c>
       <c r="F13" s="3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="G13" s="2">
         <v>0.146</v>
@@ -2256,39 +2303,39 @@
         <v>0.218</v>
       </c>
       <c r="M13" s="2">
-        <v>0.03</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2263</v>
+        <v>0.2292</v>
       </c>
       <c r="E14" s="2">
         <v>-0.0317</v>
       </c>
       <c r="F14" s="3">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2">
         <v>0.2181</v>
@@ -2297,39 +2344,39 @@
         <v>0.308</v>
       </c>
       <c r="M14" s="2">
-        <v>0.0115</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
-        <v>0.1623</v>
+        <v>0.1692</v>
       </c>
       <c r="E15" s="2">
         <v>-0.0609</v>
       </c>
       <c r="F15" s="3">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2">
         <v>0.1314</v>
@@ -2338,27 +2385,27 @@
         <v>0.2546</v>
       </c>
       <c r="M15" s="2">
-        <v>0.0015</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2404</v>
+        <v>0.2393</v>
       </c>
       <c r="E16" s="2">
         <v>-0.1779</v>
       </c>
       <c r="F16" s="3">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G16" s="2">
         <v>0.0916</v>
@@ -2379,27 +2426,27 @@
         <v>0.3767</v>
       </c>
       <c r="M16" s="2">
-        <v>0.0353</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
-        <v>0.2091</v>
+        <v>0.2072</v>
       </c>
       <c r="E17" s="2">
         <v>-0.0605</v>
       </c>
       <c r="F17" s="3">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="G17" s="2">
         <v>0.2295</v>
@@ -2420,21 +2467,21 @@
         <v>0.1095</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0486</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
-        <v>0.1443</v>
+        <v>0.1435</v>
       </c>
       <c r="E18" s="2">
         <v>-0.1334</v>
@@ -2443,10 +2490,10 @@
         <v>1.26</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" s="2">
         <v>0.1294</v>
@@ -2466,34 +2513,34 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1013</v>
+        <v>0.0983</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.0392</v>
+        <v>-0.0416</v>
       </c>
       <c r="F19" s="3">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2">
         <v>0.01</v>
@@ -2502,27 +2549,27 @@
         <v>0.1782</v>
       </c>
       <c r="M19" s="2">
-        <v>-0.0147</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1066</v>
+        <v>0.1038</v>
       </c>
       <c r="E20" s="2">
         <v>-0.1156</v>
       </c>
       <c r="F20" s="3">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G20" s="2">
         <v>0.1093</v>
@@ -2543,7 +2590,7 @@
         <v>0.1653</v>
       </c>
       <c r="M20" s="2">
-        <v>-0.0262</v>
+        <v>-0.0439</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="simupaipai" sheetId="1" r:id="rId1"/>
     <sheet name="huofuniu" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>管理人</t>
   </si>
@@ -81,9 +82,6 @@
     <t>2025收益</t>
   </si>
   <si>
-    <t>2018收益</t>
-  </si>
-  <si>
     <t>黑翼资产</t>
   </si>
   <si>
@@ -102,7 +100,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-05-16</t>
+    <t>2025-05-23</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -331,17 +329,21 @@
   </si>
   <si>
     <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>铭跃行远均衡专享八号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -503,12 +505,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -842,7 +850,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -866,16 +874,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
@@ -884,107 +892,110 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1044,6 +1055,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,429 +1349,394 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="17" width="9.875" customWidth="1"/>
-    <col min="24" max="24" width="9.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="7">
+        <v>0.1155</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.0837</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.1618</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.2727</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.0819</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.0552</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.0663</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.1329</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.0182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6">
-        <v>0.1157</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.0837</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.1618</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.2727</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.0819</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.0552</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.0663</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.1329</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0.0176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="5" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.1375</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.1654</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.1354</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.3188</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-0.0076</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.1991</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.0266</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.1166</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.1376</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.1654</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.1354</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.3188</v>
-      </c>
-      <c r="M3" s="6">
-        <v>-0.0076</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.1991</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.0266</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.1166</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0.0391</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.1818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.0994</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.129</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.0322</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.2934</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.0991</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.0386</v>
+      </c>
+      <c r="O4" s="7">
+        <v>-0.0074</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.1824</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.0408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.0994</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.129</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.0322</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.2934</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0.0991</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.0386</v>
-      </c>
-      <c r="O4" s="6">
-        <v>-0.0074</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.1824</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0.0385</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.1134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.2911</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.1565</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.2696</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.4984</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.0276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.2945</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.1565</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6">
-        <v>0.2696</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0.4984</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0.0299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.0759</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.1588</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.56</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.2672</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.0514</v>
+      </c>
+      <c r="N6" s="7">
+        <v>-0.1182</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.0284</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.2329</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>-0.0114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.0783</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.1588</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6">
-        <v>0.2672</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.0514</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-0.1182</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.0284</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.2329</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>-0.0002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.0673</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.1064</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="N7" s="7">
+        <v>-0.026</v>
+      </c>
+      <c r="O7" s="7">
+        <v>-0.0094</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.2597</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.0369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.0678</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.1064</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6">
-        <v>-0.026</v>
-      </c>
-      <c r="O7" s="6">
-        <v>-0.0094</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.2597</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0.0373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="5" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.0362</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.0353</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.0289</v>
       </c>
-      <c r="J8" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6">
-        <v>0.0145</v>
+      <c r="J8" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.0142</v>
       </c>
     </row>
   </sheetData>
@@ -1767,830 +1750,1063 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.339</v>
-      </c>
-      <c r="E2" s="2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.3376</v>
+      </c>
+      <c r="E2" s="7">
         <v>-0.1233</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>1.59</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <v>1.3203</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>0.1665</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>0.1065</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>0.235</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="7">
         <v>0.1246</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="7">
         <v>0.179</v>
       </c>
-      <c r="M2" s="2">
-        <v>0.247</v>
+      <c r="M2" s="7">
+        <v>0.245</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.4279</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-0.2667</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.4336</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.2667</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>-0.002</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>0.1403</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>0.9404</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="7">
         <v>0.2934</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="7">
         <v>0.6094</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.1107</v>
+      <c r="M3" s="7">
+        <v>0.0982</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1864</v>
-      </c>
-      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.1874</v>
+      </c>
+      <c r="E4" s="7">
         <v>-0.1687</v>
       </c>
-      <c r="F4" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="G4" s="7">
         <v>0.1395</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>0.9089</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>0.0543</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>-0.0401</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>-0.0431</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="7">
         <v>0.2798</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.0876</v>
+      <c r="M4" s="7">
+        <v>0.097</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.2852</v>
-      </c>
-      <c r="E5" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.2841</v>
+      </c>
+      <c r="E5" s="7">
         <v>-0.2247</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <v>1.56</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>0.4798</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>0.9133</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>0.0812</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>0.2708</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="7">
         <v>0.1464</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="7">
         <v>0.0702</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.0239</v>
+      <c r="M5" s="7">
+        <v>0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1089</v>
-      </c>
-      <c r="E6" s="2">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="E6" s="7">
         <v>-0.0773</v>
       </c>
-      <c r="F6" s="3">
-        <v>1.17</v>
+      <c r="F6" s="8">
+        <v>1.16</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
+        <v>66</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.108</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>0.0054</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>0.1284</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="7">
         <v>0.1408</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="7">
         <v>0.1513</v>
       </c>
-      <c r="M6" s="2">
-        <v>-0.0176</v>
+      <c r="M6" s="7">
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0595</v>
-      </c>
-      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.0588</v>
+      </c>
+      <c r="E7" s="7">
         <v>-0.1588</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
         <v>0.37</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>0.0389</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>0.2183</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>0.1249</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>0.0131</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="7">
         <v>0.1242</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="7">
         <v>0.0971</v>
       </c>
-      <c r="M7" s="2">
-        <v>-0.0352</v>
+      <c r="M7" s="7">
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.2285</v>
-      </c>
-      <c r="E8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.2227</v>
+      </c>
+      <c r="E8" s="7">
         <v>-0.1817</v>
       </c>
-      <c r="F8" s="3">
-        <v>1.06</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="G8" s="7">
         <v>-0.0585</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>0.8146</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>0.2229</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>-0.0758</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
         <v>0.178</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="7">
         <v>0.6381</v>
       </c>
-      <c r="M8" s="2">
-        <v>-0.0873</v>
+      <c r="M8" s="7">
+        <v>-0.1093</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.2556</v>
-      </c>
-      <c r="E9" s="2">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.2504</v>
+      </c>
+      <c r="E9" s="7">
         <v>-0.046</v>
       </c>
-      <c r="F9" s="3">
-        <v>2.68</v>
+      <c r="F9" s="8">
+        <v>2.63</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2">
+        <v>66</v>
+      </c>
+      <c r="K9" s="7">
         <v>0.0202</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="7">
         <v>0.2279</v>
       </c>
-      <c r="M9" s="2">
-        <v>0.1369</v>
+      <c r="M9" s="7">
+        <v>0.1345</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.1107</v>
-      </c>
-      <c r="E10" s="2">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.1119</v>
+      </c>
+      <c r="E10" s="7">
         <v>-0.1756</v>
       </c>
-      <c r="F10" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="8">
+        <v>1.09</v>
+      </c>
+      <c r="G10" s="7">
         <v>0.138</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>0.3016</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>0.0905</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>0.0616</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>-0.0183</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="7">
         <v>0.1849</v>
       </c>
-      <c r="M10" s="2">
-        <v>0.0211</v>
+      <c r="M10" s="7">
+        <v>0.0305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-0.0079</v>
-      </c>
-      <c r="E11" s="2">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-0.007</v>
+      </c>
+      <c r="E11" s="7">
         <v>-0.0529</v>
       </c>
-      <c r="F11" s="3">
-        <v>-0.45</v>
+      <c r="F11" s="8">
+        <v>-0.44</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="2">
+        <v>66</v>
+      </c>
+      <c r="L11" s="7">
         <v>0.0221</v>
       </c>
-      <c r="M11" s="2">
-        <v>-0.0265</v>
+      <c r="M11" s="7">
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.1172</v>
-      </c>
-      <c r="E12" s="2">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.1174</v>
+      </c>
+      <c r="E12" s="7">
         <v>-0.1459</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>0.99</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <v>0.1249</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <v>0.3289</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
         <v>0.0533</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <v>0.0238</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="7">
         <v>0.0395</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="7">
         <v>0.0135</v>
       </c>
-      <c r="M12" s="2">
-        <v>0.007</v>
+      <c r="M12" s="7">
+        <v>0.0116</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1396</v>
-      </c>
-      <c r="E13" s="2">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.1392</v>
+      </c>
+      <c r="E13" s="7">
         <v>-0.1405</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>1.09</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>0.146</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>0.3866</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>0.0541</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>0.1826</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>-0.0886</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="7">
         <v>0.218</v>
       </c>
-      <c r="M13" s="2">
-        <v>0.0295</v>
+      <c r="M13" s="7">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.2292</v>
-      </c>
-      <c r="E14" s="2">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.226</v>
+      </c>
+      <c r="E14" s="7">
         <v>-0.0317</v>
       </c>
-      <c r="F14" s="3">
-        <v>3.15</v>
+      <c r="F14" s="8">
+        <v>3.11</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="2">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7">
         <v>0.2181</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="7">
         <v>0.308</v>
       </c>
-      <c r="M14" s="2">
-        <v>0.0213</v>
+      <c r="M14" s="7">
+        <v>0.0188</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.1692</v>
-      </c>
-      <c r="E15" s="2">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.1689</v>
+      </c>
+      <c r="E15" s="7">
         <v>-0.0609</v>
       </c>
-      <c r="F15" s="3">
-        <v>2.18</v>
+      <c r="F15" s="8">
+        <v>2.19</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="2">
+        <v>66</v>
+      </c>
+      <c r="K15" s="7">
         <v>0.1314</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="7">
         <v>0.2546</v>
       </c>
-      <c r="M15" s="2">
-        <v>0.0187</v>
+      <c r="M15" s="7">
+        <v>0.0211</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.2393</v>
-      </c>
-      <c r="E16" s="2">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.2384</v>
+      </c>
+      <c r="E16" s="7">
         <v>-0.1779</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="8">
         <v>1.39</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>0.0916</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>1.1104</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>-0.0497</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>0.1249</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="7">
         <v>0.1591</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="7">
         <v>0.3767</v>
       </c>
-      <c r="M16" s="2">
-        <v>0.0337</v>
+      <c r="M16" s="7">
+        <v>0.0327</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.2072</v>
-      </c>
-      <c r="E17" s="2">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.2069</v>
+      </c>
+      <c r="E17" s="7">
         <v>-0.0605</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="8">
         <v>2.47</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="7">
         <v>0.2295</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <v>0.5252</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>0.2196</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>0.0413</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="7">
         <v>0.0393</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="7">
         <v>0.1095</v>
       </c>
-      <c r="M17" s="2">
-        <v>0.0408</v>
+      <c r="M17" s="7">
+        <v>0.0426</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.1435</v>
-      </c>
-      <c r="E18" s="2">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.1427</v>
+      </c>
+      <c r="E18" s="7">
         <v>-0.1334</v>
       </c>
-      <c r="F18" s="3">
-        <v>1.26</v>
+      <c r="F18" s="8">
+        <v>1.25</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="2">
+        <v>66</v>
+      </c>
+      <c r="I18" s="7">
         <v>0.1294</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>0.1097</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="7">
         <v>0.2035</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="7">
         <v>0.122</v>
       </c>
-      <c r="M18" s="2">
-        <v>0.022</v>
+      <c r="M18" s="7">
+        <v>0.0216</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.0983</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-0.0416</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.01</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.0945</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-0.0454</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.96</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="2">
+        <v>66</v>
+      </c>
+      <c r="K19" s="7">
         <v>0.01</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="7">
         <v>0.1782</v>
       </c>
-      <c r="M19" s="2">
-        <v>-0.0174</v>
+      <c r="M19" s="7">
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.1039</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-0.1156</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.1093</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.4399</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.0469</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.0285</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-0.0088</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.1653</v>
+      </c>
+      <c r="M20" s="7">
+        <v>-0.0414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1">
+        <v>7.0456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.9572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.8269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.4933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.3183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.4214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.0585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.6233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.4495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.4315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.6625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.7289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.1646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.2129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.0567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.5383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.2616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.0414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.1038</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-0.1156</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.1093</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.4399</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.0469</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.0285</v>
-      </c>
-      <c r="K20" s="2">
-        <v>-0.0088</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.1653</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-0.0439</v>
+      <c r="B27" s="1">
+        <v>1.067</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="simupaipai" sheetId="1" r:id="rId1"/>
     <sheet name="huofuniu" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -100,7 +100,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-05-23</t>
+    <t>2025-05-30</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -974,21 +974,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,61 +1346,72 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Q8"/>
+      <selection activeCell="Q8" sqref="E2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="17" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1432,35 +1437,35 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7">
-        <v>0.1155</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="H2" s="5">
+        <v>0.116</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.0837</v>
       </c>
-      <c r="J2" s="8">
-        <v>1.18</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="K2" s="5">
         <v>0.1618</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>0.2727</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>0.0819</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <v>0.0552</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <v>0.0663</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="5">
         <v>0.1329</v>
       </c>
-      <c r="Q2" s="7">
-        <v>0.0182</v>
+      <c r="Q2" s="5">
+        <v>0.0234</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1485,35 +1490,35 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.1375</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="I3" s="5">
         <v>0.1654</v>
       </c>
-      <c r="J3" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="K3" s="5">
         <v>0.1354</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>0.3188</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>-0.0076</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>0.1991</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>0.0266</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <v>0.1166</v>
       </c>
-      <c r="Q3" s="7">
-        <v>0.0413</v>
+      <c r="Q3" s="5">
+        <v>0.0627</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1538,35 +1543,35 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.0994</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="5">
+        <v>0.0998</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.129</v>
       </c>
-      <c r="J4" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="K4" s="5">
         <v>0.0322</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.2934</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>0.0991</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>0.0386</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>-0.0074</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>0.1824</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0.0408</v>
+      <c r="Q4" s="5">
+        <v>0.0457</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1591,23 +1596,23 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.2911</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="5">
+        <v>0.3089</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.1565</v>
       </c>
-      <c r="J5" s="8">
-        <v>1.23</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="J5" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="O5" s="5">
         <v>0.2696</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>0.4984</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0.0276</v>
+      <c r="Q5" s="5">
+        <v>0.0724</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1632,32 +1637,32 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7">
-        <v>0.0759</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="5">
+        <v>0.0706</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.1588</v>
       </c>
-      <c r="J6" s="8">
-        <v>0.56</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="J6" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L6" s="5">
         <v>0.2672</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>0.0514</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>-0.1182</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>0.0284</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>0.2329</v>
       </c>
-      <c r="Q6" s="7">
-        <v>-0.0114</v>
+      <c r="Q6" s="5">
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1682,26 +1687,26 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7">
-        <v>0.0673</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="5">
+        <v>0.0675</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.1064</v>
       </c>
-      <c r="J7" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="J7" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="5">
         <v>-0.026</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>-0.0094</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>0.2597</v>
       </c>
-      <c r="Q7" s="7">
-        <v>0.0369</v>
+      <c r="Q7" s="5">
+        <v>0.0388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1726,17 +1731,17 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.0353</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="5">
+        <v>0.0346</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.0289</v>
       </c>
-      <c r="J8" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.0142</v>
+      <c r="J8" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.014</v>
       </c>
     </row>
   </sheetData>
@@ -1750,50 +1755,50 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1807,35 +1812,35 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7">
-        <v>0.3376</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
+        <v>0.3379</v>
+      </c>
+      <c r="E2" s="5">
         <v>-0.1233</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>1.59</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>1.3203</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0.1665</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>0.1065</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>0.235</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>0.1246</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>0.179</v>
       </c>
-      <c r="M2" s="7">
-        <v>0.245</v>
+      <c r="M2" s="5">
+        <v>0.254</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1848,35 +1853,35 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.4279</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="E3" s="5">
         <v>-0.2667</v>
       </c>
-      <c r="F3" s="8">
-        <v>1.35</v>
+      <c r="F3" s="6">
+        <v>1.38</v>
       </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>-0.002</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>0.1403</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>0.9404</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>0.2934</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>0.6094</v>
       </c>
-      <c r="M3" s="7">
-        <v>0.0982</v>
+      <c r="M3" s="5">
+        <v>0.1313</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1889,35 +1894,35 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.1874</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="5">
+        <v>0.1935</v>
+      </c>
+      <c r="E4" s="5">
         <v>-0.1687</v>
       </c>
-      <c r="F4" s="8">
-        <v>1.57</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.1395</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>0.9089</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>0.0543</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>-0.0401</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>-0.0431</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.2798</v>
       </c>
-      <c r="M4" s="7">
-        <v>0.097</v>
+      <c r="M4" s="5">
+        <v>0.1368</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1930,35 +1935,35 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.2841</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5">
+        <v>0.2864</v>
+      </c>
+      <c r="E5" s="5">
         <v>-0.2247</v>
       </c>
-      <c r="F5" s="8">
-        <v>1.56</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.4798</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>0.9133</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>0.0812</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>0.2708</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>0.1464</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.0702</v>
       </c>
-      <c r="M5" s="7">
-        <v>0.0218</v>
+      <c r="M5" s="5">
+        <v>0.0414</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1971,35 +1976,35 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.108</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
+        <v>0.1059</v>
+      </c>
+      <c r="E6" s="5">
         <v>-0.0773</v>
       </c>
-      <c r="F6" s="8">
-        <v>1.16</v>
+      <c r="F6" s="6">
+        <v>1.13</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0.108</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>0.0054</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0.1284</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>0.1408</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.1513</v>
       </c>
-      <c r="M6" s="7">
-        <v>-0.0194</v>
+      <c r="M6" s="5">
+        <v>-0.026</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2012,35 +2017,35 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.0588</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="5">
+        <v>0.0602</v>
+      </c>
+      <c r="E7" s="5">
         <v>-0.1588</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.0389</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>0.2183</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>0.1249</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0.0131</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.1242</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.0971</v>
       </c>
-      <c r="M7" s="7">
-        <v>-0.0385</v>
+      <c r="M7" s="5">
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2053,35 +2058,35 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.2227</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="E8" s="5">
         <v>-0.1817</v>
       </c>
-      <c r="F8" s="8">
-        <v>1.03</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="G8" s="5">
         <v>-0.0585</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>0.8146</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>0.2229</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>-0.0758</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>0.178</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.6381</v>
       </c>
-      <c r="M8" s="7">
-        <v>-0.1093</v>
+      <c r="M8" s="5">
+        <v>-0.1216</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2094,14 +2099,14 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.2504</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="5">
+        <v>0.2532</v>
+      </c>
+      <c r="E9" s="5">
         <v>-0.046</v>
       </c>
-      <c r="F9" s="8">
-        <v>2.63</v>
+      <c r="F9" s="6">
+        <v>2.68</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -2115,14 +2120,14 @@
       <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>0.0202</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.2279</v>
       </c>
-      <c r="M9" s="7">
-        <v>0.1345</v>
+      <c r="M9" s="5">
+        <v>0.1433</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2135,35 +2140,35 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.1119</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="5">
+        <v>0.1137</v>
+      </c>
+      <c r="E10" s="5">
         <v>-0.1756</v>
       </c>
-      <c r="F10" s="8">
-        <v>1.09</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="6">
+        <v>1.11</v>
+      </c>
+      <c r="G10" s="5">
         <v>0.138</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>0.3016</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>0.0905</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>0.0616</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>-0.0183</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>0.1849</v>
       </c>
-      <c r="M10" s="7">
-        <v>0.0305</v>
+      <c r="M10" s="5">
+        <v>0.0444</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2176,14 +2181,14 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
-        <v>-0.007</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-0.0529</v>
-      </c>
-      <c r="F11" s="8">
-        <v>-0.44</v>
+      <c r="D11" s="5">
+        <v>-0.0166</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.0552</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.6</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
@@ -2200,11 +2205,11 @@
       <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>0.0221</v>
       </c>
-      <c r="M11" s="7">
-        <v>-0.0261</v>
+      <c r="M11" s="5">
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2217,34 +2222,34 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
-        <v>0.1174</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
+        <v>0.1172</v>
+      </c>
+      <c r="E12" s="5">
         <v>-0.1459</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>0.99</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>0.1249</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>0.3289</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>0.0533</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>0.0238</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>0.0395</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>0.0135</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>0.0116</v>
       </c>
     </row>
@@ -2258,35 +2263,35 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7">
-        <v>0.1392</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="5">
+        <v>0.1391</v>
+      </c>
+      <c r="E13" s="5">
         <v>-0.1405</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>1.09</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>0.146</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>0.3866</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>0.0541</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>0.1826</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>-0.0886</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>0.218</v>
       </c>
-      <c r="M13" s="7">
-        <v>0.03</v>
+      <c r="M13" s="5">
+        <v>0.0317</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2299,13 +2304,13 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7">
-        <v>0.226</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="5">
+        <v>0.2254</v>
+      </c>
+      <c r="E14" s="5">
         <v>-0.0317</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>3.11</v>
       </c>
       <c r="G14" t="s">
@@ -2320,14 +2325,14 @@
       <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>0.2181</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>0.308</v>
       </c>
-      <c r="M14" s="7">
-        <v>0.0188</v>
+      <c r="M14" s="5">
+        <v>0.0217</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2340,14 +2345,14 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7">
-        <v>0.1689</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="5">
+        <v>0.1662</v>
+      </c>
+      <c r="E15" s="5">
         <v>-0.0609</v>
       </c>
-      <c r="F15" s="8">
-        <v>2.19</v>
+      <c r="F15" s="6">
+        <v>2.15</v>
       </c>
       <c r="G15" t="s">
         <v>66</v>
@@ -2361,14 +2366,14 @@
       <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>0.1314</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.2546</v>
       </c>
-      <c r="M15" s="7">
-        <v>0.0211</v>
+      <c r="M15" s="5">
+        <v>0.0185</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2381,35 +2386,35 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7">
-        <v>0.2384</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="5">
+        <v>0.2376</v>
+      </c>
+      <c r="E16" s="5">
         <v>-0.1779</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>1.39</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>0.0916</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1.1104</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>-0.0497</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.1249</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>0.1591</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.3767</v>
       </c>
-      <c r="M16" s="7">
-        <v>0.0327</v>
+      <c r="M16" s="5">
+        <v>0.0322</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2422,35 +2427,35 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
-        <v>0.2069</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="5">
+        <v>0.2082</v>
+      </c>
+      <c r="E17" s="5">
         <v>-0.0605</v>
       </c>
-      <c r="F17" s="8">
-        <v>2.47</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <v>2.49</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.2295</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>0.5252</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>0.2196</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>0.0413</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.0393</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>0.1095</v>
       </c>
-      <c r="M17" s="7">
-        <v>0.0426</v>
+      <c r="M17" s="5">
+        <v>0.0542</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2463,14 +2468,14 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="7">
-        <v>0.1427</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
+        <v>0.1435</v>
+      </c>
+      <c r="E18" s="5">
         <v>-0.1334</v>
       </c>
-      <c r="F18" s="8">
-        <v>1.25</v>
+      <c r="F18" s="6">
+        <v>1.26</v>
       </c>
       <c r="G18" t="s">
         <v>66</v>
@@ -2478,20 +2483,20 @@
       <c r="H18" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>0.1294</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>0.1097</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>0.2035</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.122</v>
       </c>
-      <c r="M18" s="7">
-        <v>0.0216</v>
+      <c r="M18" s="5">
+        <v>0.0272</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2504,14 +2509,14 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7">
-        <v>0.0945</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>0.0946</v>
+      </c>
+      <c r="E19" s="5">
         <v>-0.0454</v>
       </c>
-      <c r="F19" s="8">
-        <v>0.96</v>
+      <c r="F19" s="6">
+        <v>0.97</v>
       </c>
       <c r="G19" t="s">
         <v>66</v>
@@ -2525,14 +2530,14 @@
       <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>0.01</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.1782</v>
       </c>
-      <c r="M19" s="7">
-        <v>-0.0213</v>
+      <c r="M19" s="5">
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2545,35 +2550,35 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7">
-        <v>0.1039</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="5">
+        <v>0.1046</v>
+      </c>
+      <c r="E20" s="5">
         <v>-0.1156</v>
       </c>
-      <c r="F20" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="G20" s="5">
         <v>0.1093</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>0.4399</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="5">
         <v>0.0469</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>0.0285</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>-0.0088</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>0.1653</v>
       </c>
-      <c r="M20" s="7">
-        <v>-0.0414</v>
+      <c r="M20" s="5">
+        <v>-0.0346</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2592,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
@@ -2749,28 +2754,28 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>2.0567</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>2.899</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>2.139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1">
@@ -2778,7 +2783,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1">
@@ -2786,7 +2791,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1">
@@ -2794,7 +2799,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>管理人</t>
   </si>
@@ -100,7 +100,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-05-30</t>
+    <t>2025-06-13</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -151,6 +151,9 @@
     <t>2022-08-25</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>闻道资产</t>
   </si>
   <si>
@@ -211,9 +214,24 @@
     <t>净值结束日期</t>
   </si>
   <si>
+    <t>单位净值</t>
+  </si>
+  <si>
+    <t>累计净值</t>
+  </si>
+  <si>
+    <t>复权净值</t>
+  </si>
+  <si>
+    <t>总收益率</t>
+  </si>
+  <si>
     <t>年化收益率</t>
   </si>
   <si>
+    <t>年化波动率</t>
+  </si>
+  <si>
     <t>夏普比率</t>
   </si>
   <si>
@@ -229,9 +247,6 @@
     <t>2020-11-06</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>瑞达期货-瑞智无忧共赢7号</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
   </si>
   <si>
     <t>2018-06-08</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -1346,21 +1364,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="E2:Q8"/>
+      <selection activeCell="E2" sqref="E2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="17" width="9.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
@@ -1438,12 +1445,12 @@
         <v>23</v>
       </c>
       <c r="H2" s="5">
-        <v>0.116</v>
+        <v>0.1159</v>
       </c>
       <c r="I2" s="5">
         <v>0.0837</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>1.19</v>
       </c>
       <c r="K2" s="5">
@@ -1465,7 +1472,7 @@
         <v>0.1329</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.0234</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1491,13 +1498,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="5">
-        <v>0.14</v>
+        <v>0.1392</v>
       </c>
       <c r="I3" s="5">
         <v>0.1654</v>
       </c>
-      <c r="J3" s="6">
-        <v>0.85</v>
+      <c r="J3">
+        <v>0.84</v>
       </c>
       <c r="K3" s="5">
         <v>0.1354</v>
@@ -1518,7 +1525,7 @@
         <v>0.1166</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.0627</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1544,12 +1551,12 @@
         <v>23</v>
       </c>
       <c r="H4" s="5">
-        <v>0.0998</v>
+        <v>0.0995</v>
       </c>
       <c r="I4" s="5">
         <v>0.129</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>0.88</v>
       </c>
       <c r="K4" s="5">
@@ -1571,7 +1578,7 @@
         <v>0.1824</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.0457</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1597,13 +1604,25 @@
         <v>23</v>
       </c>
       <c r="H5" s="5">
-        <v>0.3089</v>
+        <v>0.3079</v>
       </c>
       <c r="I5" s="5">
         <v>0.1565</v>
       </c>
-      <c r="J5" s="6">
-        <v>1.33</v>
+      <c r="J5">
+        <v>1.32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
       </c>
       <c r="O5" s="5">
         <v>0.2696</v>
@@ -1612,39 +1631,42 @@
         <v>0.4984</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.0724</v>
+        <v>0.0812</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="5">
-        <v>0.0706</v>
+        <v>0.0678</v>
       </c>
       <c r="I6" s="5">
         <v>0.1588</v>
       </c>
-      <c r="J6" s="6">
-        <v>0.52</v>
+      <c r="J6">
+        <v>0.49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
       <c r="L6" s="5">
         <v>0.2672</v>
@@ -1662,39 +1684,48 @@
         <v>0.2329</v>
       </c>
       <c r="Q6" s="5">
-        <v>-0.0386</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5">
-        <v>0.0675</v>
+        <v>0.069</v>
       </c>
       <c r="I7" s="5">
         <v>0.1064</v>
       </c>
-      <c r="J7" s="6">
-        <v>0.8</v>
+      <c r="J7">
+        <v>0.82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
       </c>
       <c r="N7" s="5">
         <v>-0.026</v>
@@ -1706,42 +1737,60 @@
         <v>0.2597</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.0388</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="5">
-        <v>0.0346</v>
+        <v>0.0325</v>
       </c>
       <c r="I8" s="5">
         <v>0.0289</v>
       </c>
-      <c r="J8" s="6">
-        <v>0.82</v>
+      <c r="J8">
+        <v>0.73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.014</v>
+        <v>0.0129</v>
       </c>
     </row>
   </sheetData>
@@ -1753,832 +1802,1132 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:R30"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.3379</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2">
+        <v>1.255</v>
+      </c>
+      <c r="E2">
+        <v>3.817</v>
+      </c>
+      <c r="F2">
+        <v>7.0738</v>
+      </c>
+      <c r="G2" s="5">
+        <v>6.0738</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.3351</v>
+      </c>
+      <c r="I2" s="5">
         <v>-0.1233</v>
       </c>
-      <c r="F2" s="6">
-        <v>1.59</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
+        <v>0.1993</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="L2" s="5">
         <v>1.3203</v>
       </c>
-      <c r="H2" s="5">
+      <c r="M2" s="5">
         <v>0.1665</v>
       </c>
-      <c r="I2" s="5">
+      <c r="N2" s="5">
         <v>0.1065</v>
       </c>
-      <c r="J2" s="5">
+      <c r="O2" s="5">
         <v>0.235</v>
       </c>
-      <c r="K2" s="5">
+      <c r="P2" s="5">
         <v>0.1246</v>
       </c>
-      <c r="L2" s="5">
+      <c r="Q2" s="5">
         <v>0.179</v>
       </c>
-      <c r="M2" s="5">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="R2" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.435</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3">
+        <v>1.386</v>
+      </c>
+      <c r="E3">
+        <v>3.359</v>
+      </c>
+      <c r="F3">
+        <v>5.6881</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.6881</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.4589</v>
+      </c>
+      <c r="I3" s="5">
         <v>-0.2667</v>
       </c>
-      <c r="F3" s="6">
-        <v>1.38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="J3" s="5">
+        <v>0.3014</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5">
         <v>-0.002</v>
       </c>
-      <c r="I3" s="5">
+      <c r="N3" s="5">
         <v>0.1403</v>
       </c>
-      <c r="J3" s="5">
+      <c r="O3" s="5">
         <v>0.9404</v>
       </c>
-      <c r="K3" s="5">
+      <c r="P3" s="5">
         <v>0.2934</v>
       </c>
-      <c r="L3" s="5">
+      <c r="Q3" s="5">
         <v>0.6094</v>
       </c>
-      <c r="M3" s="5">
-        <v>0.1313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="R3" s="5">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.1935</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4">
+        <v>1.2775</v>
+      </c>
+      <c r="E4">
+        <v>2.4105</v>
+      </c>
+      <c r="F4">
+        <v>3.049</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.049</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.1913</v>
+      </c>
+      <c r="I4" s="5">
         <v>-0.1687</v>
       </c>
-      <c r="F4" s="6">
-        <v>1.62</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="J4" s="5">
+        <v>0.1069</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L4" s="5">
         <v>0.1395</v>
       </c>
-      <c r="H4" s="5">
+      <c r="M4" s="5">
         <v>0.9089</v>
       </c>
-      <c r="I4" s="5">
+      <c r="N4" s="5">
         <v>0.0543</v>
       </c>
-      <c r="J4" s="5">
+      <c r="O4" s="5">
         <v>-0.0401</v>
       </c>
-      <c r="K4" s="5">
+      <c r="P4" s="5">
         <v>-0.0431</v>
       </c>
-      <c r="L4" s="5">
+      <c r="Q4" s="5">
         <v>0.2798</v>
       </c>
-      <c r="M4" s="5">
-        <v>0.1368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="R4" s="5">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.2864</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5">
+        <v>6.91</v>
+      </c>
+      <c r="E5">
+        <v>7.555</v>
+      </c>
+      <c r="F5">
+        <v>7.9465</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.9465</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.2843</v>
+      </c>
+      <c r="I5" s="5">
         <v>-0.2247</v>
       </c>
-      <c r="F5" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="J5" s="5">
+        <v>0.1691</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="L5" s="5">
         <v>0.4798</v>
       </c>
-      <c r="H5" s="5">
+      <c r="M5" s="5">
         <v>0.9133</v>
       </c>
-      <c r="I5" s="5">
+      <c r="N5" s="5">
         <v>0.0812</v>
       </c>
-      <c r="J5" s="5">
+      <c r="O5" s="5">
         <v>0.2708</v>
       </c>
-      <c r="K5" s="5">
+      <c r="P5" s="5">
         <v>0.1464</v>
       </c>
-      <c r="L5" s="5">
+      <c r="Q5" s="5">
         <v>0.0702</v>
       </c>
-      <c r="M5" s="5">
-        <v>0.0414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="R5" s="5">
+        <v>0.0374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.1059</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6">
+        <v>1.605</v>
+      </c>
+      <c r="E6">
+        <v>1.605</v>
+      </c>
+      <c r="F6">
+        <v>1.605</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.605</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1046</v>
+      </c>
+      <c r="I6" s="5">
         <v>-0.0773</v>
       </c>
-      <c r="F6" s="6">
-        <v>1.13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="J6" s="5">
+        <v>0.0755</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.108</v>
       </c>
-      <c r="I6" s="5">
+      <c r="N6" s="5">
         <v>0.0054</v>
       </c>
-      <c r="J6" s="5">
+      <c r="O6" s="5">
         <v>0.1284</v>
       </c>
-      <c r="K6" s="5">
+      <c r="P6" s="5">
         <v>0.1408</v>
       </c>
-      <c r="L6" s="5">
+      <c r="Q6" s="5">
         <v>0.1513</v>
       </c>
-      <c r="M6" s="5">
-        <v>-0.026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="R6" s="5">
+        <v>-0.0279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5">
-        <v>0.0602</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7">
+        <v>1.183</v>
+      </c>
+      <c r="E7">
+        <v>1.455</v>
+      </c>
+      <c r="F7">
+        <v>1.5048</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.5048</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.0594</v>
+      </c>
+      <c r="I7" s="5">
         <v>-0.1588</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="J7" s="5">
+        <v>0.1057</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="L7" s="5">
         <v>0.0389</v>
       </c>
-      <c r="H7" s="5">
+      <c r="M7" s="5">
         <v>0.2183</v>
       </c>
-      <c r="I7" s="5">
+      <c r="N7" s="5">
         <v>0.1249</v>
       </c>
-      <c r="J7" s="5">
+      <c r="O7" s="5">
         <v>0.0131</v>
       </c>
-      <c r="K7" s="5">
+      <c r="P7" s="5">
         <v>0.1242</v>
       </c>
-      <c r="L7" s="5">
+      <c r="Q7" s="5">
         <v>0.0971</v>
       </c>
-      <c r="M7" s="5">
-        <v>-0.0287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="R7" s="5">
+        <v>-0.0311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.219</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>3.2297</v>
+      </c>
+      <c r="E8">
+        <v>3.2297</v>
+      </c>
+      <c r="F8">
+        <v>3.2297</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2148</v>
+      </c>
+      <c r="I8" s="5">
         <v>-0.1817</v>
       </c>
-      <c r="F8" s="6">
-        <v>1.01</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="J8" s="5">
+        <v>0.196</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="L8" s="5">
         <v>-0.0585</v>
       </c>
-      <c r="H8" s="5">
+      <c r="M8" s="5">
         <v>0.8146</v>
       </c>
-      <c r="I8" s="5">
+      <c r="N8" s="5">
         <v>0.2229</v>
       </c>
-      <c r="J8" s="5">
+      <c r="O8" s="5">
         <v>-0.0758</v>
       </c>
-      <c r="K8" s="5">
+      <c r="P8" s="5">
         <v>0.178</v>
       </c>
-      <c r="L8" s="5">
+      <c r="Q8" s="5">
         <v>0.6381</v>
       </c>
-      <c r="M8" s="5">
-        <v>-0.1216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="R8" s="5">
+        <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5">
-        <v>0.2532</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9">
+        <v>1.4337</v>
+      </c>
+      <c r="E9">
+        <v>1.4337</v>
+      </c>
+      <c r="F9">
+        <v>1.4337</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.4334</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2472</v>
+      </c>
+      <c r="I9" s="5">
         <v>-0.046</v>
       </c>
-      <c r="F9" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="J9" s="5">
+        <v>0.0862</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2.63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="5">
         <v>0.0202</v>
       </c>
-      <c r="L9" s="5">
+      <c r="Q9" s="5">
         <v>0.2279</v>
       </c>
-      <c r="M9" s="5">
-        <v>0.1433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="R9" s="5">
+        <v>0.1443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
+        <v>2.0951</v>
+      </c>
+      <c r="E10">
+        <v>2.0951</v>
+      </c>
+      <c r="F10">
+        <v>2.0951</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.0951</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.1137</v>
       </c>
-      <c r="E10" s="5">
+      <c r="I10" s="5">
         <v>-0.1756</v>
       </c>
-      <c r="F10" s="6">
+      <c r="J10" s="5">
+        <v>0.0845</v>
+      </c>
+      <c r="K10" s="6">
         <v>1.11</v>
       </c>
-      <c r="G10" s="5">
+      <c r="L10" s="5">
         <v>0.138</v>
       </c>
-      <c r="H10" s="5">
+      <c r="M10" s="5">
         <v>0.3016</v>
       </c>
-      <c r="I10" s="5">
+      <c r="N10" s="5">
         <v>0.0905</v>
       </c>
-      <c r="J10" s="5">
+      <c r="O10" s="5">
         <v>0.0616</v>
       </c>
-      <c r="K10" s="5">
+      <c r="P10" s="5">
         <v>-0.0183</v>
       </c>
-      <c r="L10" s="5">
+      <c r="Q10" s="5">
         <v>0.1849</v>
       </c>
-      <c r="M10" s="5">
-        <v>0.0444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="R10" s="5">
+        <v>0.0488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
-        <v>-0.0166</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-0.0552</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="D11">
+        <v>0.9815</v>
+      </c>
+      <c r="E11">
+        <v>0.9815</v>
+      </c>
+      <c r="F11">
+        <v>0.9815</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-0.0185</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-0.026</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-0.0622</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.0593</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-0.78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="5">
         <v>0.0221</v>
       </c>
-      <c r="M11" s="5">
-        <v>-0.0326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="R11" s="5">
+        <v>-0.0397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.1172</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12">
+        <v>2.904</v>
+      </c>
+      <c r="E12">
+        <v>2.904</v>
+      </c>
+      <c r="F12">
+        <v>2.904</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.904</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.1173</v>
+      </c>
+      <c r="I12" s="5">
         <v>-0.1459</v>
       </c>
-      <c r="F12" s="6">
+      <c r="J12" s="5">
+        <v>0.0982</v>
+      </c>
+      <c r="K12" s="6">
         <v>0.99</v>
       </c>
-      <c r="G12" s="5">
+      <c r="L12" s="5">
         <v>0.1249</v>
       </c>
-      <c r="H12" s="5">
+      <c r="M12" s="5">
         <v>0.3289</v>
       </c>
-      <c r="I12" s="5">
+      <c r="N12" s="5">
         <v>0.0533</v>
       </c>
-      <c r="J12" s="5">
+      <c r="O12" s="5">
         <v>0.0238</v>
       </c>
-      <c r="K12" s="5">
+      <c r="P12" s="5">
         <v>0.0395</v>
       </c>
-      <c r="L12" s="5">
+      <c r="Q12" s="5">
         <v>0.0135</v>
       </c>
-      <c r="M12" s="5">
-        <v>0.0116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="R12" s="5">
+        <v>0.0172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5">
-        <v>0.1391</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13">
+        <v>1.862</v>
+      </c>
+      <c r="E13">
+        <v>2.212</v>
+      </c>
+      <c r="F13">
+        <v>2.2759</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.2759</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.1388</v>
+      </c>
+      <c r="I13" s="5">
         <v>-0.1405</v>
       </c>
-      <c r="F13" s="6">
+      <c r="J13" s="5">
+        <v>0.1087</v>
+      </c>
+      <c r="K13" s="6">
         <v>1.09</v>
       </c>
-      <c r="G13" s="5">
+      <c r="L13" s="5">
         <v>0.146</v>
       </c>
-      <c r="H13" s="5">
+      <c r="M13" s="5">
         <v>0.3866</v>
       </c>
-      <c r="I13" s="5">
+      <c r="N13" s="5">
         <v>0.0541</v>
       </c>
-      <c r="J13" s="5">
+      <c r="O13" s="5">
         <v>0.1826</v>
       </c>
-      <c r="K13" s="5">
+      <c r="P13" s="5">
         <v>-0.0886</v>
       </c>
-      <c r="L13" s="5">
+      <c r="Q13" s="5">
         <v>0.218</v>
       </c>
-      <c r="M13" s="5">
-        <v>0.0317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="R13" s="5">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.2254</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14">
+        <v>1.6493</v>
+      </c>
+      <c r="E14">
+        <v>1.6493</v>
+      </c>
+      <c r="F14">
+        <v>1.6493</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.6493</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.2281</v>
+      </c>
+      <c r="I14" s="5">
         <v>-0.0317</v>
       </c>
-      <c r="F14" s="6">
-        <v>3.11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="5">
+        <v>0.0656</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3.17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="5">
         <v>0.2181</v>
       </c>
-      <c r="L14" s="5">
+      <c r="Q14" s="5">
         <v>0.308</v>
       </c>
-      <c r="M14" s="5">
-        <v>0.0217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="R14" s="5">
+        <v>0.0351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5">
-        <v>0.1662</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15">
+        <v>1.3872</v>
+      </c>
+      <c r="E15">
+        <v>1.4581</v>
+      </c>
+      <c r="F15">
+        <v>1.4675</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.4674</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.1705</v>
+      </c>
+      <c r="I15" s="5">
         <v>-0.0609</v>
       </c>
-      <c r="F15" s="6">
-        <v>2.15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="J15" s="5">
+        <v>0.0679</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2.22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="5">
         <v>0.1314</v>
       </c>
-      <c r="L15" s="5">
+      <c r="Q15" s="5">
         <v>0.2546</v>
       </c>
-      <c r="M15" s="5">
-        <v>0.0185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="R15" s="5">
+        <v>0.0337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.2376</v>
-      </c>
-      <c r="E16" s="5">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>2.004</v>
+      </c>
+      <c r="E16">
+        <v>3.277</v>
+      </c>
+      <c r="F16">
+        <v>4.4649</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.4649</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.2373</v>
+      </c>
+      <c r="I16" s="5">
         <v>-0.1779</v>
       </c>
-      <c r="F16" s="6">
+      <c r="J16" s="5">
+        <v>0.1564</v>
+      </c>
+      <c r="K16" s="6">
         <v>1.39</v>
       </c>
-      <c r="G16" s="5">
+      <c r="L16" s="5">
         <v>0.0916</v>
       </c>
-      <c r="H16" s="5">
+      <c r="M16" s="5">
         <v>1.1104</v>
       </c>
-      <c r="I16" s="5">
+      <c r="N16" s="5">
         <v>-0.0497</v>
       </c>
-      <c r="J16" s="5">
+      <c r="O16" s="5">
         <v>0.1249</v>
       </c>
-      <c r="K16" s="5">
+      <c r="P16" s="5">
         <v>0.1591</v>
       </c>
-      <c r="L16" s="5">
+      <c r="Q16" s="5">
         <v>0.3767</v>
       </c>
-      <c r="M16" s="5">
-        <v>0.0322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="R16" s="5">
+        <v>0.0405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5">
-        <v>0.2082</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17">
+        <v>1.0365</v>
+      </c>
+      <c r="E17">
+        <v>2.49</v>
+      </c>
+      <c r="F17">
+        <v>3.7018</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.7018</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.2068</v>
+      </c>
+      <c r="I17" s="5">
         <v>-0.0605</v>
       </c>
-      <c r="F17" s="6">
-        <v>2.49</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="J17" s="5">
+        <v>0.0754</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="L17" s="5">
         <v>0.2295</v>
       </c>
-      <c r="H17" s="5">
+      <c r="M17" s="5">
         <v>0.5252</v>
       </c>
-      <c r="I17" s="5">
+      <c r="N17" s="5">
         <v>0.2196</v>
       </c>
-      <c r="J17" s="5">
+      <c r="O17" s="5">
         <v>0.0413</v>
       </c>
-      <c r="K17" s="5">
+      <c r="P17" s="5">
         <v>0.0393</v>
       </c>
-      <c r="L17" s="5">
+      <c r="Q17" s="5">
         <v>0.1095</v>
       </c>
-      <c r="M17" s="5">
-        <v>0.0542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="R17" s="5">
+        <v>0.0538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.1435</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18">
+        <v>1.1415</v>
+      </c>
+      <c r="E18">
+        <v>1.6048</v>
+      </c>
+      <c r="F18">
+        <v>1.7327</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.7327</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.1412</v>
+      </c>
+      <c r="I18" s="5">
         <v>-0.1334</v>
       </c>
-      <c r="F18" s="6">
-        <v>1.26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
+        <v>0.0975</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="5">
         <v>0.1294</v>
       </c>
-      <c r="J18" s="5">
+      <c r="O18" s="5">
         <v>0.1097</v>
       </c>
-      <c r="K18" s="5">
+      <c r="P18" s="5">
         <v>0.2035</v>
       </c>
-      <c r="L18" s="5">
+      <c r="Q18" s="5">
         <v>0.122</v>
       </c>
-      <c r="M18" s="5">
-        <v>0.0272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="R18" s="5">
+        <v>0.0239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5">
-        <v>0.0946</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19">
+        <v>0.9692</v>
+      </c>
+      <c r="E19">
+        <v>1.1763</v>
+      </c>
+      <c r="F19">
+        <v>1.1714</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.1714</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.0949</v>
+      </c>
+      <c r="I19" s="5">
         <v>-0.0454</v>
       </c>
-      <c r="F19" s="6">
-        <v>0.97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="J19" s="5">
+        <v>0.0761</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="5">
         <v>0.01</v>
       </c>
-      <c r="L19" s="5">
+      <c r="Q19" s="5">
         <v>0.1782</v>
       </c>
-      <c r="M19" s="5">
-        <v>-0.0195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="R19" s="5">
+        <v>-0.0156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5">
-        <v>0.1046</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20">
+        <v>1.135</v>
+      </c>
+      <c r="E20">
+        <v>2.135</v>
+      </c>
+      <c r="F20">
+        <v>2.2129</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.2129</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.1031</v>
+      </c>
+      <c r="I20" s="5">
         <v>-0.1156</v>
       </c>
-      <c r="F20" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="J20" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="L20" s="5">
         <v>0.1093</v>
       </c>
-      <c r="H20" s="5">
+      <c r="M20" s="5">
         <v>0.4399</v>
       </c>
-      <c r="I20" s="5">
+      <c r="N20" s="5">
         <v>0.0469</v>
       </c>
-      <c r="J20" s="5">
+      <c r="O20" s="5">
         <v>0.0285</v>
       </c>
-      <c r="K20" s="5">
+      <c r="P20" s="5">
         <v>-0.0088</v>
       </c>
-      <c r="L20" s="5">
+      <c r="Q20" s="5">
         <v>0.1653</v>
       </c>
-      <c r="M20" s="5">
-        <v>-0.0346</v>
+      <c r="R20" s="5">
+        <v>-0.0414</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2949,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>7.0456</v>
@@ -2608,7 +2957,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>5.0479</v>
@@ -2616,7 +2965,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>2.9572</v>
@@ -2624,7 +2973,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1">
         <v>7.8269</v>
@@ -2632,7 +2981,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>1.619</v>
@@ -2640,7 +2989,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>1.4933</v>
@@ -2648,7 +2997,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>3.3183</v>
@@ -2656,7 +3005,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1.4214</v>
@@ -2664,7 +3013,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>2.0585</v>
@@ -2672,7 +3021,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1">
         <v>0.9954</v>
@@ -2680,7 +3029,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>2.888</v>
@@ -2688,7 +3037,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>2.2649</v>
@@ -2696,7 +3045,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1">
         <v>1.6233</v>
@@ -2704,7 +3053,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>1.4495</v>
@@ -2712,7 +3061,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1">
         <v>4.4315</v>
@@ -2720,7 +3069,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>3.6625</v>
@@ -2728,7 +3077,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
         <v>1.7289</v>
@@ -2736,7 +3085,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1">
         <v>1.1646</v>
@@ -2744,7 +3093,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1">
         <v>2.2129</v>
@@ -2784,7 +3133,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>1.5383</v>
@@ -2792,7 +3141,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>1.2616</v>
@@ -2800,7 +3149,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>1.0414</v>
@@ -2808,7 +3157,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1">
         <v>1.067</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="simupaipai" sheetId="1" r:id="rId1"/>
     <sheet name="huofuniu" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
   <si>
     <t>管理人</t>
   </si>
@@ -100,7 +99,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-06-13</t>
+    <t>2025-06-20</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -151,102 +150,87 @@
     <t>2022-08-25</t>
   </si>
   <si>
+    <t>闻道资产</t>
+  </si>
+  <si>
+    <t>5~10亿</t>
+  </si>
+  <si>
+    <t>王海波</t>
+  </si>
+  <si>
+    <t>SGT646</t>
+  </si>
+  <si>
+    <t>闻道稳健一号</t>
+  </si>
+  <si>
+    <t>2019-07-05</t>
+  </si>
+  <si>
+    <t>金和基金</t>
+  </si>
+  <si>
+    <t>朱朋飞</t>
+  </si>
+  <si>
+    <t>STA933</t>
+  </si>
+  <si>
+    <t>金和和善对冲1号</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>前海博普资产</t>
+  </si>
+  <si>
+    <t>50~100亿</t>
+  </si>
+  <si>
+    <t>袁豪</t>
+  </si>
+  <si>
+    <t>SAHS76</t>
+  </si>
+  <si>
+    <t>博普安兴私享一号B类份额</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>基金产品</t>
+  </si>
+  <si>
+    <t>净值起始日期</t>
+  </si>
+  <si>
+    <t>净值结束日期</t>
+  </si>
+  <si>
+    <t>年化收益率</t>
+  </si>
+  <si>
+    <t>夏普比率</t>
+  </si>
+  <si>
+    <t>草本优益1号</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>草本致远1号</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>闻道资产</t>
-  </si>
-  <si>
-    <t>5~10亿</t>
-  </si>
-  <si>
-    <t>王海波</t>
-  </si>
-  <si>
-    <t>SGT646</t>
-  </si>
-  <si>
-    <t>闻道稳健一号</t>
-  </si>
-  <si>
-    <t>2019-07-05</t>
-  </si>
-  <si>
-    <t>金和基金</t>
-  </si>
-  <si>
-    <t>朱朋飞</t>
-  </si>
-  <si>
-    <t>STA933</t>
-  </si>
-  <si>
-    <t>金和和善对冲1号</t>
-  </si>
-  <si>
-    <t>2021-10-28</t>
-  </si>
-  <si>
-    <t>前海博普资产</t>
-  </si>
-  <si>
-    <t>50~100亿</t>
-  </si>
-  <si>
-    <t>袁豪</t>
-  </si>
-  <si>
-    <t>SAHS76</t>
-  </si>
-  <si>
-    <t>博普安兴私享一号B类份额</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>基金产品</t>
-  </si>
-  <si>
-    <t>净值起始日期</t>
-  </si>
-  <si>
-    <t>净值结束日期</t>
-  </si>
-  <si>
-    <t>单位净值</t>
-  </si>
-  <si>
-    <t>累计净值</t>
-  </si>
-  <si>
-    <t>复权净值</t>
-  </si>
-  <si>
-    <t>总收益率</t>
-  </si>
-  <si>
-    <t>年化收益率</t>
-  </si>
-  <si>
-    <t>年化波动率</t>
-  </si>
-  <si>
-    <t>夏普比率</t>
-  </si>
-  <si>
-    <t>草本优益1号</t>
-  </si>
-  <si>
-    <t>2018-09-07</t>
-  </si>
-  <si>
-    <t>草本致远1号</t>
-  </si>
-  <si>
-    <t>2020-11-06</t>
-  </si>
-  <si>
     <t>瑞达期货-瑞智无忧共赢7号</t>
   </si>
   <si>
@@ -322,7 +306,7 @@
     <t>2018-06-08</t>
   </si>
   <si>
-    <t>2025-06-16</t>
+    <t>2025-06-23</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -347,21 +331,17 @@
   </si>
   <si>
     <t>2017-05-12</t>
-  </si>
-  <si>
-    <t>铭跃行远均衡专享八号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -523,18 +503,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -868,7 +842,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -892,16 +866,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
@@ -910,99 +884,90 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1370,55 +1335,55 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1444,35 +1409,35 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.1159</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="2">
+        <v>0.1164</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.0837</v>
       </c>
-      <c r="J2">
-        <v>1.19</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.1618</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>0.2727</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>0.0819</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="2">
         <v>0.0552</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="2">
         <v>0.0663</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="2">
         <v>0.1329</v>
       </c>
-      <c r="Q2" s="5">
-        <v>0.027</v>
+      <c r="Q2" s="2">
+        <v>0.0324</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1497,35 +1462,35 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5">
-        <v>0.1392</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="2">
+        <v>0.1406</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.1654</v>
       </c>
-      <c r="J3">
-        <v>0.84</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="J3" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.1354</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>0.3188</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="2">
         <v>-0.0076</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="2">
         <v>0.1991</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="2">
         <v>0.0266</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="2">
         <v>0.1166</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0.0619</v>
+      <c r="Q3" s="2">
+        <v>0.0753</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1550,35 +1515,35 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.0995</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.129</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.88</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>0.0322</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>0.2934</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>0.0991</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="2">
         <v>0.0386</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>-0.0074</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="2">
         <v>0.1824</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0.047</v>
+      <c r="Q4" s="2">
+        <v>0.0528</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1603,194 +1568,152 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5">
-        <v>0.3079</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="2">
+        <v>0.3011</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.1565</v>
       </c>
-      <c r="J5">
-        <v>1.32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="J5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="O5" s="2">
         <v>0.2696</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <v>0.4984</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0.0812</v>
+      <c r="Q5" s="2">
+        <v>0.071</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5">
-        <v>0.0678</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="2">
+        <v>0.0672</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.1588</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.49</v>
       </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>0.2672</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>0.0514</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="2">
         <v>-0.1182</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <v>0.0284</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="2">
         <v>0.2329</v>
       </c>
-      <c r="Q6" s="5">
-        <v>-0.0508</v>
+      <c r="Q6" s="2">
+        <v>-0.0531</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5">
-        <v>0.069</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="2">
+        <v>0.0677</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.1064</v>
       </c>
-      <c r="J7">
-        <v>0.82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="J7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="2">
         <v>-0.026</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <v>-0.0094</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="2">
         <v>0.2597</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0.0469</v>
+      <c r="Q7" s="2">
+        <v>0.0434</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="5">
-        <v>0.0325</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="2">
+        <v>0.0317</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.0289</v>
       </c>
-      <c r="J8">
-        <v>0.73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0.0129</v>
+      <c r="J8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.0126</v>
       </c>
     </row>
   </sheetData>
@@ -1802,1365 +1725,832 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="A2" sqref="A2:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>1.255</v>
-      </c>
-      <c r="E2">
-        <v>3.817</v>
-      </c>
-      <c r="F2">
-        <v>7.0738</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6.0738</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.3351</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="D2" s="2">
+        <v>0.333</v>
+      </c>
+      <c r="E2" s="2">
         <v>-0.1233</v>
       </c>
-      <c r="J2" s="5">
-        <v>0.1993</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1.58</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="F2" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="G2" s="2">
         <v>1.3203</v>
       </c>
-      <c r="M2" s="5">
+      <c r="H2" s="2">
         <v>0.1665</v>
       </c>
-      <c r="N2" s="5">
+      <c r="I2" s="2">
         <v>0.1065</v>
       </c>
-      <c r="O2" s="5">
+      <c r="J2" s="2">
         <v>0.235</v>
       </c>
-      <c r="P2" s="5">
+      <c r="K2" s="2">
         <v>0.1246</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="L2" s="2">
         <v>0.179</v>
       </c>
-      <c r="R2" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="M2" s="2">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>1.386</v>
-      </c>
-      <c r="E3">
-        <v>3.359</v>
-      </c>
-      <c r="F3">
-        <v>5.6881</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4.6881</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.4589</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="D3" s="2">
+        <v>0.462</v>
+      </c>
+      <c r="E3" s="2">
         <v>-0.2667</v>
       </c>
-      <c r="J3" s="5">
-        <v>0.3014</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1.46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="F3" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2">
         <v>-0.002</v>
       </c>
-      <c r="N3" s="5">
+      <c r="I3" s="2">
         <v>0.1403</v>
       </c>
-      <c r="O3" s="5">
+      <c r="J3" s="2">
         <v>0.9404</v>
       </c>
-      <c r="P3" s="5">
+      <c r="K3" s="2">
         <v>0.2934</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="L3" s="2">
         <v>0.6094</v>
       </c>
-      <c r="R3" s="5">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="M3" s="2">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>1.2775</v>
-      </c>
-      <c r="E4">
-        <v>2.4105</v>
-      </c>
-      <c r="F4">
-        <v>3.049</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.049</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.1913</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="D4" s="2">
+        <v>0.1879</v>
+      </c>
+      <c r="E4" s="2">
         <v>-0.1687</v>
       </c>
-      <c r="J4" s="5">
-        <v>0.1069</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="F4" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.1395</v>
       </c>
-      <c r="M4" s="5">
+      <c r="H4" s="2">
         <v>0.9089</v>
       </c>
-      <c r="N4" s="5">
+      <c r="I4" s="2">
         <v>0.0543</v>
       </c>
-      <c r="O4" s="5">
+      <c r="J4" s="2">
         <v>-0.0401</v>
       </c>
-      <c r="P4" s="5">
+      <c r="K4" s="2">
         <v>-0.0431</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="L4" s="2">
         <v>0.2798</v>
       </c>
-      <c r="R4" s="5">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="M4" s="2">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
-        <v>6.91</v>
-      </c>
-      <c r="E5">
-        <v>7.555</v>
-      </c>
-      <c r="F5">
-        <v>7.9465</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.9465</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.2843</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="D5" s="2">
+        <v>0.2872</v>
+      </c>
+      <c r="E5" s="2">
         <v>-0.2247</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.1691</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1.56</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="F5" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.4798</v>
       </c>
-      <c r="M5" s="5">
+      <c r="H5" s="2">
         <v>0.9133</v>
       </c>
-      <c r="N5" s="5">
+      <c r="I5" s="2">
         <v>0.0812</v>
       </c>
-      <c r="O5" s="5">
+      <c r="J5" s="2">
         <v>0.2708</v>
       </c>
-      <c r="P5" s="5">
+      <c r="K5" s="2">
         <v>0.1464</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="L5" s="2">
         <v>0.0702</v>
       </c>
-      <c r="R5" s="5">
-        <v>0.0374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="M5" s="2">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>1.605</v>
-      </c>
-      <c r="E6">
-        <v>1.605</v>
-      </c>
-      <c r="F6">
-        <v>1.605</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.605</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.1046</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="D6" s="2">
+        <v>0.1043</v>
+      </c>
+      <c r="E6" s="2">
         <v>-0.0773</v>
       </c>
-      <c r="J6" s="5">
-        <v>0.0755</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="F6" s="3">
         <v>1.12</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.108</v>
       </c>
-      <c r="N6" s="5">
+      <c r="I6" s="2">
         <v>0.0054</v>
       </c>
-      <c r="O6" s="5">
+      <c r="J6" s="2">
         <v>0.1284</v>
       </c>
-      <c r="P6" s="5">
+      <c r="K6" s="2">
         <v>0.1408</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="L6" s="2">
         <v>0.1513</v>
       </c>
-      <c r="R6" s="5">
-        <v>-0.0279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="M6" s="2">
+        <v>-0.0273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
-        <v>1.183</v>
-      </c>
-      <c r="E7">
-        <v>1.455</v>
-      </c>
-      <c r="F7">
-        <v>1.5048</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.5048</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.0594</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="D7" s="2">
+        <v>0.0631</v>
+      </c>
+      <c r="E7" s="2">
         <v>-0.1588</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.1057</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="F7" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.0389</v>
       </c>
-      <c r="M7" s="5">
+      <c r="H7" s="2">
         <v>0.2183</v>
       </c>
-      <c r="N7" s="5">
+      <c r="I7" s="2">
         <v>0.1249</v>
       </c>
-      <c r="O7" s="5">
+      <c r="J7" s="2">
         <v>0.0131</v>
       </c>
-      <c r="P7" s="5">
+      <c r="K7" s="2">
         <v>0.1242</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="L7" s="2">
         <v>0.0971</v>
       </c>
-      <c r="R7" s="5">
-        <v>-0.0311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="M7" s="2">
+        <v>-0.0057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>3.2297</v>
-      </c>
-      <c r="E8">
-        <v>3.2297</v>
-      </c>
-      <c r="F8">
-        <v>3.2297</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2.23</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.2148</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="D8" s="2">
+        <v>0.2165</v>
+      </c>
+      <c r="E8" s="2">
         <v>-0.1817</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.196</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>-0.0585</v>
       </c>
-      <c r="M8" s="5">
+      <c r="H8" s="2">
         <v>0.8146</v>
       </c>
-      <c r="N8" s="5">
+      <c r="I8" s="2">
         <v>0.2229</v>
       </c>
-      <c r="O8" s="5">
+      <c r="J8" s="2">
         <v>-0.0758</v>
       </c>
-      <c r="P8" s="5">
+      <c r="K8" s="2">
         <v>0.178</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="L8" s="2">
         <v>0.6381</v>
       </c>
-      <c r="R8" s="5">
-        <v>-0.1331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="M8" s="2">
+        <v>-0.1227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>1.4337</v>
-      </c>
-      <c r="E9">
-        <v>1.4337</v>
-      </c>
-      <c r="F9">
-        <v>1.4337</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.4334</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.2472</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="D9" s="2">
+        <v>0.2514</v>
+      </c>
+      <c r="E9" s="2">
         <v>-0.046</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.0862</v>
-      </c>
-      <c r="K9" s="6">
-        <v>2.63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="F9" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.0202</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="L9" s="2">
         <v>0.2279</v>
       </c>
-      <c r="R9" s="5">
-        <v>0.1443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="M9" s="2">
+        <v>0.1556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>2.0951</v>
-      </c>
-      <c r="E10">
-        <v>2.0951</v>
-      </c>
-      <c r="F10">
-        <v>2.0951</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1.0951</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.1137</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="D10" s="2">
+        <v>0.115</v>
+      </c>
+      <c r="E10" s="2">
         <v>-0.1756</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.0845</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1.11</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="F10" s="3">
+        <v>1.13</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.138</v>
       </c>
-      <c r="M10" s="5">
+      <c r="H10" s="2">
         <v>0.3016</v>
       </c>
-      <c r="N10" s="5">
+      <c r="I10" s="2">
         <v>0.0905</v>
       </c>
-      <c r="O10" s="5">
+      <c r="J10" s="2">
         <v>0.0616</v>
       </c>
-      <c r="P10" s="5">
+      <c r="K10" s="2">
         <v>-0.0183</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="L10" s="2">
         <v>0.1849</v>
       </c>
-      <c r="R10" s="5">
-        <v>0.0488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="M10" s="2">
+        <v>0.0592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>0.9815</v>
-      </c>
-      <c r="E11">
-        <v>0.9815</v>
-      </c>
-      <c r="F11">
-        <v>0.9815</v>
-      </c>
-      <c r="G11" s="5">
-        <v>-0.0185</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-0.026</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="D11" s="2">
+        <v>-0.0114</v>
+      </c>
+      <c r="E11" s="2">
         <v>-0.0622</v>
       </c>
-      <c r="J11" s="5">
-        <v>0.0593</v>
-      </c>
-      <c r="K11" s="6">
-        <v>-0.78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="F11" s="3">
+        <v>-0.52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.0221</v>
       </c>
-      <c r="R11" s="5">
-        <v>-0.0397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="M11" s="2">
+        <v>-0.0297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12">
-        <v>2.904</v>
-      </c>
-      <c r="E12">
-        <v>2.904</v>
-      </c>
-      <c r="F12">
-        <v>2.904</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1.904</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.1173</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="D12" s="2">
+        <v>0.119</v>
+      </c>
+      <c r="E12" s="2">
         <v>-0.1459</v>
       </c>
-      <c r="J12" s="5">
-        <v>0.0982</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="F12" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.1249</v>
       </c>
-      <c r="M12" s="5">
+      <c r="H12" s="2">
         <v>0.3289</v>
       </c>
-      <c r="N12" s="5">
+      <c r="I12" s="2">
         <v>0.0533</v>
       </c>
-      <c r="O12" s="5">
+      <c r="J12" s="2">
         <v>0.0238</v>
       </c>
-      <c r="P12" s="5">
+      <c r="K12" s="2">
         <v>0.0395</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="L12" s="2">
         <v>0.0135</v>
       </c>
-      <c r="R12" s="5">
-        <v>0.0172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="M12" s="2">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>1.862</v>
-      </c>
-      <c r="E13">
-        <v>2.212</v>
-      </c>
-      <c r="F13">
-        <v>2.2759</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.2759</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.1388</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="D13" s="2">
+        <v>0.1387</v>
+      </c>
+      <c r="E13" s="2">
         <v>-0.1405</v>
       </c>
-      <c r="J13" s="5">
-        <v>0.1087</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="F13" s="3">
         <v>1.09</v>
       </c>
-      <c r="L13" s="5">
+      <c r="G13" s="2">
         <v>0.146</v>
       </c>
-      <c r="M13" s="5">
+      <c r="H13" s="2">
         <v>0.3866</v>
       </c>
-      <c r="N13" s="5">
+      <c r="I13" s="2">
         <v>0.0541</v>
       </c>
-      <c r="O13" s="5">
+      <c r="J13" s="2">
         <v>0.1826</v>
       </c>
-      <c r="P13" s="5">
+      <c r="K13" s="2">
         <v>-0.0886</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="L13" s="2">
         <v>0.218</v>
       </c>
-      <c r="R13" s="5">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="M13" s="2">
+        <v>0.0372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14">
-        <v>1.6493</v>
-      </c>
-      <c r="E14">
-        <v>1.6493</v>
-      </c>
-      <c r="F14">
-        <v>1.6493</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.6493</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.2281</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="D14" s="2">
+        <v>0.2293</v>
+      </c>
+      <c r="E14" s="2">
         <v>-0.0317</v>
       </c>
-      <c r="J14" s="5">
-        <v>0.0656</v>
-      </c>
-      <c r="K14" s="6">
-        <v>3.17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="F14" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.2181</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="L14" s="2">
         <v>0.308</v>
       </c>
-      <c r="R14" s="5">
-        <v>0.0351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="M14" s="2">
+        <v>0.0419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15">
-        <v>1.3872</v>
-      </c>
-      <c r="E15">
-        <v>1.4581</v>
-      </c>
-      <c r="F15">
-        <v>1.4675</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.4674</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.1705</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="D15" s="2">
+        <v>0.1742</v>
+      </c>
+      <c r="E15" s="2">
         <v>-0.0609</v>
       </c>
-      <c r="J15" s="5">
-        <v>0.0679</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2.22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="F15" s="3">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="2">
         <v>0.1314</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="L15" s="2">
         <v>0.2546</v>
       </c>
-      <c r="R15" s="5">
-        <v>0.0337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="M15" s="2">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16">
-        <v>2.004</v>
-      </c>
-      <c r="E16">
-        <v>3.277</v>
-      </c>
-      <c r="F16">
-        <v>4.4649</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3.4649</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.2373</v>
-      </c>
-      <c r="I16" s="5">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.2353</v>
+      </c>
+      <c r="E16" s="2">
         <v>-0.1779</v>
       </c>
-      <c r="J16" s="5">
-        <v>0.1564</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1.39</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="F16" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.0916</v>
       </c>
-      <c r="M16" s="5">
+      <c r="H16" s="2">
         <v>1.1104</v>
       </c>
-      <c r="N16" s="5">
+      <c r="I16" s="2">
         <v>-0.0497</v>
       </c>
-      <c r="O16" s="5">
+      <c r="J16" s="2">
         <v>0.1249</v>
       </c>
-      <c r="P16" s="5">
+      <c r="K16" s="2">
         <v>0.1591</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="L16" s="2">
         <v>0.3767</v>
       </c>
-      <c r="R16" s="5">
-        <v>0.0405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="M16" s="2">
+        <v>0.0332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
-        <v>1.0365</v>
-      </c>
-      <c r="E17">
-        <v>2.49</v>
-      </c>
-      <c r="F17">
-        <v>3.7018</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2.7018</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.2068</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="D17" s="2">
+        <v>0.2053</v>
+      </c>
+      <c r="E17" s="2">
         <v>-0.0605</v>
       </c>
-      <c r="J17" s="5">
-        <v>0.0754</v>
-      </c>
-      <c r="K17" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="F17" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.2295</v>
       </c>
-      <c r="M17" s="5">
+      <c r="H17" s="2">
         <v>0.5252</v>
       </c>
-      <c r="N17" s="5">
+      <c r="I17" s="2">
         <v>0.2196</v>
       </c>
-      <c r="O17" s="5">
+      <c r="J17" s="2">
         <v>0.0413</v>
       </c>
-      <c r="P17" s="5">
+      <c r="K17" s="2">
         <v>0.0393</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="L17" s="2">
         <v>0.1095</v>
       </c>
-      <c r="R17" s="5">
-        <v>0.0538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="M17" s="2">
+        <v>0.0481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18">
-        <v>1.1415</v>
-      </c>
-      <c r="E18">
-        <v>1.6048</v>
-      </c>
-      <c r="F18">
-        <v>1.7327</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.7327</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.1412</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="D18" s="2">
+        <v>0.1397</v>
+      </c>
+      <c r="E18" s="2">
         <v>-0.1334</v>
       </c>
-      <c r="J18" s="5">
-        <v>0.0975</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1.24</v>
-      </c>
-      <c r="L18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="F18" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.1294</v>
       </c>
-      <c r="O18" s="5">
+      <c r="J18" s="2">
         <v>0.1097</v>
       </c>
-      <c r="P18" s="5">
+      <c r="K18" s="2">
         <v>0.2035</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="L18" s="2">
         <v>0.122</v>
       </c>
-      <c r="R18" s="5">
-        <v>0.0239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="M18" s="2">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19">
-        <v>0.9692</v>
-      </c>
-      <c r="E19">
-        <v>1.1763</v>
-      </c>
-      <c r="F19">
-        <v>1.1714</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.1714</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.0949</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="D19" s="2">
+        <v>0.0923</v>
+      </c>
+      <c r="E19" s="2">
         <v>-0.0454</v>
       </c>
-      <c r="J19" s="5">
-        <v>0.0761</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="F19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="L19" s="2">
         <v>0.1782</v>
       </c>
-      <c r="R19" s="5">
-        <v>-0.0156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="M19" s="2">
+        <v>-0.018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>1.135</v>
-      </c>
-      <c r="E20">
-        <v>2.135</v>
-      </c>
-      <c r="F20">
-        <v>2.2129</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1.2129</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.1031</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="D20" s="2">
+        <v>0.1014</v>
+      </c>
+      <c r="E20" s="2">
         <v>-0.1156</v>
       </c>
-      <c r="J20" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="F20" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.1093</v>
       </c>
-      <c r="M20" s="5">
+      <c r="H20" s="2">
         <v>0.4399</v>
       </c>
-      <c r="N20" s="5">
+      <c r="I20" s="2">
         <v>0.0469</v>
       </c>
-      <c r="O20" s="5">
+      <c r="J20" s="2">
         <v>0.0285</v>
       </c>
-      <c r="P20" s="5">
+      <c r="K20" s="2">
         <v>-0.0088</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="L20" s="2">
         <v>0.1653</v>
       </c>
-      <c r="R20" s="5">
-        <v>-0.0414</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="1">
-        <v>7.0456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.0479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.9572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.8269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.4933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.3183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.4214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.0585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.9954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.2649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.6233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.4495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4.4315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.6625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.7289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.1646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.2129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.0567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2.899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2.139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.0158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.5383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.2616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.0414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.067</v>
+      <c r="M20" s="2">
+        <v>-0.0515</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="260">
   <si>
     <t>管理人</t>
   </si>
@@ -99,7 +99,7 @@
     <t>2018-10-17</t>
   </si>
   <si>
-    <t>2025-06-20</t>
+    <t>2025-06-30</t>
   </si>
   <si>
     <t>宏锡基金</t>
@@ -120,6 +120,9 @@
     <t>2017-02-17</t>
   </si>
   <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
     <t>千象资产</t>
   </si>
   <si>
@@ -222,91 +225,469 @@
     <t>2018-09-07</t>
   </si>
   <si>
+    <t>32.94%</t>
+  </si>
+  <si>
+    <t>-12.33%</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>132.03%</t>
+  </si>
+  <si>
+    <t>16.65%</t>
+  </si>
+  <si>
+    <t>10.65%</t>
+  </si>
+  <si>
+    <t>23.50%</t>
+  </si>
+  <si>
+    <t>12.46%</t>
+  </si>
+  <si>
+    <t>17.90%</t>
+  </si>
+  <si>
+    <t>22.81%</t>
+  </si>
+  <si>
     <t>草本致远1号</t>
   </si>
   <si>
     <t>2020-11-06</t>
   </si>
   <si>
+    <t>44.57%</t>
+  </si>
+  <si>
+    <t>-26.67%</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>-0.20%</t>
+  </si>
+  <si>
+    <t>14.03%</t>
+  </si>
+  <si>
+    <t>94.04%</t>
+  </si>
+  <si>
+    <t>29.34%</t>
+  </si>
+  <si>
+    <t>60.94%</t>
+  </si>
+  <si>
+    <t>20.36%</t>
+  </si>
+  <si>
     <t>瑞达期货-瑞智无忧共赢7号</t>
   </si>
   <si>
     <t>2019-01-31</t>
   </si>
   <si>
+    <t>18.63%</t>
+  </si>
+  <si>
+    <t>-16.87%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>90.89%</t>
+  </si>
+  <si>
+    <t>5.43%</t>
+  </si>
+  <si>
+    <t>-4.01%</t>
+  </si>
+  <si>
+    <t>-4.31%</t>
+  </si>
+  <si>
+    <t>27.98%</t>
+  </si>
+  <si>
+    <t>10.85%</t>
+  </si>
+  <si>
     <t>均成CTA1号</t>
   </si>
   <si>
     <t>2017-03-03</t>
   </si>
   <si>
+    <t>28.33%</t>
+  </si>
+  <si>
+    <t>-22.47%</t>
+  </si>
+  <si>
+    <t>47.98%</t>
+  </si>
+  <si>
+    <t>91.33%</t>
+  </si>
+  <si>
+    <t>8.12%</t>
+  </si>
+  <si>
+    <t>27.08%</t>
+  </si>
+  <si>
+    <t>14.64%</t>
+  </si>
+  <si>
+    <t>7.02%</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
     <t>弘源多元化CTA</t>
   </si>
   <si>
     <t>2020-09-11</t>
   </si>
   <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>-7.73%</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>10.80%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>12.84%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>15.13%</t>
+  </si>
+  <si>
+    <t>-3.27%</t>
+  </si>
+  <si>
     <t>众壹资产量合兴成一号</t>
   </si>
   <si>
     <t>2018-05-18</t>
   </si>
   <si>
+    <t>6.06%</t>
+  </si>
+  <si>
+    <t>-15.88%</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>3.89%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>12.49%</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>12.42%</t>
+  </si>
+  <si>
+    <t>9.71%</t>
+  </si>
+  <si>
+    <t>-2.13%</t>
+  </si>
+  <si>
     <t>旭诺CTA三号</t>
   </si>
   <si>
     <t>2019-06-06</t>
   </si>
   <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>-18.17%</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>-5.85%</t>
+  </si>
+  <si>
+    <t>81.46%</t>
+  </si>
+  <si>
+    <t>22.29%</t>
+  </si>
+  <si>
+    <t>-7.58%</t>
+  </si>
+  <si>
+    <t>17.80%</t>
+  </si>
+  <si>
+    <t>63.81%</t>
+  </si>
+  <si>
+    <t>-11.33%</t>
+  </si>
+  <si>
     <t>千衍六贞1号B类</t>
   </si>
   <si>
     <t>2023-10-27</t>
   </si>
   <si>
+    <t>23.89%</t>
+  </si>
+  <si>
+    <t>-4.60%</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.02%</t>
+  </si>
+  <si>
+    <t>22.79%</t>
+  </si>
+  <si>
+    <t>14.13%</t>
+  </si>
+  <si>
     <t>会世元丰CTA1号</t>
   </si>
   <si>
     <t>2018-08-03</t>
   </si>
   <si>
+    <t>11.34%</t>
+  </si>
+  <si>
+    <t>-17.56%</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>13.80%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>9.05%</t>
+  </si>
+  <si>
+    <t>6.16%</t>
+  </si>
+  <si>
+    <t>-1.83%</t>
+  </si>
+  <si>
+    <t>18.49%</t>
+  </si>
+  <si>
+    <t>5.09%</t>
+  </si>
+  <si>
     <t>简雍斯量先锋</t>
   </si>
   <si>
     <t>2024-09-27</t>
   </si>
   <si>
+    <t>-0.04%</t>
+  </si>
+  <si>
+    <t>-6.22%</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>-2.19%</t>
+  </si>
+  <si>
     <t>远澜云杉</t>
   </si>
   <si>
     <t>2015-11-06</t>
   </si>
   <si>
+    <t>11.48%</t>
+  </si>
+  <si>
+    <t>-14.59%</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>32.89%</t>
+  </si>
+  <si>
+    <t>5.33%</t>
+  </si>
+  <si>
+    <t>2.38%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
     <t>文谛量化优选三号</t>
   </si>
   <si>
     <t>2019-02-15</t>
   </si>
   <si>
+    <t>13.76%</t>
+  </si>
+  <si>
+    <t>-14.05%</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>14.60%</t>
+  </si>
+  <si>
+    <t>38.66%</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
+    <t>18.26%</t>
+  </si>
+  <si>
+    <t>-8.86%</t>
+  </si>
+  <si>
+    <t>21.80%</t>
+  </si>
+  <si>
+    <t>3.34%</t>
+  </si>
+  <si>
     <t>量派CTA七号</t>
   </si>
   <si>
     <t>2023-01-06</t>
   </si>
   <si>
+    <t>22.40%</t>
+  </si>
+  <si>
+    <t>-3.17%</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>21.81%</t>
+  </si>
+  <si>
+    <t>30.80%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
     <t>安贤CTA量化一号</t>
   </si>
   <si>
+    <t>16.73%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>13.14%</t>
+  </si>
+  <si>
+    <t>25.46%</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
     <t>东海龙王一号</t>
   </si>
   <si>
     <t>2018-06-08</t>
   </si>
   <si>
-    <t>2025-06-23</t>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>-17.79%</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>9.16%</t>
+  </si>
+  <si>
+    <t>111.04%</t>
+  </si>
+  <si>
+    <t>-4.97%</t>
+  </si>
+  <si>
+    <t>15.91%</t>
+  </si>
+  <si>
+    <t>37.67%</t>
+  </si>
+  <si>
+    <t>2.86%</t>
   </si>
   <si>
     <t>旌安1号</t>
@@ -315,22 +696,118 @@
     <t>2018-06-29</t>
   </si>
   <si>
+    <t>20.55%</t>
+  </si>
+  <si>
+    <t>-6.05%</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>22.95%</t>
+  </si>
+  <si>
+    <t>52.52%</t>
+  </si>
+  <si>
+    <t>21.96%</t>
+  </si>
+  <si>
+    <t>4.13%</t>
+  </si>
+  <si>
+    <t>3.93%</t>
+  </si>
+  <si>
+    <t>10.95%</t>
+  </si>
+  <si>
     <t>星恒哲萌1号</t>
   </si>
   <si>
     <t>2021-04-16</t>
   </si>
   <si>
+    <t>-13.34%</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>12.94%</t>
+  </si>
+  <si>
+    <t>10.97%</t>
+  </si>
+  <si>
+    <t>20.35%</t>
+  </si>
+  <si>
+    <t>12.20%</t>
+  </si>
+  <si>
+    <t>2.76%</t>
+  </si>
+  <si>
     <t>唯瞻五号</t>
   </si>
   <si>
     <t>2023-09-15</t>
   </si>
   <si>
+    <t>9.13%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>17.82%</t>
+  </si>
+  <si>
+    <t>-1.79%</t>
+  </si>
+  <si>
     <t>远澜翠柏1号</t>
   </si>
   <si>
     <t>2017-05-12</t>
+  </si>
+  <si>
+    <t>10.06%</t>
+  </si>
+  <si>
+    <t>-11.56%</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>10.93%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>4.69%</t>
+  </si>
+  <si>
+    <t>2.85%</t>
+  </si>
+  <si>
+    <t>-0.88%</t>
+  </si>
+  <si>
+    <t>16.53%</t>
+  </si>
+  <si>
+    <t>-5.58%</t>
   </si>
 </sst>
 </file>
@@ -1410,13 +1887,13 @@
         <v>23</v>
       </c>
       <c r="H2" s="2">
-        <v>0.1164</v>
+        <v>0.1149</v>
       </c>
       <c r="I2" s="2">
         <v>0.0837</v>
       </c>
       <c r="J2" s="3">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="2">
         <v>0.1618</v>
@@ -1437,7 +1914,7 @@
         <v>0.1329</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.0324</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1460,16 +1937,16 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>0.1406</v>
+        <v>0.1376</v>
       </c>
       <c r="I3" s="2">
         <v>0.1654</v>
       </c>
       <c r="J3" s="3">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K3" s="2">
         <v>0.1354</v>
@@ -1490,39 +1967,39 @@
         <v>0.1166</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0753</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2">
-        <v>0.1</v>
+        <v>0.0979</v>
       </c>
       <c r="I4" s="2">
         <v>0.129</v>
       </c>
       <c r="J4" s="3">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K4" s="2">
         <v>0.0322</v>
@@ -1543,39 +2020,39 @@
         <v>0.1824</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.0528</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="2">
-        <v>0.3011</v>
+        <v>0.3061</v>
       </c>
       <c r="I5" s="2">
         <v>0.1565</v>
       </c>
       <c r="J5" s="3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O5" s="2">
         <v>0.2696</v>
@@ -1584,39 +2061,39 @@
         <v>0.4984</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.071</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0672</v>
+        <v>0.0693</v>
       </c>
       <c r="I6" s="2">
         <v>0.1588</v>
       </c>
       <c r="J6" s="3">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="L6" s="2">
         <v>0.2672</v>
@@ -1634,39 +2111,39 @@
         <v>0.2329</v>
       </c>
       <c r="Q6" s="2">
-        <v>-0.0531</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0677</v>
+        <v>0.0678</v>
       </c>
       <c r="I7" s="2">
         <v>0.1064</v>
       </c>
       <c r="J7" s="3">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="N7" s="2">
         <v>-0.026</v>
@@ -1678,39 +2155,39 @@
         <v>0.2597</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.0434</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0317</v>
+        <v>0.0311</v>
       </c>
       <c r="I8" s="2">
         <v>0.0289</v>
       </c>
       <c r="J8" s="3">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="Q8" s="2">
         <v>0.0126</v>
@@ -1732,25 +2209,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1776,785 +2256,788 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.333</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.1233</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.3203</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.1665</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1065</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.235</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.1246</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.179</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.244</v>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.462</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.2667</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.47</v>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-0.002</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1403</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.9404</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.2934</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.6094</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.2589</v>
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1879</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-0.1687</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.57</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.1395</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.9089</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.0543</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-0.0401</v>
-      </c>
-      <c r="K4" s="2">
-        <v>-0.0431</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.2798</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.1147</v>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.2872</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-0.2247</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.58</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.4798</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.9133</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.0812</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.2708</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.1464</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.0702</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.0625</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1043</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-0.0773</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.12</v>
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.108</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.0054</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.1284</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.1408</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.1513</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-0.0273</v>
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0631</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-0.1588</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.0389</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.2183</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.1249</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.0131</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.1242</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.0971</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-0.0057</v>
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.2165</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-0.1817</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-0.0585</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.8146</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.2229</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-0.0758</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.178</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.6381</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-0.1227</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.2514</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.046</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.7</v>
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.0202</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.2279</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.1556</v>
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.115</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-0.1756</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.138</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.3016</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.0905</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.0616</v>
-      </c>
-      <c r="K10" s="2">
-        <v>-0.0183</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.1849</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.0592</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-0.0114</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.0622</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-0.52</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" t="s">
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.0221</v>
-      </c>
-      <c r="M11" s="2">
-        <v>-0.0297</v>
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.119</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-0.1459</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.1249</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.3289</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.0533</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.0238</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.0395</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.0135</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.0336</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.1387</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.1405</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.09</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.146</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.3866</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.0541</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.1826</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-0.0886</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.218</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.0372</v>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.2293</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-0.0317</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.2</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.2181</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.308</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.0419</v>
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.1742</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.0609</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.28</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.1314</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.2546</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.045</v>
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.2353</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-0.1779</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.0916</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.1104</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-0.0497</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.1249</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.1591</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.3767</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.0332</v>
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.2053</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.0605</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2.46</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.2295</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.5252</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.2196</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.0413</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.0393</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.1095</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.0481</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.1397</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-0.1334</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.23</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.1294</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.1097</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.2035</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.122</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.021</v>
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.0923</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-0.0454</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.95</v>
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" t="s">
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.1782</v>
-      </c>
-      <c r="M19" s="2">
-        <v>-0.018</v>
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.1014</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-0.1156</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.1093</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.4399</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.0469</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.0285</v>
-      </c>
-      <c r="K20" s="2">
-        <v>-0.0088</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.1653</v>
-      </c>
-      <c r="M20" s="2">
-        <v>-0.0515</v>
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="D2:M20" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -144,6 +144,9 @@
     <t>2018-09-07</t>
   </si>
   <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
     <t>草本致远1号</t>
   </si>
   <si>
@@ -268,9 +271,6 @@
   </si>
   <si>
     <t>2023-04-28</t>
-  </si>
-  <si>
-    <t>2025-07-14</t>
   </si>
   <si>
     <t>星恒哲萌1号</t>
@@ -996,13 +996,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,7 +1375,7 @@
       <c r="I2" s="2">
         <v>0.1654</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>0.84</v>
       </c>
       <c r="K2" s="2">
@@ -1427,14 +1420,10 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="F2" sqref="F2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
@@ -1500,28 +1489,28 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>1.211</v>
+        <v>1.213</v>
       </c>
       <c r="E2">
-        <v>3.773</v>
+        <v>3.775</v>
       </c>
       <c r="F2">
-        <v>6.8258</v>
+        <v>6.8371</v>
       </c>
       <c r="G2" s="2">
-        <v>5.8258</v>
+        <v>5.8371</v>
       </c>
       <c r="H2" s="2">
-        <v>0.3238</v>
+        <v>0.3231</v>
       </c>
       <c r="I2" s="2">
         <v>-0.1233</v>
       </c>
       <c r="J2" s="2">
-        <v>0.1985</v>
+        <v>0.1982</v>
       </c>
       <c r="K2" s="3">
         <v>1.53</v>
@@ -1545,33 +1534,33 @@
         <v>0.179</v>
       </c>
       <c r="R2" s="2">
-        <v>0.2062</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3">
-        <v>1.277</v>
+        <v>1.342</v>
       </c>
       <c r="E3">
-        <v>3.25</v>
+        <v>3.315</v>
       </c>
       <c r="F3">
-        <v>5.2408</v>
+        <v>5.5076</v>
       </c>
       <c r="G3" s="2">
-        <v>4.2408</v>
+        <v>4.5076</v>
       </c>
       <c r="H3" s="2">
-        <v>0.4247</v>
+        <v>0.4378</v>
       </c>
       <c r="I3" s="2">
         <v>-0.2667</v>
@@ -1580,10 +1569,10 @@
         <v>0.3014</v>
       </c>
       <c r="K3" s="3">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="2">
         <v>-0.002</v>
@@ -1601,54 +1590,54 @@
         <v>0.6094</v>
       </c>
       <c r="R3" s="2">
-        <v>0.1402</v>
+        <v>0.1982</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>1.4351</v>
+        <v>1.448</v>
       </c>
       <c r="E4">
-        <v>1.4351</v>
+        <v>1.448</v>
       </c>
       <c r="F4">
-        <v>1.4351</v>
+        <v>1.448</v>
       </c>
       <c r="G4" s="2">
-        <v>0.4348</v>
+        <v>0.4477</v>
       </c>
       <c r="H4" s="2">
-        <v>0.2356</v>
+        <v>0.2391</v>
       </c>
       <c r="I4" s="2">
         <v>-0.046</v>
       </c>
       <c r="J4" s="2">
-        <v>0.0854</v>
+        <v>0.085</v>
       </c>
       <c r="K4" s="3">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2">
         <v>0.0202</v>
@@ -1657,98 +1646,98 @@
         <v>0.2279</v>
       </c>
       <c r="R4" s="2">
-        <v>0.1454</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>1.4119</v>
+        <v>1.4189</v>
       </c>
       <c r="E5">
-        <v>2.0828</v>
+        <v>1.9335</v>
       </c>
       <c r="F5">
-        <v>2.3007</v>
+        <v>2.0827</v>
       </c>
       <c r="G5" s="2">
-        <v>1.3005</v>
+        <v>1.0827</v>
       </c>
       <c r="H5" s="2">
-        <v>0.3359</v>
+        <v>0.2883</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.1565</v>
+        <v>-0.1566</v>
       </c>
       <c r="J5" s="2">
-        <v>0.1999</v>
+        <v>0.1956</v>
       </c>
       <c r="K5" s="3">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2">
-        <v>0.0323</v>
+        <v>0.0287</v>
       </c>
       <c r="P5" s="2">
-        <v>0.269</v>
+        <v>0.2672</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.4723</v>
+        <v>0.4721</v>
       </c>
       <c r="R5" s="2">
-        <v>0.1928</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>6.999</v>
+        <v>7.063</v>
       </c>
       <c r="E6">
-        <v>7.644</v>
+        <v>7.708</v>
       </c>
       <c r="F6">
-        <v>8.0489</v>
+        <v>8.1225</v>
       </c>
       <c r="G6" s="2">
-        <v>7.0489</v>
+        <v>7.1225</v>
       </c>
       <c r="H6" s="2">
-        <v>0.2833</v>
+        <v>0.2839</v>
       </c>
       <c r="I6" s="2">
         <v>-0.2247</v>
       </c>
       <c r="J6" s="2">
-        <v>0.1686</v>
+        <v>0.1684</v>
       </c>
       <c r="K6" s="3">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="L6" s="2">
         <v>0.4798</v>
@@ -1769,39 +1758,39 @@
         <v>0.0702</v>
       </c>
       <c r="R6" s="2">
-        <v>0.0507</v>
+        <v>0.0604</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>2.0933</v>
+        <v>2.1058</v>
       </c>
       <c r="E7">
-        <v>2.0933</v>
+        <v>2.1058</v>
       </c>
       <c r="F7">
-        <v>2.0933</v>
+        <v>2.1058</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0933</v>
+        <v>1.1058</v>
       </c>
       <c r="H7" s="2">
-        <v>0.1123</v>
+        <v>0.1129</v>
       </c>
       <c r="I7" s="2">
         <v>-0.1756</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0842</v>
+        <v>0.0841</v>
       </c>
       <c r="K7" s="3">
         <v>1.1</v>
@@ -1825,42 +1814,42 @@
         <v>0.1849</v>
       </c>
       <c r="R7" s="2">
-        <v>0.0479</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>2.1513</v>
+        <v>2.1676</v>
       </c>
       <c r="E8">
-        <v>2.1513</v>
+        <v>2.1676</v>
       </c>
       <c r="F8">
-        <v>2.1513</v>
+        <v>2.1676</v>
       </c>
       <c r="G8" s="2">
-        <v>1.1513</v>
+        <v>1.1676</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0985</v>
+        <v>0.0993</v>
       </c>
       <c r="I8" s="2">
         <v>-0.129</v>
       </c>
       <c r="J8" s="2">
-        <v>0.0955</v>
+        <v>0.0954</v>
       </c>
       <c r="K8" s="3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L8" s="2">
         <v>0.0287</v>
@@ -1881,54 +1870,54 @@
         <v>0.1768</v>
       </c>
       <c r="R8" s="2">
-        <v>0.0517</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>1.3838</v>
+        <v>1.3739</v>
       </c>
       <c r="E9">
-        <v>1.4547</v>
+        <v>1.4448</v>
       </c>
       <c r="F9">
-        <v>1.4639</v>
+        <v>1.4534</v>
       </c>
       <c r="G9" s="2">
-        <v>0.4638</v>
+        <v>0.4533</v>
       </c>
       <c r="H9" s="2">
-        <v>0.1638</v>
+        <v>0.1591</v>
       </c>
       <c r="I9" s="2">
         <v>-0.0609</v>
       </c>
       <c r="J9" s="2">
-        <v>0.0677</v>
+        <v>0.0678</v>
       </c>
       <c r="K9" s="3">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="2">
         <v>0.1314</v>
@@ -1937,54 +1926,54 @@
         <v>0.2546</v>
       </c>
       <c r="R9" s="2">
-        <v>0.0312</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>1.6359</v>
+        <v>1.6357</v>
       </c>
       <c r="E10">
-        <v>1.6359</v>
+        <v>1.6357</v>
       </c>
       <c r="F10">
-        <v>1.6359</v>
+        <v>1.6357</v>
       </c>
       <c r="G10" s="2">
-        <v>0.6359</v>
+        <v>0.6357</v>
       </c>
       <c r="H10" s="2">
-        <v>0.2164</v>
+        <v>0.2146</v>
       </c>
       <c r="I10" s="2">
         <v>-0.0317</v>
       </c>
       <c r="J10" s="2">
-        <v>0.0653</v>
+        <v>0.0651</v>
       </c>
       <c r="K10" s="3">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="2">
         <v>0.2181</v>
@@ -1993,95 +1982,95 @@
         <v>0.308</v>
       </c>
       <c r="R10" s="2">
-        <v>0.0267</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>1.05</v>
+        <v>1.0607</v>
       </c>
       <c r="E11">
-        <v>1.05</v>
+        <v>1.0607</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>1.0607</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0501</v>
+        <v>0.0608</v>
       </c>
       <c r="H11" s="2">
-        <v>0.0545</v>
+        <v>0.0648</v>
       </c>
       <c r="I11" s="2">
         <v>-0.0289</v>
       </c>
       <c r="J11" s="2">
-        <v>0.0593</v>
+        <v>0.0594</v>
       </c>
       <c r="K11" s="3">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2">
         <v>0.0084</v>
       </c>
       <c r="R11" s="2">
-        <v>0.0414</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="E12">
-        <v>2.21</v>
+        <v>2.212</v>
       </c>
       <c r="F12">
-        <v>2.2735</v>
+        <v>2.2759</v>
       </c>
       <c r="G12" s="2">
-        <v>1.2735</v>
+        <v>1.2759</v>
       </c>
       <c r="H12" s="2">
-        <v>0.1368</v>
+        <v>0.1366</v>
       </c>
       <c r="I12" s="2">
         <v>-0.1405</v>
       </c>
       <c r="J12" s="2">
-        <v>0.1081</v>
+        <v>0.1079</v>
       </c>
       <c r="K12" s="3">
         <v>1.08</v>
@@ -2105,39 +2094,39 @@
         <v>0.218</v>
       </c>
       <c r="R12" s="2">
-        <v>0.0339</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>2.86</v>
+        <v>2.877</v>
       </c>
       <c r="E13">
-        <v>2.86</v>
+        <v>2.877</v>
       </c>
       <c r="F13">
-        <v>2.86</v>
+        <v>2.877</v>
       </c>
       <c r="G13" s="2">
-        <v>1.86</v>
+        <v>1.877</v>
       </c>
       <c r="H13" s="2">
-        <v>0.1146</v>
+        <v>0.115</v>
       </c>
       <c r="I13" s="2">
         <v>-0.1459</v>
       </c>
       <c r="J13" s="2">
-        <v>0.0986</v>
+        <v>0.0985</v>
       </c>
       <c r="K13" s="3">
         <v>0.96</v>
@@ -2161,18 +2150,18 @@
         <v>0.0135</v>
       </c>
       <c r="R13" s="2">
-        <v>0.0018</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>2.013</v>
@@ -2187,13 +2176,13 @@
         <v>3.485</v>
       </c>
       <c r="H14" s="2">
-        <v>0.2355</v>
+        <v>0.2348</v>
       </c>
       <c r="I14" s="2">
         <v>-0.1779</v>
       </c>
       <c r="J14" s="2">
-        <v>0.1558</v>
+        <v>0.1556</v>
       </c>
       <c r="K14" s="3">
         <v>1.38</v>
@@ -2222,49 +2211,49 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="E15">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="F15">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="G15" s="2">
-        <v>0.246</v>
+        <v>0.255</v>
       </c>
       <c r="H15" s="2">
-        <v>0.1521</v>
+        <v>0.1554</v>
       </c>
       <c r="I15" s="2">
         <v>-0.04</v>
       </c>
       <c r="J15" s="2">
-        <v>0.0739</v>
+        <v>0.0735</v>
       </c>
       <c r="K15" s="3">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -2273,42 +2262,42 @@
         <v>0.175</v>
       </c>
       <c r="R15" s="2">
-        <v>0.0604</v>
+        <v>0.0681</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>1.195</v>
+        <v>1.204</v>
       </c>
       <c r="E16">
-        <v>1.467</v>
+        <v>1.476</v>
       </c>
       <c r="F16">
-        <v>1.52</v>
+        <v>1.5315</v>
       </c>
       <c r="G16" s="2">
-        <v>0.52</v>
+        <v>0.5315</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0603</v>
+        <v>0.0612</v>
       </c>
       <c r="I16" s="2">
         <v>-0.1588</v>
       </c>
       <c r="J16" s="2">
-        <v>0.1058</v>
+        <v>0.1057</v>
       </c>
       <c r="K16" s="3">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="L16" s="2">
         <v>0.0389</v>
@@ -2329,45 +2318,45 @@
         <v>0.0971</v>
       </c>
       <c r="R16" s="2">
-        <v>-0.0213</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>1.602</v>
+        <v>1.618</v>
       </c>
       <c r="E17">
-        <v>1.602</v>
+        <v>1.618</v>
       </c>
       <c r="F17">
-        <v>1.602</v>
+        <v>1.618</v>
       </c>
       <c r="G17" s="2">
-        <v>0.602</v>
+        <v>0.618</v>
       </c>
       <c r="H17" s="2">
-        <v>0.1024</v>
+        <v>0.1043</v>
       </c>
       <c r="I17" s="2">
         <v>-0.0773</v>
       </c>
       <c r="J17" s="2">
-        <v>0.0751</v>
+        <v>0.075</v>
       </c>
       <c r="K17" s="3">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17" s="2">
         <v>0.108</v>
@@ -2385,107 +2374,107 @@
         <v>0.1513</v>
       </c>
       <c r="R17" s="2">
-        <v>-0.0297</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>0.9897</v>
+        <v>0.9823</v>
       </c>
       <c r="E18">
-        <v>0.9897</v>
+        <v>0.9823</v>
       </c>
       <c r="F18">
-        <v>0.9897</v>
+        <v>0.9823</v>
       </c>
       <c r="G18" s="2">
-        <v>-0.0103</v>
+        <v>-0.0177</v>
       </c>
       <c r="H18" s="2">
-        <v>-0.0131</v>
+        <v>-0.0219</v>
       </c>
       <c r="I18" s="2">
         <v>-0.0622</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0589</v>
+        <v>0.0588</v>
       </c>
       <c r="K18" s="3">
-        <v>-0.56</v>
+        <v>-0.71</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2">
         <v>0.0221</v>
       </c>
       <c r="R18" s="2">
-        <v>-0.0317</v>
+        <v>-0.0389</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>1.174</v>
+        <v>1.176</v>
       </c>
       <c r="E19">
-        <v>1.174</v>
+        <v>1.176</v>
       </c>
       <c r="F19">
-        <v>1.174</v>
+        <v>1.176</v>
       </c>
       <c r="G19" s="2">
-        <v>0.174</v>
+        <v>0.176</v>
       </c>
       <c r="H19" s="2">
-        <v>0.0611</v>
+        <v>0.0613</v>
       </c>
       <c r="I19" s="2">
         <v>-0.0631</v>
       </c>
       <c r="J19" s="2">
-        <v>0.0764</v>
+        <v>0.0761</v>
       </c>
       <c r="K19" s="3">
         <v>0.54</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O19" s="2">
         <v>-0.028</v>
@@ -2497,39 +2486,39 @@
         <v>0.1873</v>
       </c>
       <c r="R19" s="2">
-        <v>-0.0042</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>3.3484</v>
+        <v>3.3493</v>
       </c>
       <c r="E20">
-        <v>3.3484</v>
+        <v>3.3493</v>
       </c>
       <c r="F20">
-        <v>3.3484</v>
+        <v>3.3493</v>
       </c>
       <c r="G20" s="2">
-        <v>2.3487</v>
+        <v>2.3496</v>
       </c>
       <c r="H20" s="2">
-        <v>0.2191</v>
+        <v>0.2184</v>
       </c>
       <c r="I20" s="2">
         <v>-0.1817</v>
       </c>
       <c r="J20" s="2">
-        <v>0.1948</v>
+        <v>0.1945</v>
       </c>
       <c r="K20" s="3">
         <v>1.02</v>
@@ -2553,42 +2542,42 @@
         <v>0.6381</v>
       </c>
       <c r="R20" s="2">
-        <v>-0.1012</v>
+        <v>-0.101</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>1.064</v>
+        <v>1.0584</v>
       </c>
       <c r="E21">
-        <v>2.3729</v>
+        <v>2.3673</v>
       </c>
       <c r="F21">
-        <v>2.9519</v>
+        <v>2.9364</v>
       </c>
       <c r="G21" s="2">
-        <v>1.9519</v>
+        <v>1.9364</v>
       </c>
       <c r="H21" s="2">
-        <v>0.1828</v>
+        <v>0.1813</v>
       </c>
       <c r="I21" s="2">
         <v>-0.1687</v>
       </c>
       <c r="J21" s="2">
-        <v>0.1065</v>
+        <v>0.1064</v>
       </c>
       <c r="K21" s="3">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="L21" s="2">
         <v>0.1395</v>
@@ -2609,54 +2598,54 @@
         <v>0.2798</v>
       </c>
       <c r="R21" s="2">
-        <v>0.095</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>1.0257</v>
+        <v>1.0266</v>
       </c>
       <c r="E22">
-        <v>2.4792</v>
+        <v>2.4801</v>
       </c>
       <c r="F22">
-        <v>3.6633</v>
+        <v>3.6664</v>
       </c>
       <c r="G22" s="2">
-        <v>2.6633</v>
+        <v>2.6664</v>
       </c>
       <c r="H22" s="2">
-        <v>0.2026</v>
+        <v>0.2021</v>
       </c>
       <c r="I22" s="2">
         <v>-0.0605</v>
       </c>
       <c r="J22" s="2">
-        <v>0.0752</v>
+        <v>0.0751</v>
       </c>
       <c r="K22" s="3">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="L22" s="2">
-        <v>0.2295</v>
+        <v>0.2296</v>
       </c>
       <c r="M22" s="2">
         <v>0.5252</v>
       </c>
       <c r="N22" s="2">
-        <v>0.2196</v>
+        <v>0.2195</v>
       </c>
       <c r="O22" s="2">
-        <v>0.0413</v>
+        <v>0.0414</v>
       </c>
       <c r="P22" s="2">
         <v>0.0393</v>
@@ -2665,54 +2654,54 @@
         <v>0.1095</v>
       </c>
       <c r="R22" s="2">
-        <v>0.0428</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>1.15</v>
+        <v>1.1505</v>
       </c>
       <c r="E23">
-        <v>1.3062</v>
+        <v>1.3067</v>
       </c>
       <c r="F23">
-        <v>1.3091</v>
+        <v>1.3097</v>
       </c>
       <c r="G23" s="2">
-        <v>0.309</v>
+        <v>0.3096</v>
       </c>
       <c r="H23" s="2">
-        <v>0.1293</v>
+        <v>0.1289</v>
       </c>
       <c r="I23" s="2">
         <v>-0.009</v>
       </c>
       <c r="J23" s="2">
-        <v>0.1029</v>
+        <v>0.103</v>
       </c>
       <c r="K23" s="3">
         <v>1.06</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23" s="2">
         <v>0.0197</v>
@@ -2721,7 +2710,7 @@
         <v>0.2681</v>
       </c>
       <c r="R23" s="2">
-        <v>0.0123</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2732,37 +2721,37 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>1.1379</v>
+        <v>1.1387</v>
       </c>
       <c r="E24">
-        <v>1.6012</v>
+        <v>1.602</v>
       </c>
       <c r="F24">
-        <v>1.7261</v>
+        <v>1.7273</v>
       </c>
       <c r="G24" s="2">
-        <v>0.7261</v>
+        <v>0.7273</v>
       </c>
       <c r="H24" s="2">
-        <v>0.1375</v>
+        <v>0.137</v>
       </c>
       <c r="I24" s="2">
         <v>-0.1334</v>
       </c>
       <c r="J24" s="2">
-        <v>0.0967</v>
+        <v>0.0965</v>
       </c>
       <c r="K24" s="3">
         <v>1.21</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N24" s="2">
         <v>0.1294</v>
@@ -2777,7 +2766,7 @@
         <v>0.1213</v>
       </c>
       <c r="R24" s="2">
-        <v>0.0206</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2788,52 +2777,52 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>1.0394</v>
+        <v>1.0404</v>
       </c>
       <c r="E25">
-        <v>1.0394</v>
+        <v>1.0404</v>
       </c>
       <c r="F25">
-        <v>1.0394</v>
+        <v>1.0404</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0394</v>
+        <v>0.0404</v>
       </c>
       <c r="H25" s="2">
-        <v>0.0301</v>
+        <v>0.0304</v>
       </c>
       <c r="I25" s="2">
         <v>-0.0289</v>
       </c>
       <c r="J25" s="2">
-        <v>0.0359</v>
+        <v>0.0357</v>
       </c>
       <c r="K25" s="3">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2">
         <v>0.0268</v>
       </c>
       <c r="R25" s="2">
-        <v>0.0123</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2844,43 +2833,43 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>0.9767</v>
+        <v>0.98</v>
       </c>
       <c r="E26">
-        <v>1.1838</v>
+        <v>1.1871</v>
       </c>
       <c r="F26">
-        <v>1.1803</v>
+        <v>1.1843</v>
       </c>
       <c r="G26" s="2">
-        <v>0.1803</v>
+        <v>0.1843</v>
       </c>
       <c r="H26" s="2">
-        <v>0.0953</v>
+        <v>0.0962</v>
       </c>
       <c r="I26" s="2">
         <v>-0.0454</v>
       </c>
       <c r="J26" s="2">
-        <v>0.0748</v>
+        <v>0.0744</v>
       </c>
       <c r="K26" s="3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P26" s="2">
         <v>0.01</v>
@@ -2889,7 +2878,7 @@
         <v>0.1782</v>
       </c>
       <c r="R26" s="2">
-        <v>-0.0082</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2900,31 +2889,31 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>1.109</v>
+        <v>1.104</v>
       </c>
       <c r="E27">
-        <v>2.109</v>
+        <v>2.104</v>
       </c>
       <c r="F27">
-        <v>2.1622</v>
+        <v>2.1524</v>
       </c>
       <c r="G27" s="2">
-        <v>1.1622</v>
+        <v>1.1524</v>
       </c>
       <c r="H27" s="2">
-        <v>0.099</v>
+        <v>0.0981</v>
       </c>
       <c r="I27" s="2">
         <v>-0.1156</v>
       </c>
       <c r="J27" s="2">
-        <v>0.1096</v>
+        <v>0.1095</v>
       </c>
       <c r="K27" s="3">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="L27" s="2">
         <v>0.1093</v>
@@ -2945,7 +2934,7 @@
         <v>0.1653</v>
       </c>
       <c r="R27" s="2">
-        <v>-0.0633</v>
+        <v>-0.0676</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1420,10 +1420,20 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="18" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
@@ -1498,7 +1508,7 @@
         <v>3.775</v>
       </c>
       <c r="F2">
-        <v>6.8371</v>
+        <v>7.04</v>
       </c>
       <c r="G2" s="2">
         <v>5.8371</v>
@@ -1554,7 +1564,7 @@
         <v>3.315</v>
       </c>
       <c r="F3">
-        <v>5.5076</v>
+        <v>5.7866</v>
       </c>
       <c r="G3" s="2">
         <v>4.5076</v>
@@ -1610,7 +1620,7 @@
         <v>1.448</v>
       </c>
       <c r="F4">
-        <v>1.448</v>
+        <v>1.4478</v>
       </c>
       <c r="G4" s="2">
         <v>0.4477</v>
@@ -1666,7 +1676,7 @@
         <v>1.9335</v>
       </c>
       <c r="F5">
-        <v>2.0827</v>
+        <v>2.0919</v>
       </c>
       <c r="G5" s="2">
         <v>1.0827</v>
@@ -1722,7 +1732,7 @@
         <v>7.708</v>
       </c>
       <c r="F6">
-        <v>8.1225</v>
+        <v>8.1386</v>
       </c>
       <c r="G6" s="2">
         <v>7.1225</v>
@@ -1778,7 +1788,7 @@
         <v>2.1058</v>
       </c>
       <c r="F7">
-        <v>2.1058</v>
+        <v>2.1159</v>
       </c>
       <c r="G7" s="2">
         <v>1.1058</v>
@@ -1834,7 +1844,7 @@
         <v>2.1676</v>
       </c>
       <c r="F8">
-        <v>2.1676</v>
+        <v>2.1637</v>
       </c>
       <c r="G8" s="2">
         <v>1.1676</v>
@@ -1890,7 +1900,7 @@
         <v>1.4448</v>
       </c>
       <c r="F9">
-        <v>1.4534</v>
+        <v>1.4835</v>
       </c>
       <c r="G9" s="2">
         <v>0.4533</v>
@@ -1946,7 +1956,7 @@
         <v>1.6357</v>
       </c>
       <c r="F10">
-        <v>1.6357</v>
+        <v>1.66</v>
       </c>
       <c r="G10" s="2">
         <v>0.6357</v>
@@ -2002,7 +2012,7 @@
         <v>1.0607</v>
       </c>
       <c r="F11">
-        <v>1.0607</v>
+        <v>1.0424</v>
       </c>
       <c r="G11" s="2">
         <v>0.0608</v>
@@ -2058,7 +2068,7 @@
         <v>2.212</v>
       </c>
       <c r="F12">
-        <v>2.2759</v>
+        <v>2.2808</v>
       </c>
       <c r="G12" s="2">
         <v>1.2759</v>
@@ -2114,7 +2124,7 @@
         <v>2.877</v>
       </c>
       <c r="F13">
-        <v>2.877</v>
+        <v>2.951</v>
       </c>
       <c r="G13" s="2">
         <v>1.877</v>
@@ -2170,7 +2180,7 @@
         <v>3.286</v>
       </c>
       <c r="F14">
-        <v>4.485</v>
+        <v>4.4248</v>
       </c>
       <c r="G14" s="2">
         <v>3.485</v>
@@ -2226,7 +2236,7 @@
         <v>1.255</v>
       </c>
       <c r="F15">
-        <v>1.255</v>
+        <v>1.257</v>
       </c>
       <c r="G15" s="2">
         <v>0.255</v>
@@ -2282,7 +2292,7 @@
         <v>1.476</v>
       </c>
       <c r="F16">
-        <v>1.5315</v>
+        <v>1.5442</v>
       </c>
       <c r="G16" s="2">
         <v>0.5315</v>
@@ -2338,7 +2348,7 @@
         <v>1.618</v>
       </c>
       <c r="F17">
-        <v>1.618</v>
+        <v>1.606</v>
       </c>
       <c r="G17" s="2">
         <v>0.618</v>
@@ -2394,7 +2404,7 @@
         <v>0.9823</v>
       </c>
       <c r="F18">
-        <v>0.9823</v>
+        <v>0.9917</v>
       </c>
       <c r="G18" s="2">
         <v>-0.0177</v>
@@ -2450,7 +2460,7 @@
         <v>1.176</v>
       </c>
       <c r="F19">
-        <v>1.176</v>
+        <v>1.158</v>
       </c>
       <c r="G19" s="2">
         <v>0.176</v>
@@ -2506,7 +2516,7 @@
         <v>3.3493</v>
       </c>
       <c r="F20">
-        <v>3.3493</v>
+        <v>3.2684</v>
       </c>
       <c r="G20" s="2">
         <v>2.3496</v>
@@ -2562,7 +2572,7 @@
         <v>2.3673</v>
       </c>
       <c r="F21">
-        <v>2.9364</v>
+        <v>3.0052</v>
       </c>
       <c r="G21" s="2">
         <v>1.9364</v>
@@ -2618,7 +2628,7 @@
         <v>2.4801</v>
       </c>
       <c r="F22">
-        <v>3.6664</v>
+        <v>3.6818</v>
       </c>
       <c r="G22" s="2">
         <v>2.6664</v>
@@ -2674,7 +2684,7 @@
         <v>1.3067</v>
       </c>
       <c r="F23">
-        <v>1.3097</v>
+        <v>1.3096</v>
       </c>
       <c r="G23" s="2">
         <v>0.3096</v>
@@ -2730,7 +2740,7 @@
         <v>1.602</v>
       </c>
       <c r="F24">
-        <v>1.7273</v>
+        <v>1.7267</v>
       </c>
       <c r="G24" s="2">
         <v>0.7273</v>
@@ -2786,7 +2796,7 @@
         <v>1.0404</v>
       </c>
       <c r="F25">
-        <v>1.0404</v>
+        <v>1.0397</v>
       </c>
       <c r="G25" s="2">
         <v>0.0404</v>
@@ -2842,7 +2852,7 @@
         <v>1.1871</v>
       </c>
       <c r="F26">
-        <v>1.1843</v>
+        <v>1.1686</v>
       </c>
       <c r="G26" s="2">
         <v>0.1843</v>
@@ -2898,7 +2908,7 @@
         <v>2.104</v>
       </c>
       <c r="F27">
-        <v>2.1524</v>
+        <v>2.1895</v>
       </c>
       <c r="G27" s="2">
         <v>1.1524</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9857</v>
+        <v>0.9858</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9857</v>
+        <v>0.9858</v>
       </c>
       <c r="F10" t="n">
         <v>0.9858</v>
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.5532</v>
+        <v>3.5528</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5532</v>
+        <v>3.5528</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5532</v>
+        <v>3.5528</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>81.47%</t>
+          <t>81.46%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>17.79%</t>
+          <t>17.80%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.0535</v>
+        <v>1.0533</v>
       </c>
       <c r="E23" t="n">
-        <v>2.3627</v>
+        <v>2.3622</v>
       </c>
       <c r="F23" t="n">
-        <v>2.9229</v>
+        <v>2.9223</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>90.90%</t>
+          <t>90.89%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>8.39%</t>
         </is>
       </c>
     </row>
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9976</v>
+        <v>0.9986</v>
       </c>
       <c r="E24" t="n">
-        <v>2.4496</v>
+        <v>2.4521</v>
       </c>
       <c r="F24" t="n">
         <v>3.5663</v>
